--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1957,6 +1957,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Gina (Balangquit)</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1971,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1982,11 +1987,6 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Gina (Balangquit)</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>WARNING NON PAYMENT</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WARNING NON PAYMENT</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2162,6 +2162,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Marie(Oliv)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2176,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2187,11 +2192,6 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Marie(Oliv)</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>marina</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>blk12lot12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2292,6 +2292,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>babuyan</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2306,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2317,11 +2322,6 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>babuyan</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>dejesus</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2441,12 +2441,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2461,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2481,7 +2486,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2491,7 +2496,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2501,7 +2506,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FIBER na</t>
+          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2516,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2521,7 +2526,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2536,7 +2541,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2552,11 +2557,6 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>cctv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>ronald</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2682,6 +2682,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
         </is>
       </c>
     </row>
@@ -2691,22 +2696,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2726,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2732,6 +2742,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2756,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2761,7 +2776,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
+          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2771,12 +2786,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2791,7 +2806,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
+          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
         </is>
       </c>
     </row>
@@ -2801,17 +2816,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2821,7 +2836,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
+          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2846,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2851,7 +2866,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
+          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2876,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2881,7 +2896,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
+          <t>Kapit bahay</t>
         </is>
       </c>
     </row>
@@ -2891,27 +2906,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2931,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2941,7 +2951,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
+          <t>kapit bahay ni christian</t>
         </is>
       </c>
     </row>
@@ -2951,17 +2961,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>25MBPS</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2971,7 +2981,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kapit bahay</t>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2991,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2997,6 +3007,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3021,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3026,7 +3041,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>kapit bahay ni christian</t>
+          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3051,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>25MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3056,7 +3071,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3081,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3086,7 +3101,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3096,12 +3111,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3116,7 +3131,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
+          <t>edmon2 eto yon</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3141,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3142,11 +3157,6 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3156,12 +3166,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3176,7 +3186,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3196,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3206,7 +3216,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>edmon2 eto yon</t>
+          <t>anak ni ate che (Meanne)</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3226,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3232,6 +3242,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3256,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3261,7 +3276,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
+          <t>ReginaPichay F.MANALO OCT 10</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3286,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3291,7 +3306,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>anak ni ate che (Meanne)</t>
+          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3316,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3311,17 +3326,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>150MBPS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3341,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3347,11 +3357,6 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>ReginaPichay F.MANALO OCT 10</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3366,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3377,11 +3382,6 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>150MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3432,6 +3432,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Marin</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3446,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3466,7 +3471,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3491,7 +3496,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>denise</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3507,11 +3512,6 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Marin</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>8MBPS</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3631,12 +3631,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3651,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3656,7 +3661,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3671,7 +3676,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3681,42 +3686,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>estradajelaii</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>adminserver</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>35MBPS</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3752,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w4d2h5m53s</t>
+          <t>2w4h45m31s</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3772,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w4d2h5m52s</t>
+          <t>2w4h45m30s</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3792,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w4d2h5m52s</t>
+          <t>2w4h45m30s</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w4d2h5m49s</t>
+          <t>2w4h45m27s</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3832,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w4d2h5m48s</t>
+          <t>2w4h45m26s</t>
         </is>
       </c>
     </row>
@@ -3867,17 +3842,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w4d2h5m45s</t>
+          <t>2w4h44m59s</t>
         </is>
       </c>
     </row>
@@ -3887,17 +3862,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.227</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w4d2h5m36s</t>
+          <t>2w4h44m58s</t>
         </is>
       </c>
     </row>
@@ -3907,17 +3882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w4d2h5m21s</t>
+          <t>2w4h44m49s</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3902,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w4d2h5m20s</t>
+          <t>2w4h44m46s</t>
         </is>
       </c>
     </row>
@@ -3947,17 +3922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w4d2h5m11s</t>
+          <t>2w4h44m26s</t>
         </is>
       </c>
     </row>
@@ -3967,17 +3942,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w4d2h5m8s</t>
+          <t>2w4h44m17s</t>
         </is>
       </c>
     </row>
@@ -3987,17 +3962,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w4d2h4m48s</t>
+          <t>2w3h58m5s</t>
         </is>
       </c>
     </row>
@@ -4007,17 +3982,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w4d2h4m39s</t>
+          <t>2w3h29m9s</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w4d2h3m13s</t>
+          <t>1w6d19h36m49s</t>
         </is>
       </c>
     </row>
@@ -4047,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w4d1h18m27s</t>
+          <t>1w6d15h54m26s</t>
         </is>
       </c>
     </row>
@@ -4067,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w4d49m31s</t>
+          <t>1w6d15h46m15s</t>
         </is>
       </c>
     </row>
@@ -4087,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w3d16h57m11s</t>
+          <t>1w6d15h45m19s</t>
         </is>
       </c>
     </row>
@@ -4107,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w3d13h14m48s</t>
+          <t>1w6d15h45m7s</t>
         </is>
       </c>
     </row>
@@ -4127,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w3d13h6m37s</t>
+          <t>1w6d9h9m40s</t>
         </is>
       </c>
     </row>
@@ -4147,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w3d13h5m41s</t>
+          <t>1w5d22h47m51s</t>
         </is>
       </c>
     </row>
@@ -4167,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w3d13h5m29s</t>
+          <t>1w5d22h43m51s</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w3d6h30m2s</t>
+          <t>1w5d22h38m8s</t>
         </is>
       </c>
     </row>
@@ -4207,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w2d21h29m57s</t>
+          <t>1w5d21h32m54s</t>
         </is>
       </c>
     </row>
@@ -4227,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.251</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w2d20h8m13s</t>
+          <t>1w5d21h24m22s</t>
         </is>
       </c>
     </row>
@@ -4247,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w2d20h4m13s</t>
+          <t>1w5d10h44m3s</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w2d19h58m30s</t>
+          <t>1w5d4h27m27s</t>
         </is>
       </c>
     </row>
@@ -4287,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w2d18h53m16s</t>
+          <t>1w4d21h45m32s</t>
         </is>
       </c>
     </row>
@@ -4307,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.251</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w2d18h44m44s</t>
+          <t>1w3d19h49m18s</t>
         </is>
       </c>
     </row>
@@ -4327,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w2d8h4m25s</t>
+          <t>1w3d40m54s</t>
         </is>
       </c>
     </row>
@@ -4347,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w2d1h47m49s</t>
+          <t>1w2d3h13m31s</t>
         </is>
       </c>
     </row>
@@ -4367,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w1d19h5m54s</t>
+          <t>1w2d1h21m14s</t>
         </is>
       </c>
     </row>
@@ -4387,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w17h9m40s</t>
+          <t>1w1d1h36m25s</t>
         </is>
       </c>
     </row>
@@ -4407,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6d22h1m16s</t>
+          <t>1w1d1h22m12s</t>
         </is>
       </c>
     </row>
@@ -4427,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d12h59m51s</t>
+          <t>1w21h58m43s</t>
         </is>
       </c>
     </row>
@@ -4447,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d33m53s</t>
+          <t>1w21h21m5s</t>
         </is>
       </c>
     </row>
@@ -4467,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6d3m13s</t>
+          <t>1w20h5m35s</t>
         </is>
       </c>
     </row>
@@ -4487,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5d22h41m36s</t>
+          <t>1w20h1m44s</t>
         </is>
       </c>
     </row>
@@ -4507,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4d23h16m41s</t>
+          <t>1w18h24m44s</t>
         </is>
       </c>
     </row>
@@ -4527,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4d22h56m47s</t>
+          <t>1w18h24m13s</t>
         </is>
       </c>
     </row>
@@ -4547,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d22h42m34s</t>
+          <t>1w15h45m56s</t>
         </is>
       </c>
     </row>
@@ -4567,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d19h19m5s</t>
+          <t>1w15h39m39s</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d18h41m27s</t>
+          <t>6d18h7m7s</t>
         </is>
       </c>
     </row>
@@ -4607,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d17h39m49s</t>
+          <t>5d21h28m22s</t>
         </is>
       </c>
     </row>
@@ -4627,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4d17h25m57s</t>
+          <t>5d21h9m55s</t>
         </is>
       </c>
     </row>
@@ -4647,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4d17h22m6s</t>
+          <t>5d20h34m4s</t>
         </is>
       </c>
     </row>
@@ -4667,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4d15h45m6s</t>
+          <t>5d19h56m10s</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dejesus</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4d15h45m6s</t>
+          <t>5d18h46m7s</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4d15h44m35s</t>
+          <t>5d18h29m44s</t>
         </is>
       </c>
     </row>
@@ -4727,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4d15h3m7s</t>
+          <t>5d16h32m54s</t>
         </is>
       </c>
     </row>
@@ -4747,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4d14h31m36s</t>
+          <t>4d21h26m44s</t>
         </is>
       </c>
     </row>
@@ -4767,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d14h14m55s</t>
+          <t>4d21h15m35s</t>
         </is>
       </c>
     </row>
@@ -4787,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4d13h6m18s</t>
+          <t>4d18h34m14s</t>
         </is>
       </c>
     </row>
@@ -4807,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.250</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4d13h1s</t>
+          <t>4d18h1m46s</t>
         </is>
       </c>
     </row>
@@ -4827,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d18h22m13s</t>
+          <t>4d17h36m27s</t>
         </is>
       </c>
     </row>
@@ -4847,17 +4822,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d15h27m29s</t>
+          <t>4d17h4m52s</t>
         </is>
       </c>
     </row>
@@ -4867,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.136</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2d22h16m51s</t>
+          <t>4d15h34m6s</t>
         </is>
       </c>
     </row>
@@ -4887,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2d18h48m44s</t>
+          <t>4d15h2m30s</t>
         </is>
       </c>
     </row>
@@ -4907,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2d18h30m17s</t>
+          <t>4d13h33m7s</t>
         </is>
       </c>
     </row>
@@ -4927,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2d17h54m26s</t>
+          <t>4d9h54m29s</t>
         </is>
       </c>
     </row>
@@ -4947,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d17h16m32s</t>
+          <t>3d23h47m23s</t>
         </is>
       </c>
     </row>
@@ -4967,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d16h6m29s</t>
+          <t>3d20h16m28s</t>
         </is>
       </c>
     </row>
@@ -4987,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d15h50m6s</t>
+          <t>3d5h13m16s</t>
         </is>
       </c>
     </row>
@@ -5007,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d14h23m39s</t>
+          <t>3d3h12m6s</t>
         </is>
       </c>
     </row>
@@ -5027,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d13h53m16s</t>
+          <t>3d37m28s</t>
         </is>
       </c>
     </row>
@@ -5047,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d11h57m48s</t>
+          <t>2d23h17m3s</t>
         </is>
       </c>
     </row>
@@ -5067,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d6h17m7s</t>
+          <t>2d18h31m26s</t>
         </is>
       </c>
     </row>
@@ -5087,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.135</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1d21h28m3s</t>
+          <t>2d17h46m37s</t>
         </is>
       </c>
     </row>
@@ -5107,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1d18h47m6s</t>
+          <t>2d16h22m3s</t>
         </is>
       </c>
     </row>
@@ -5127,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.227</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d18h35m57s</t>
+          <t>2d16h19m7s</t>
         </is>
       </c>
     </row>
@@ -5147,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1d18h8m31s</t>
+          <t>2d14h20m56s</t>
         </is>
       </c>
     </row>
@@ -5167,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d16h14m21s</t>
+          <t>2d13h27m57s</t>
         </is>
       </c>
     </row>
@@ -5187,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d15h54m36s</t>
+          <t>2d9h25s</t>
         </is>
       </c>
     </row>
@@ -5207,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.250</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d15h22m8s</t>
+          <t>2d5h9m19s</t>
         </is>
       </c>
     </row>
@@ -5227,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d14h56m49s</t>
+          <t>2d4h1m53s</t>
         </is>
       </c>
     </row>
@@ -5247,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d14h29m44s</t>
+          <t>2d1h17m39s</t>
         </is>
       </c>
     </row>
@@ -5267,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.245</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d14h25m14s</t>
+          <t>2d44m18s</t>
         </is>
       </c>
     </row>
@@ -5287,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d13h46m46s</t>
+          <t>2d42m52s</t>
         </is>
       </c>
     </row>
@@ -5307,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d13h46m21s</t>
+          <t>1d23h39m29s</t>
         </is>
       </c>
     </row>
@@ -5327,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.136</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d12h54m28s</t>
+          <t>1d20h41m37s</t>
         </is>
       </c>
     </row>
@@ -5347,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.137</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d12h33m10s</t>
+          <t>1d17h38m17s</t>
         </is>
       </c>
     </row>
@@ -5367,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d12h22m52s</t>
+          <t>1d16h13m24s</t>
         </is>
       </c>
     </row>
@@ -5387,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.137</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d10h53m29s</t>
+          <t>1d15h51m27s</t>
         </is>
       </c>
     </row>
@@ -5407,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d7h29m35s</t>
+          <t>1d13h44m28s</t>
         </is>
       </c>
     </row>
@@ -5427,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d7h14m51s</t>
+          <t>1d9h37m31s</t>
         </is>
       </c>
     </row>
@@ -5447,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d7h12m20s</t>
+          <t>1d9h13m13s</t>
         </is>
       </c>
     </row>
@@ -5467,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d6h45m49s</t>
+          <t>1d8h21m</t>
         </is>
       </c>
     </row>
@@ -5487,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d1h49m19s</t>
+          <t>1d7h20m17s</t>
         </is>
       </c>
     </row>
@@ -5507,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.245</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>23h59m56s</t>
+          <t>1d3h28m5s</t>
         </is>
       </c>
     </row>
@@ -5527,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>22h3m51s</t>
+          <t>22h12m22s</t>
         </is>
       </c>
     </row>
@@ -5547,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21h7m45s</t>
+          <t>21h15m25s</t>
         </is>
       </c>
     </row>
@@ -5567,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>18h21m35s</t>
+          <t>20h43m13s</t>
         </is>
       </c>
     </row>
@@ -5587,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>17h36m50s</t>
+          <t>20h29m2s</t>
         </is>
       </c>
     </row>
@@ -5607,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>17h34m31s</t>
+          <t>20h16m51s</t>
         </is>
       </c>
     </row>
@@ -5627,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>17h23m20s</t>
+          <t>20h11m</t>
         </is>
       </c>
     </row>
@@ -5647,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>14h29m51s</t>
+          <t>18h22m17s</t>
         </is>
       </c>
     </row>
@@ -5667,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>12h46m29s</t>
+          <t>18h19m46s</t>
         </is>
       </c>
     </row>
@@ -5687,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12h41m56s</t>
+          <t>17h55m50s</t>
         </is>
       </c>
     </row>
@@ -5707,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.135</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>12h19m17s</t>
+          <t>14h20m57s</t>
         </is>
       </c>
     </row>
@@ -5727,17 +5702,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9h49m19s</t>
+          <t>12h37m15s</t>
         </is>
       </c>
     </row>
@@ -5747,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>7h22m2s</t>
+          <t>10h38m</t>
         </is>
       </c>
     </row>
@@ -5767,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6h55m34s</t>
+          <t>10h4m46s</t>
         </is>
       </c>
     </row>
@@ -5787,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6h40m3s</t>
+          <t>9h39m39s</t>
         </is>
       </c>
     </row>
@@ -5807,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>5h38m15s</t>
+          <t>9h20m24s</t>
         </is>
       </c>
     </row>
@@ -5827,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5h27m4s</t>
+          <t>9h2m32s</t>
         </is>
       </c>
     </row>
@@ -5847,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4h15m42s</t>
+          <t>8h3m51s</t>
         </is>
       </c>
     </row>
@@ -5867,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2h57m1s</t>
+          <t>7h59m13s</t>
         </is>
       </c>
     </row>
@@ -5887,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2h33m45s</t>
+          <t>6h37m42s</t>
         </is>
       </c>
     </row>
@@ -5907,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2h33m38s</t>
+          <t>3h53m52s</t>
         </is>
       </c>
     </row>
@@ -5927,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h28m15s</t>
+          <t>2h34m12s</t>
         </is>
       </c>
     </row>
@@ -5947,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h26m54s</t>
+          <t>1h9m1s</t>
         </is>
       </c>
     </row>
@@ -5967,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1h28m30s</t>
+          <t>1h6m</t>
         </is>
       </c>
     </row>
@@ -5987,17 +5962,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>32m28s</t>
+          <t>45m23s</t>
         </is>
       </c>
     </row>
@@ -6007,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>18m35s</t>
+          <t>28m47s</t>
         </is>
       </c>
     </row>
@@ -6027,17 +6002,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>11m52s</t>
+          <t>17m42s</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6133,7 +6108,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6118,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6128,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6162,21 +6142,6 @@
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>denise</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2w4h45m31s</t>
+          <t>2w14h44m25s</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2w4h45m30s</t>
+          <t>2w14h44m24s</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2w4h45m30s</t>
+          <t>2w14h44m24s</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2w4h45m27s</t>
+          <t>2w14h44m21s</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2w4h45m26s</t>
+          <t>2w14h44m20s</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2w4h44m59s</t>
+          <t>2w14h43m53s</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2w4h44m58s</t>
+          <t>2w14h43m52s</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2w4h44m49s</t>
+          <t>2w14h43m43s</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2w4h44m46s</t>
+          <t>2w14h43m40s</t>
         </is>
       </c>
     </row>
@@ -3922,17 +3922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2w4h44m26s</t>
+          <t>2w14h43m11s</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3942,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2w4h44m17s</t>
+          <t>2w13h56m59s</t>
         </is>
       </c>
     </row>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2w3h58m5s</t>
+          <t>2w13h28m3s</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3982,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2w3h29m9s</t>
+          <t>2w5h35m43s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w6d19h36m49s</t>
+          <t>2w1h53m20s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w6d15h54m26s</t>
+          <t>2w1h45m9s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w6d15h46m15s</t>
+          <t>2w1h44m13s</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w6d15h45m19s</t>
+          <t>2w1h44m1s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w6d15h45m7s</t>
+          <t>1w6d19h8m34s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w6d9h9m40s</t>
+          <t>1w6d8h46m45s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w5d22h47m51s</t>
+          <t>1w6d8h42m45s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w5d22h43m51s</t>
+          <t>1w6d8h37m2s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w5d22h38m8s</t>
+          <t>1w6d7h31m48s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.251</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w5d21h32m54s</t>
+          <t>1w6d7h23m16s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.251</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w5d21h24m22s</t>
+          <t>1w5d20h42m57s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w5d10h44m3s</t>
+          <t>1w5d14h26m21s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w5d4h27m27s</t>
+          <t>1w5d7h44m26s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w4d21h45m32s</t>
+          <t>1w4d5h48m12s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w3d19h49m18s</t>
+          <t>1w3d10h39m48s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w3d40m54s</t>
+          <t>1w2d13h12m25s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w2d3h13m31s</t>
+          <t>1w2d11h20m8s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w2d1h21m14s</t>
+          <t>1w1d11h35m19s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w1d1h36m25s</t>
+          <t>1w1d11h21m6s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w1d1h22m12s</t>
+          <t>1w1d7h57m37s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1w21h58m43s</t>
+          <t>1w1d7h19m59s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1w21h21m5s</t>
+          <t>1w1d6h38s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1w20h5m35s</t>
+          <t>1w1d4h23m38s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1w20h1m44s</t>
+          <t>1w1d4h23m7s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1w18h24m44s</t>
+          <t>1w1d1h44m50s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1w18h24m13s</t>
+          <t>1w1d1h38m33s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1w15h45m56s</t>
+          <t>1w4h6m1s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1w15h39m39s</t>
+          <t>6d7h27m16s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6d18h7m7s</t>
+          <t>6d7h8m49s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5d21h28m22s</t>
+          <t>6d6h32m58s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d21h9m55s</t>
+          <t>6d5h55m4s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d20h34m4s</t>
+          <t>6d2h31m48s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d19h56m10s</t>
+          <t>5d7h25m38s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d18h46m7s</t>
+          <t>5d7h14m29s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d18h29m44s</t>
+          <t>5d4h33m8s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.250</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d16h32m54s</t>
+          <t>5d4h40s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4d21h26m44s</t>
+          <t>5d3h35m21s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d21h15m35s</t>
+          <t>5d3h3m46s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.136</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4d18h34m14s</t>
+          <t>5d1h33m</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.250</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4d18h1m46s</t>
+          <t>5d1h1m24s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4d17h36m27s</t>
+          <t>4d23h32m1s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4d17h4m52s</t>
+          <t>4d19h53m23s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.136</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4d15h34m6s</t>
+          <t>4d9h46m17s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4d15h2m30s</t>
+          <t>4d6h15m22s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4d13h33m7s</t>
+          <t>3d15h12m10s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4d9h54m29s</t>
+          <t>3d13h11m</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d23h47m23s</t>
+          <t>3d10h36m22s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d20h16m28s</t>
+          <t>3d9h15m57s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d5h13m16s</t>
+          <t>3d4h30m20s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.135</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d3h12m6s</t>
+          <t>3d3h45m31s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3d37m28s</t>
+          <t>3d2h20m57s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.227</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d23h17m3s</t>
+          <t>3d2h18m1s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d18h31m26s</t>
+          <t>3d19m50s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.135</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d17h46m37s</t>
+          <t>2d23h26m51s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d16h22m3s</t>
+          <t>2d15h8m13s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.227</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d16h19m7s</t>
+          <t>2d14h47s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d14h20m56s</t>
+          <t>2d11h16m33s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d13h27m57s</t>
+          <t>2d10h41m46s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d9h25s</t>
+          <t>2d3h37m11s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d5h9m19s</t>
+          <t>2d2h12m18s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.137</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d4h1m53s</t>
+          <t>2d1h50m21s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d1h17m39s</t>
+          <t>1d19h36m25s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.245</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d44m18s</t>
+          <t>1d19h12m7s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d42m52s</t>
+          <t>1d18h19m54s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d23h39m29s</t>
+          <t>1d17h19m11s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d20h41m37s</t>
+          <t>1d13h26m59s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d17h38m17s</t>
+          <t>1d8h11m16s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d16h13m24s</t>
+          <t>1d6h42m7s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.137</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d15h51m27s</t>
+          <t>1d6h27m56s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d13h44m28s</t>
+          <t>1d6h9m54s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d9h37m31s</t>
+          <t>1d4h21m11s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d9h13m13s</t>
+          <t>1d3h54m44s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d8h21m</t>
+          <t>1d19m51s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d7h20m17s</t>
+          <t>20h36m54s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d3h28m5s</t>
+          <t>20h3m40s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>22h12m22s</t>
+          <t>19h38m33s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21h15m25s</t>
+          <t>19h19m18s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20h43m13s</t>
+          <t>19h1m26s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20h29m2s</t>
+          <t>18h2m45s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>20h16m51s</t>
+          <t>17h58m7s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20h11m</t>
+          <t>16h36m36s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>18h22m17s</t>
+          <t>11h7m55s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>18h19m46s</t>
+          <t>10h27m41s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>17h55m50s</t>
+          <t>10h16m36s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.245</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>14h20m57s</t>
+          <t>8h19m42s</t>
         </is>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>12h37m15s</t>
+          <t>6h46m30s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10h38m</t>
+          <t>6h7m40s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10h4m46s</t>
+          <t>5h29m34s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9h39m39s</t>
+          <t>5h5m8s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9h20m24s</t>
+          <t>4h18m42s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9h2m32s</t>
+          <t>4h10m59s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>8h3m51s</t>
+          <t>4h1m14s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>7h59m13s</t>
+          <t>3h46m6s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6h37m42s</t>
+          <t>2h48m35s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3h53m52s</t>
+          <t>2h39m21s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h34m12s</t>
+          <t>2h20m47s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1h9m1s</t>
+          <t>2h14m50s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1h6m</t>
+          <t>1h35m29s</t>
         </is>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>45m23s</t>
+          <t>1h55s</t>
         </is>
       </c>
     </row>
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>28m47s</t>
+          <t>31m10s</t>
         </is>
       </c>
     </row>
@@ -6002,17 +6002,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>17m42s</t>
+          <t>23m56s</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3706,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,17 +3742,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>192.168.80.249</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2w14h44m25s</t>
+          <t>1d7h59m38s</t>
         </is>
       </c>
     </row>
@@ -3762,17 +3762,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>192.168.80.248</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2w14h44m24s</t>
+          <t>1d7h59m37s</t>
         </is>
       </c>
     </row>
@@ -3782,17 +3782,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2w14h44m24s</t>
+          <t>1d7h59m37s</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.251</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2w14h44m21s</t>
+          <t>1d7h59m37s</t>
         </is>
       </c>
     </row>
@@ -3822,17 +3822,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.250</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2w14h44m20s</t>
+          <t>1d7h59m37s</t>
         </is>
       </c>
     </row>
@@ -3842,17 +3842,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.249</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2w14h43m53s</t>
+          <t>1d7h59m37s</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.248</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2w14h43m52s</t>
+          <t>1d7h59m36s</t>
         </is>
       </c>
     </row>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.245</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2w14h43m43s</t>
+          <t>1d7h59m36s</t>
         </is>
       </c>
     </row>
@@ -3902,17 +3902,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2w14h43m40s</t>
+          <t>1d7h59m36s</t>
         </is>
       </c>
     </row>
@@ -3922,17 +3922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2w14h43m11s</t>
+          <t>1d7h59m36s</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3942,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2w13h56m59s</t>
+          <t>1d7h59m36s</t>
         </is>
       </c>
     </row>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2w13h28m3s</t>
+          <t>1d7h59m35s</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3982,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2w5h35m43s</t>
+          <t>1d7h59m35s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2w1h53m20s</t>
+          <t>1d7h59m34s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2w1h45m9s</t>
+          <t>1d7h59m34s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2w1h44m13s</t>
+          <t>1d7h59m33s</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2w1h44m1s</t>
+          <t>1d7h59m33s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.227</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w6d19h8m34s</t>
+          <t>1d7h59m33s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w6d8h46m45s</t>
+          <t>1d7h59m33s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w6d8h42m45s</t>
+          <t>1d7h59m33s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w6d8h37m2s</t>
+          <t>1d7h59m32s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w6d7h31m48s</t>
+          <t>1d7h59m30s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.251</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w6d7h23m16s</t>
+          <t>1d7h59m30s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w5d20h42m57s</t>
+          <t>1d7h59m30s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w5d14h26m21s</t>
+          <t>1d7h59m30s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w5d7h44m26s</t>
+          <t>1d7h59m29s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w4d5h48m12s</t>
+          <t>1d7h59m29s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w3d10h39m48s</t>
+          <t>1d7h59m28s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w2d13h12m25s</t>
+          <t>1d7h59m28s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w2d11h20m8s</t>
+          <t>1d7h59m28s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w1d11h35m19s</t>
+          <t>1d7h59m27s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w1d11h21m6s</t>
+          <t>1d7h59m27s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w1d7h57m37s</t>
+          <t>1d7h59m27s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1w1d7h19m59s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1w1d6h38s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1w1d4h23m38s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1w1d4h23m7s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1w1d1h44m50s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1w1d1h38m33s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1w4h6m1s</t>
+          <t>1d7h59m26s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6d7h27m16s</t>
+          <t>1d7h59m24s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6d7h8m49s</t>
+          <t>1d7h59m24s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6d6h32m58s</t>
+          <t>1d7h59m23s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6d5h55m4s</t>
+          <t>1d7h59m21s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6d2h31m48s</t>
+          <t>1d7h59m17s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d7h25m38s</t>
+          <t>1d7h59m17s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d7h14m29s</t>
+          <t>1d7h59m16s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d4h33m8s</t>
+          <t>1d7h59m15s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.250</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d4h40s</t>
+          <t>1d7h59m14s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5d3h35m21s</t>
+          <t>1d7h59m12s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5d3h3m46s</t>
+          <t>1d7h59m9s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.136</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5d1h33m</t>
+          <t>1d7h59m4s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5d1h1m24s</t>
+          <t>1d7h59m4s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4d23h32m1s</t>
+          <t>1d7h59m3s</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4d19h53m23s</t>
+          <t>1d7h59m3s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4d9h46m17s</t>
+          <t>1d7h59m3s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4d6h15m22s</t>
+          <t>1d7h59m3s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d15h12m10s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d13h11m</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d10h36m22s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d9h15m57s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d4h30m20s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.135</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d3h45m31s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3d2h20m57s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.227</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3d2h18m1s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3d19m50s</t>
+          <t>1d7h59m2s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d23h26m51s</t>
+          <t>1d7h59m1s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d15h8m13s</t>
+          <t>1d7h58m59s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d14h47s</t>
+          <t>1d7h58m54s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d11h16m33s</t>
+          <t>1d7h58m54s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d10h41m46s</t>
+          <t>1d7h58m54s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d3h37m11s</t>
+          <t>1d7h58m53s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d2h12m18s</t>
+          <t>1d7h58m52s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.137</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d1h50m21s</t>
+          <t>1d7h58m51s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d19h36m25s</t>
+          <t>1d7h58m40s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d19h12m7s</t>
+          <t>1d7h58m31s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d18h19m54s</t>
+          <t>1d7h58m23s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d17h19m11s</t>
+          <t>1d7h58m16s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d13h26m59s</t>
+          <t>1d7h58m11s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d8h11m16s</t>
+          <t>1d7h58m7s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d6h42m7s</t>
+          <t>1d7h58m7s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d6h27m56s</t>
+          <t>1d7h58m2s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d6h9m54s</t>
+          <t>1d7h57m31s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d4h21m11s</t>
+          <t>1d7h55m21s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d3h54m44s</t>
+          <t>1d7h54m38s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d19m51s</t>
+          <t>1d7h47m14s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20h36m54s</t>
+          <t>1d7h33m16s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20h3m40s</t>
+          <t>1d6h55m32s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>19h38m33s</t>
+          <t>1d2h7m25s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>19h19m18s</t>
+          <t>1d1h26m16s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>19h1m26s</t>
+          <t>1d54m</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>18h2m45s</t>
+          <t>1d39m38s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>17h58m7s</t>
+          <t>1d4m43s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>16h36m36s</t>
+          <t>23h47m33s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>11h7m55s</t>
+          <t>23h18m38s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10h27m41s</t>
+          <t>16h59m24s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10h16m36s</t>
+          <t>16h51m57s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.245</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>8h19m42s</t>
+          <t>16h19m1s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5702,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6h46m30s</t>
+          <t>16h18m17s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6h7m40s</t>
+          <t>16h17m38s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5h29m34s</t>
+          <t>16h7m45s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5h5m8s</t>
+          <t>15h41m22s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4h18m42s</t>
+          <t>14h46m32s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4h10m59s</t>
+          <t>13h49m4s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4h1m14s</t>
+          <t>13h44m36s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3h46m6s</t>
+          <t>12h50m22s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2h48m35s</t>
+          <t>11h43m17s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2h39m21s</t>
+          <t>10h58m2s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h20m47s</t>
+          <t>10h52m4s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h14m50s</t>
+          <t>10h8m18s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1h35m29s</t>
+          <t>9h38m19s</t>
         </is>
       </c>
     </row>
@@ -5962,17 +5962,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1h55s</t>
+          <t>9h27m41s</t>
         </is>
       </c>
     </row>
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>31m10s</t>
+          <t>8h58m52s</t>
         </is>
       </c>
     </row>
@@ -6002,17 +6002,37 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>23m56s</t>
+          <t>7h52m27s</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>almojuela</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>192.168.80.222</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7h10m2s</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6058,7 +6078,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>ilaorent4</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6088,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6098,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ilaorent4</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6108,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6128,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6143,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -6127,21 +6157,6 @@
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>denise</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3706,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,17 +3742,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1d7h59m38s</t>
+          <t>2d16h3m42s</t>
         </is>
       </c>
     </row>
@@ -3762,17 +3762,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1d7h59m37s</t>
+          <t>2d16h3m42s</t>
         </is>
       </c>
     </row>
@@ -3782,17 +3782,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.251</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1d7h59m37s</t>
+          <t>2d16h3m42s</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>192.168.80.251</t>
+          <t>192.168.80.250</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1d7h59m37s</t>
+          <t>2d16h3m42s</t>
         </is>
       </c>
     </row>
@@ -3822,17 +3822,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>192.168.80.250</t>
+          <t>192.168.80.249</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1d7h59m37s</t>
+          <t>2d16h3m42s</t>
         </is>
       </c>
     </row>
@@ -3842,17 +3842,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.80.249</t>
+          <t>192.168.80.248</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1d7h59m37s</t>
+          <t>2d16h3m41s</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.248</t>
+          <t>192.168.80.245</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1d7h59m36s</t>
+          <t>2d16h3m41s</t>
         </is>
       </c>
     </row>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.245</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1d7h59m36s</t>
+          <t>2d16h3m41s</t>
         </is>
       </c>
     </row>
@@ -3902,17 +3902,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1d7h59m36s</t>
+          <t>2d16h3m41s</t>
         </is>
       </c>
     </row>
@@ -3922,17 +3922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1d7h59m36s</t>
+          <t>2d16h3m40s</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3942,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1d7h59m36s</t>
+          <t>2d16h3m40s</t>
         </is>
       </c>
     </row>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1d7h59m35s</t>
+          <t>2d16h3m39s</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3982,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1d7h59m35s</t>
+          <t>2d16h3m39s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1d7h59m34s</t>
+          <t>2d16h3m38s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1d7h59m34s</t>
+          <t>2d16h3m38s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1d7h59m33s</t>
+          <t>2d16h3m38s</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1d7h59m33s</t>
+          <t>2d16h3m37s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.227</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1d7h59m33s</t>
+          <t>2d16h3m35s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1d7h59m33s</t>
+          <t>2d16h3m35s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1d7h59m33s</t>
+          <t>2d16h3m35s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1d7h59m32s</t>
+          <t>2d16h3m35s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1d7h59m30s</t>
+          <t>2d16h3m34s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1d7h59m30s</t>
+          <t>2d16h3m34s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1d7h59m30s</t>
+          <t>2d16h3m33s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1d7h59m30s</t>
+          <t>2d16h3m33s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1d7h59m29s</t>
+          <t>2d16h3m32s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1d7h59m29s</t>
+          <t>2d16h3m32s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1d7h59m28s</t>
+          <t>2d16h3m32s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1d7h59m28s</t>
+          <t>2d16h3m31s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1d7h59m28s</t>
+          <t>2d16h3m31s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1d7h59m27s</t>
+          <t>2d16h3m31s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1d7h59m27s</t>
+          <t>2d16h3m31s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1d7h59m27s</t>
+          <t>2d16h3m31s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m31s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m29s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m28s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m26s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m22s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m21s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1d7h59m26s</t>
+          <t>2d16h3m20s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1d7h59m24s</t>
+          <t>2d16h3m19s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1d7h59m24s</t>
+          <t>2d16h3m17s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1d7h59m23s</t>
+          <t>2d16h3m14s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1d7h59m21s</t>
+          <t>2d16h3m9s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1d7h59m17s</t>
+          <t>2d16h3m9s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1d7h59m17s</t>
+          <t>2d16h3m8s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1d7h59m16s</t>
+          <t>2d16h3m8s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1d7h59m15s</t>
+          <t>2d16h3m8s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1d7h59m14s</t>
+          <t>2d16h3m8s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1d7h59m12s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1d7h59m9s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1d7h59m4s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1d7h59m4s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1d7h59m3s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1d7h59m3s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1d7h59m3s</t>
+          <t>2d16h3m7s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1d7h59m3s</t>
+          <t>2d16h3m6s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h3m4s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m59s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m58s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m56s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m45s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m36s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m28s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m21s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1d7h59m2s</t>
+          <t>2d16h2m16s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1d7h59m1s</t>
+          <t>2d16h2m11s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1d7h58m59s</t>
+          <t>2d16h2m11s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d7h58m54s</t>
+          <t>2d16h2m6s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1d7h58m54s</t>
+          <t>2d16h1m35s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d7h58m54s</t>
+          <t>2d15h59m25s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d7h58m53s</t>
+          <t>2d15h58m42s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d7h58m52s</t>
+          <t>2d15h37m20s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d7h58m51s</t>
+          <t>2d14h59m36s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d7h58m40s</t>
+          <t>2d10h11m29s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d7h58m31s</t>
+          <t>2d8h43m42s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d7h58m23s</t>
+          <t>2d8h8m47s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d7h58m16s</t>
+          <t>2d7h22m42s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d7h58m11s</t>
+          <t>2d1h3m28s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d7h58m7s</t>
+          <t>1d23h45m26s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d7h58m7s</t>
+          <t>1d22h50m36s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d7h58m2s</t>
+          <t>1d18h12m22s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d7h57m31s</t>
+          <t>1d17h42m23s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d7h55m21s</t>
+          <t>1d17h2m56s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d7h54m38s</t>
+          <t>1d3h29m19s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d7h47m14s</t>
+          <t>1d2h39m32s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d7h33m16s</t>
+          <t>1d42m56s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d6h55m32s</t>
+          <t>1d14m24s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1d2h7m25s</t>
+          <t>23h1m25s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1d1h26m16s</t>
+          <t>22h55m48s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1d54m</t>
+          <t>22h36m50s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1d39m38s</t>
+          <t>19h35m41s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1d4m43s</t>
+          <t>18h16m20s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>23h47m33s</t>
+          <t>18h1m53s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>23h18m38s</t>
+          <t>17h32m3s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16h59m24s</t>
+          <t>15h13m46s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>16h51m57s</t>
+          <t>12h50s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16h19m1s</t>
+          <t>9h51m41s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5702,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>16h18m17s</t>
+          <t>9h28m6s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16h17m38s</t>
+          <t>8h44m41s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>16h7m45s</t>
+          <t>8h8m48s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>15h41m22s</t>
+          <t>8h8s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>14h46m32s</t>
+          <t>7h8m45s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>13h49m4s</t>
+          <t>6h57m12s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>13h44m36s</t>
+          <t>6h46m34s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>12h50m22s</t>
+          <t>6h38m8s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11h43m17s</t>
+          <t>6h8m52s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10h58m2s</t>
+          <t>6h8m52s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10h52m4s</t>
+          <t>4h57m30s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10h8m18s</t>
+          <t>1h38m12s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>9h38m19s</t>
+          <t>39m43s</t>
         </is>
       </c>
     </row>
@@ -5962,17 +5962,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>9h27m41s</t>
+          <t>22m54s</t>
         </is>
       </c>
     </row>
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>8h58m52s</t>
+          <t>14m3s</t>
         </is>
       </c>
     </row>
@@ -6002,37 +6002,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7h52m27s</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>almojuela</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>192.168.80.222</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>7h10m2s</t>
+          <t>5m40s</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,7 +6068,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>lando1</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6078,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6088,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6098,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6108,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6118,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6159,6 +6134,16 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>denise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>choychoy</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3706,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2d16h3m42s</t>
+          <t>3d17h27m35s</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2d16h3m42s</t>
+          <t>3d17h27m35s</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2d16h3m42s</t>
+          <t>3d17h27m35s</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2d16h3m42s</t>
+          <t>3d17h27m35s</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2d16h3m42s</t>
+          <t>3d17h27m35s</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2d16h3m41s</t>
+          <t>3d17h27m34s</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2d16h3m41s</t>
+          <t>3d17h27m34s</t>
         </is>
       </c>
     </row>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2d16h3m41s</t>
+          <t>3d17h27m34s</t>
         </is>
       </c>
     </row>
@@ -3902,17 +3902,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2d16h3m41s</t>
+          <t>3d17h27m33s</t>
         </is>
       </c>
     </row>
@@ -3922,17 +3922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2d16h3m40s</t>
+          <t>3d17h27m33s</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3942,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2d16h3m40s</t>
+          <t>3d17h27m32s</t>
         </is>
       </c>
     </row>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2d16h3m39s</t>
+          <t>3d17h27m31s</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3982,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2d16h3m39s</t>
+          <t>3d17h27m31s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2d16h3m38s</t>
+          <t>3d17h27m31s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2d16h3m38s</t>
+          <t>3d17h27m30s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2d16h3m38s</t>
+          <t>3d17h27m28s</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2d16h3m37s</t>
+          <t>3d17h27m28s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2d16h3m35s</t>
+          <t>3d17h27m28s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2d16h3m35s</t>
+          <t>3d17h27m28s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2d16h3m35s</t>
+          <t>3d17h27m27s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2d16h3m35s</t>
+          <t>3d17h27m27s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2d16h3m34s</t>
+          <t>3d17h27m26s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2d16h3m34s</t>
+          <t>3d17h27m25s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2d16h3m33s</t>
+          <t>3d17h27m25s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2d16h3m33s</t>
+          <t>3d17h27m25s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2d16h3m32s</t>
+          <t>3d17h27m24s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2d16h3m32s</t>
+          <t>3d17h27m24s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2d16h3m32s</t>
+          <t>3d17h27m24s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2d16h3m31s</t>
+          <t>3d17h27m22s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2d16h3m31s</t>
+          <t>3d17h27m21s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2d16h3m31s</t>
+          <t>3d17h27m19s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2d16h3m31s</t>
+          <t>3d17h27m15s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2d16h3m31s</t>
+          <t>3d17h27m14s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2d16h3m31s</t>
+          <t>3d17h27m13s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2d16h3m29s</t>
+          <t>3d17h27m12s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2d16h3m28s</t>
+          <t>3d17h27m10s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2d16h3m26s</t>
+          <t>3d17h27m7s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2d16h3m22s</t>
+          <t>3d17h27m2s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2d16h3m21s</t>
+          <t>3d17h27m2s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2d16h3m20s</t>
+          <t>3d17h27m1s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2d16h3m19s</t>
+          <t>3d17h27m1s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2d16h3m17s</t>
+          <t>3d17h27m1s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2d16h3m14s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2d16h3m9s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2d16h3m9s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2d16h3m8s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2d16h3m8s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2d16h3m8s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2d16h3m8s</t>
+          <t>3d17h27m</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m59s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m52s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m51s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m49s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m38s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m29s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2d16h3m7s</t>
+          <t>3d17h26m21s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2d16h3m6s</t>
+          <t>3d17h26m14s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2d16h3m4s</t>
+          <t>3d17h26m9s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2d16h2m59s</t>
+          <t>3d17h26m4s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d16h2m58s</t>
+          <t>3d17h26m4s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d16h2m56s</t>
+          <t>3d17h25m59s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d16h2m45s</t>
+          <t>3d17h25m28s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d16h2m36s</t>
+          <t>3d17h23m18s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d16h2m28s</t>
+          <t>3d17h22m35s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d16h2m21s</t>
+          <t>3d17h1m13s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d16h2m16s</t>
+          <t>3d16h23m29s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d16h2m11s</t>
+          <t>3d11h35m22s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d16h2m11s</t>
+          <t>3d10h7m35s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d16h2m6s</t>
+          <t>3d8h46m35s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d16h1m35s</t>
+          <t>3d2h27m21s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d15h59m25s</t>
+          <t>2d19h6m16s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d15h58m42s</t>
+          <t>2d18h26m49s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d15h37m20s</t>
+          <t>2d4h3m25s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d14h59m36s</t>
+          <t>1d19h25m46s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d10h11m29s</t>
+          <t>1d13h24m43s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d8h43m42s</t>
+          <t>1d11h15m34s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d8h8m47s</t>
+          <t>1d10h51m59s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2d7h22m42s</t>
+          <t>1d10h8m34s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2d1h3m28s</t>
+          <t>1d9h32m41s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d23h45m26s</t>
+          <t>1d8h32m38s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d22h50m36s</t>
+          <t>1d8h2m1s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d18h12m22s</t>
+          <t>1d2h3m36s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d17h42m23s</t>
+          <t>1d1h46m47s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d17h2m56s</t>
+          <t>1d56m56s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d3h29m19s</t>
+          <t>23h22m24s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d2h39m32s</t>
+          <t>22h17m38s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d42m56s</t>
+          <t>21h21m40s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d14m24s</t>
+          <t>20h4m15s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>23h1m25s</t>
+          <t>18h6m18s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22h55m48s</t>
+          <t>17h42m44s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22h36m50s</t>
+          <t>17h35m3s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>19h35m41s</t>
+          <t>14h19m8s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>18h16m20s</t>
+          <t>13h45m58s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>18h1m53s</t>
+          <t>13h44m19s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>17h32m3s</t>
+          <t>13h1m5s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>15h13m46s</t>
+          <t>12h58m14s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12h50s</t>
+          <t>12h43m12s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>9h51m41s</t>
+          <t>12h34m12s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5702,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9h28m6s</t>
+          <t>11h54m26s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8h44m41s</t>
+          <t>10h41m39s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8h8m48s</t>
+          <t>8h51m15s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8h8s</t>
+          <t>7h33m53s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7h8m45s</t>
+          <t>6h53m43s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6h57m12s</t>
+          <t>5h54m8s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>6h46m34s</t>
+          <t>5h43m13s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6h38m8s</t>
+          <t>5h23m20s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6h8m52s</t>
+          <t>5h1m24s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6h8m52s</t>
+          <t>1h54m23s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4h57m30s</t>
+          <t>1h48m39s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1h38m12s</t>
+          <t>1h32m3s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>39m43s</t>
+          <t>35m2s</t>
         </is>
       </c>
     </row>
@@ -5962,17 +5962,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>22m54s</t>
+          <t>29m8s</t>
         </is>
       </c>
     </row>
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>14m3s</t>
+          <t>25m1s</t>
         </is>
       </c>
     </row>
@@ -6002,17 +6002,37 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>5m40s</t>
+          <t>15m1s</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>melvi</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>192.168.80.218</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2m17s</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6068,7 +6088,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6098,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6108,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6128,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6118,12 +6143,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>denise</t>
         </is>
       </c>
     </row>
@@ -6132,16 +6152,6 @@
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>denise</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3742,17 +3742,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.251</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3d17h27m35s</t>
+          <t>4d19h57m4s</t>
         </is>
       </c>
     </row>
@@ -3762,17 +3762,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.250</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3d17h27m35s</t>
+          <t>4d19h57m4s</t>
         </is>
       </c>
     </row>
@@ -3782,17 +3782,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>192.168.80.251</t>
+          <t>192.168.80.249</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3d17h27m35s</t>
+          <t>4d19h57m4s</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>192.168.80.250</t>
+          <t>192.168.80.248</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3d17h27m35s</t>
+          <t>4d19h57m3s</t>
         </is>
       </c>
     </row>
@@ -3822,17 +3822,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>192.168.80.249</t>
+          <t>192.168.80.245</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3d17h27m35s</t>
+          <t>4d19h57m3s</t>
         </is>
       </c>
     </row>
@@ -3842,17 +3842,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.80.248</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3d17h27m34s</t>
+          <t>4d19h57m2s</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.245</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3d17h27m34s</t>
+          <t>4d19h57m1s</t>
         </is>
       </c>
     </row>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3d17h27m34s</t>
+          <t>4d19h57m</t>
         </is>
       </c>
     </row>
@@ -3902,17 +3902,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3d17h27m33s</t>
+          <t>4d19h57m</t>
         </is>
       </c>
     </row>
@@ -3922,17 +3922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3d17h27m33s</t>
+          <t>4d19h57m</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3942,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3d17h27m32s</t>
+          <t>4d19h56m59s</t>
         </is>
       </c>
     </row>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3d17h27m31s</t>
+          <t>4d19h56m57s</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3982,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3d17h27m31s</t>
+          <t>4d19h56m57s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3d17h27m31s</t>
+          <t>4d19h56m57s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3d17h27m30s</t>
+          <t>4d19h56m56s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3d17h27m28s</t>
+          <t>4d19h56m56s</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3d17h27m28s</t>
+          <t>4d19h56m55s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3d17h27m28s</t>
+          <t>4d19h56m54s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3d17h27m28s</t>
+          <t>4d19h56m54s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3d17h27m27s</t>
+          <t>4d19h56m54s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3d17h27m27s</t>
+          <t>4d19h56m53s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3d17h27m26s</t>
+          <t>4d19h56m53s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3d17h27m25s</t>
+          <t>4d19h56m51s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3d17h27m25s</t>
+          <t>4d19h56m50s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3d17h27m25s</t>
+          <t>4d19h56m48s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3d17h27m24s</t>
+          <t>4d19h56m44s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3d17h27m24s</t>
+          <t>4d19h56m43s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3d17h27m24s</t>
+          <t>4d19h56m42s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3d17h27m22s</t>
+          <t>4d19h56m41s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3d17h27m21s</t>
+          <t>4d19h56m39s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3d17h27m19s</t>
+          <t>4d19h56m31s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3d17h27m15s</t>
+          <t>4d19h56m31s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3d17h27m14s</t>
+          <t>4d19h56m30s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3d17h27m13s</t>
+          <t>4d19h56m30s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3d17h27m12s</t>
+          <t>4d19h56m29s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3d17h27m10s</t>
+          <t>4d19h56m29s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3d17h27m7s</t>
+          <t>4d19h56m29s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3d17h27m2s</t>
+          <t>4d19h56m29s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3d17h27m2s</t>
+          <t>4d19h56m29s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3d17h27m1s</t>
+          <t>4d19h56m29s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3d17h27m1s</t>
+          <t>4d19h56m28s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3d17h27m1s</t>
+          <t>4d19h56m21s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h56m18s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h56m7s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h55m58s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h55m50s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h55m43s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h55m38s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3d17h27m</t>
+          <t>4d19h55m33s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3d17h26m59s</t>
+          <t>4d19h55m28s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3d17h26m52s</t>
+          <t>4d19h54m57s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3d17h26m51s</t>
+          <t>4d19h52m47s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d17h26m49s</t>
+          <t>4d19h52m4s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d17h26m38s</t>
+          <t>4d19h30m42s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d17h26m29s</t>
+          <t>4d18h52m58s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d17h26m21s</t>
+          <t>4d14h4m51s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d17h26m14s</t>
+          <t>4d12h37m4s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d17h26m9s</t>
+          <t>4d11h16m4s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d17h26m4s</t>
+          <t>4d4h56m50s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d17h26m4s</t>
+          <t>3d21h35m45s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d17h25m59s</t>
+          <t>3d20h56m18s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d17h25m28s</t>
+          <t>3d6h32m54s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d17h23m18s</t>
+          <t>2d21h55m15s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3d17h22m35s</t>
+          <t>2d15h54m12s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3d17h1m13s</t>
+          <t>2d13h45m3s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3d16h23m29s</t>
+          <t>2d13h21m28s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3d11h35m22s</t>
+          <t>2d10h31m30s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3d10h7m35s</t>
+          <t>2d4h16m16s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3d8h46m35s</t>
+          <t>2d1h51m53s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3d2h27m21s</t>
+          <t>2d47m7s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d19h6m16s</t>
+          <t>1d23h51m9s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d18h26m49s</t>
+          <t>1d20h12m13s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d4h3m25s</t>
+          <t>1d16h13m48s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d19h25m46s</t>
+          <t>1d14h23m55s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d13h24m43s</t>
+          <t>1d13h11m8s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d11h15m34s</t>
+          <t>1d4h23m52s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d10h51m59s</t>
+          <t>1d2h58m37s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d10h8m34s</t>
+          <t>1d2h54m30s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d9h32m41s</t>
+          <t>1d11m30s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d8h32m38s</t>
+          <t>1d8m29s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d8h2m1s</t>
+          <t>23h9m29s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d2h3m36s</t>
+          <t>23h3m24s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d1h46m47s</t>
+          <t>22h48m54s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d56m56s</t>
+          <t>22h42m44s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>23h22m24s</t>
+          <t>22h39m32s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22h17m38s</t>
+          <t>19h58m46s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21h21m40s</t>
+          <t>19h53m23s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20h4m15s</t>
+          <t>18h54m39s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>18h6m18s</t>
+          <t>18h18m26s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>17h42m44s</t>
+          <t>16h19m8s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>17h35m3s</t>
+          <t>14h47m45s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>14h19m8s</t>
+          <t>14h41m54s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13h45m58s</t>
+          <t>12h45m47s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13h44m19s</t>
+          <t>12h17m14s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13h1m5s</t>
+          <t>11h56m47s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>12h58m14s</t>
+          <t>10h18m25s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12h43m12s</t>
+          <t>9h8m19s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>12h34m12s</t>
+          <t>8h17m25s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5702,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11h54m26s</t>
+          <t>7h35m56s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10h41m39s</t>
+          <t>7h13m37s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8h51m15s</t>
+          <t>7h6m26s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7h33m53s</t>
+          <t>4h52m44s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>6h53m43s</t>
+          <t>4h37m42s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5h54m8s</t>
+          <t>4h5m12s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5h43m13s</t>
+          <t>4h1m3s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5h23m20s</t>
+          <t>3h59m3s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>5h1m24s</t>
+          <t>3h24m4s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1h54m23s</t>
+          <t>3h6m1s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1h48m39s</t>
+          <t>2h33m38s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1h32m3s</t>
+          <t>2h28m10s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>35m2s</t>
+          <t>1h38m28s</t>
         </is>
       </c>
     </row>
@@ -5962,17 +5962,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>29m8s</t>
+          <t>1h33m30s</t>
         </is>
       </c>
     </row>
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>25m1s</t>
+          <t>53m53s</t>
         </is>
       </c>
     </row>
@@ -6002,17 +6002,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>15m1s</t>
+          <t>36m39s</t>
         </is>
       </c>
     </row>
@@ -6022,17 +6022,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2m17s</t>
+          <t>9m3s</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4d19h57m4s</t>
+          <t>5d3h57m9s</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4d19h57m4s</t>
+          <t>5d3h57m9s</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4d19h57m4s</t>
+          <t>5d3h57m9s</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4d19h57m3s</t>
+          <t>5d3h57m8s</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4d19h57m3s</t>
+          <t>5d3h57m8s</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4d19h57m2s</t>
+          <t>5d3h57m7s</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4d19h57m1s</t>
+          <t>5d3h57m6s</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4d19h57m</t>
+          <t>5d3h57m5s</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4d19h57m</t>
+          <t>5d3h57m5s</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4d19h57m</t>
+          <t>5d3h57m5s</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4d19h56m59s</t>
+          <t>5d3h57m4s</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4d19h56m57s</t>
+          <t>5d3h57m2s</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4d19h56m57s</t>
+          <t>5d3h57m2s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4d19h56m57s</t>
+          <t>5d3h57m1s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4d19h56m56s</t>
+          <t>5d3h57m1s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4d19h56m56s</t>
+          <t>5d3h57m</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4d19h56m55s</t>
+          <t>5d3h56m59s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +4082,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4d19h56m54s</t>
+          <t>5d3h56m59s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4d19h56m54s</t>
+          <t>5d3h56m59s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4d19h56m54s</t>
+          <t>5d3h56m58s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4d19h56m53s</t>
+          <t>5d3h56m58s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4d19h56m53s</t>
+          <t>5d3h56m56s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4182,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4d19h56m51s</t>
+          <t>5d3h56m55s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4d19h56m50s</t>
+          <t>5d3h56m53s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4222,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4d19h56m48s</t>
+          <t>5d3h56m49s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4d19h56m44s</t>
+          <t>5d3h56m48s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4d19h56m43s</t>
+          <t>5d3h56m47s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4d19h56m42s</t>
+          <t>5d3h56m46s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4302,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4d19h56m41s</t>
+          <t>5d3h56m44s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4d19h56m39s</t>
+          <t>5d3h56m36s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4d19h56m31s</t>
+          <t>5d3h56m36s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4d19h56m31s</t>
+          <t>5d3h56m35s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4d19h56m30s</t>
+          <t>5d3h56m35s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4d19h56m30s</t>
+          <t>5d3h56m34s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4422,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4d19h56m29s</t>
+          <t>5d3h56m34s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4d19h56m29s</t>
+          <t>5d3h56m34s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4d19h56m29s</t>
+          <t>5d3h56m34s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4482,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4d19h56m29s</t>
+          <t>5d3h56m34s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4d19h56m29s</t>
+          <t>5d3h56m34s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d19h56m29s</t>
+          <t>5d3h56m33s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d19h56m28s</t>
+          <t>5d3h56m26s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d19h56m21s</t>
+          <t>5d3h56m23s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4582,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d19h56m18s</t>
+          <t>5d3h56m12s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4d19h56m7s</t>
+          <t>5d3h56m3s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4622,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4d19h55m58s</t>
+          <t>5d3h55m55s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4642,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4d19h55m50s</t>
+          <t>5d3h55m48s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4662,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4d19h55m43s</t>
+          <t>5d3h55m43s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4d19h55m38s</t>
+          <t>5d3h55m38s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4d19h55m33s</t>
+          <t>5d3h55m33s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4722,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4d19h55m28s</t>
+          <t>5d3h55m2s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d19h54m57s</t>
+          <t>5d3h52m9s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4762,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4d19h52m47s</t>
+          <t>5d3h30m47s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4782,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4d19h52m4s</t>
+          <t>5d2h53m3s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4802,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4d19h30m42s</t>
+          <t>4d22h4m56s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4d18h52m58s</t>
+          <t>4d19h16m9s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4842,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4d14h4m51s</t>
+          <t>4d5h35m50s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4862,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4d12h37m4s</t>
+          <t>4d4h56m23s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4882,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4d11h16m4s</t>
+          <t>3d14h32m59s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4d4h56m50s</t>
+          <t>3d5h55m20s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4922,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d21h35m45s</t>
+          <t>2d21h45m8s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4942,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d20h56m18s</t>
+          <t>2d21h21m33s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d6h32m54s</t>
+          <t>2d18h31m35s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d21h55m15s</t>
+          <t>2d12h16m21s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d15h54m12s</t>
+          <t>2d9h51m58s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +5022,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d13h45m3s</t>
+          <t>2d8h47m12s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5042,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d13h21m28s</t>
+          <t>2d7h51m14s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d10h31m30s</t>
+          <t>2d4h12m18s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d4h16m16s</t>
+          <t>2d13m53s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5102,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d1h51m53s</t>
+          <t>1d22h24m</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d47m7s</t>
+          <t>1d21h11m13s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d23h51m9s</t>
+          <t>1d12h23m57s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d20h12m13s</t>
+          <t>1d10h58m42s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d16h13m48s</t>
+          <t>1d10h54m35s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5202,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d14h23m55s</t>
+          <t>1d8h11m35s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d13h11m8s</t>
+          <t>1d8h8m34s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d4h23m52s</t>
+          <t>1d7h9m34s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5262,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d2h58m37s</t>
+          <t>1d6h48m59s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5282,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d2h54m30s</t>
+          <t>1d6h39m37s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5302,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d11m30s</t>
+          <t>1d3h58m51s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d8m29s</t>
+          <t>1d3h53m28s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>23h9m29s</t>
+          <t>1d2h54m44s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5362,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>23h3m24s</t>
+          <t>1d2h18m31s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22h48m54s</t>
+          <t>22h47m50s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22h42m44s</t>
+          <t>22h41m59s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5422,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22h39m32s</t>
+          <t>20h45m52s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5442,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>19h58m46s</t>
+          <t>20h17m19s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5462,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19h53m23s</t>
+          <t>19h56m52s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5482,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>18h54m39s</t>
+          <t>18h18m30s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>18h18m26s</t>
+          <t>17h8m24s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16h19m8s</t>
+          <t>16h17m30s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>14h47m45s</t>
+          <t>15h36m1s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>14h41m54s</t>
+          <t>15h13m42s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5582,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12h45m47s</t>
+          <t>15h6m31s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12h17m14s</t>
+          <t>12h52m49s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>11h56m47s</t>
+          <t>12h37m47s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5642,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10h18m25s</t>
+          <t>12h1m8s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>9h8m19s</t>
+          <t>11h59m8s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>8h17m25s</t>
+          <t>11h24m9s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5702,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7h35m56s</t>
+          <t>11h6m6s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5722,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>7h13m37s</t>
+          <t>10h33m43s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5742,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7h6m26s</t>
+          <t>10h28m15s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4h52m44s</t>
+          <t>9h38m33s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4h37m42s</t>
+          <t>9h33m35s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4h5m12s</t>
+          <t>7h28m</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5822,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4h1m3s</t>
+          <t>6h35m39s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5842,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3h59m3s</t>
+          <t>6h30m39s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5862,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3h24m4s</t>
+          <t>6h15m39s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5882,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3h6m1s</t>
+          <t>6h13m19s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5902,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h33m38s</t>
+          <t>6h11m46s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h28m10s</t>
+          <t>6h11m23s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5942,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1h38m28s</t>
+          <t>3h21m33s</t>
         </is>
       </c>
     </row>
@@ -5962,17 +5962,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1h33m30s</t>
+          <t>1h22m8s</t>
         </is>
       </c>
     </row>
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>53m53s</t>
+          <t>53m49s</t>
         </is>
       </c>
     </row>
@@ -6002,17 +6002,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>36m39s</t>
+          <t>40m15s</t>
         </is>
       </c>
     </row>
@@ -6022,17 +6022,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>9m3s</t>
+          <t>5m39s</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>ilaorent4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1616,17 +1616,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Vangie Babuyan</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1631,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ilaorent4</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1646,7 +1641,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1661,7 +1656,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1671,7 +1666,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1686,7 +1681,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1696,7 +1691,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1711,7 +1706,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1721,12 +1716,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>una sa kanan na cluster ni dada FIBER na</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1752,11 +1752,6 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>una sa kanan na cluster ni dada FIBER na</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1761,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1776,7 +1771,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1791,7 +1786,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1801,7 +1796,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1816,7 +1811,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1826,7 +1821,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1841,7 +1836,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1851,7 +1846,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1866,7 +1861,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1876,7 +1871,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1891,7 +1886,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1901,7 +1896,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1916,7 +1911,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1926,12 +1921,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Gina (Balangquit)</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1951,17 +1951,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Gina (Balangquit)</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1966,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1981,7 +1976,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1996,7 +1991,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2006,7 +2001,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2021,7 +2016,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2031,7 +2026,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WARNING NON PAYMENT</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2046,7 +2041,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2056,7 +2051,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2071,7 +2066,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2081,7 +2076,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2096,7 +2091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2106,12 +2101,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Marie(Oliv)</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>marina</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2156,17 +2156,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Marie(Oliv)</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2171,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>blk12lot12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2186,7 +2181,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2201,7 +2196,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2211,7 +2206,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2226,7 +2221,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2236,12 +2231,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>babuyan</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2286,17 +2286,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>babuyan</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2301,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2316,7 +2311,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2331,7 +2326,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2341,7 +2336,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2356,7 +2351,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2366,7 +2361,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2381,7 +2376,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2391,12 +2386,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FIBER na</t>
+          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2496,17 +2496,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2511,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>cctv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2541,7 +2536,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2551,7 +2546,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2566,7 +2561,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2576,7 +2571,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2591,7 +2586,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>ronald</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2601,7 +2596,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2616,22 +2611,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
         </is>
       </c>
     </row>
@@ -2641,22 +2641,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2666,17 +2671,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2686,7 +2691,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
+          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2701,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2716,7 +2721,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
+          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2726,17 +2731,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2746,7 +2751,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
+          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2761,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2776,7 +2781,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
+          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
         </is>
       </c>
     </row>
@@ -2786,17 +2791,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2806,7 +2811,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
+          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2821,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2836,7 +2841,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
+          <t>Kapit bahay</t>
         </is>
       </c>
     </row>
@@ -2846,27 +2851,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kapit bahay</t>
+          <t>kapit bahay ni christian</t>
         </is>
       </c>
     </row>
@@ -2906,22 +2906,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -2931,17 +2936,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2951,7 +2956,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>kapit bahay ni christian</t>
+          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2961,17 +2966,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>25MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2981,7 +2986,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2996,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3011,7 +3016,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
+          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3021,17 +3026,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3041,7 +3046,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3051,17 +3056,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3071,7 +3076,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>edmon2 eto yon</t>
         </is>
       </c>
     </row>
@@ -3081,27 +3086,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>edmon2 eto yon</t>
+          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3151,12 +3151,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>anak ni ate che (Meanne)</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3171,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3176,7 +3181,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3186,7 +3191,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3201,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3206,7 +3211,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3216,7 +3221,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>anak ni ate che (Meanne)</t>
+          <t>ReginaPichay F.MANALO OCT 10</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3231,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3236,7 +3241,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3246,7 +3251,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Fiber na</t>
+          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3261,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3266,17 +3271,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>150MBPS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>ReginaPichay F.MANALO OCT 10</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3296,17 +3296,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3311,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3326,7 +3321,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>150MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3341,7 +3336,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3366,7 +3361,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3376,7 +3371,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3391,7 +3386,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>denise</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3401,7 +3396,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3416,7 +3411,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3426,17 +3421,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Marin</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3436,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3456,7 +3446,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3471,7 +3461,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3481,7 +3471,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3496,7 +3486,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3506,7 +3496,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3521,7 +3511,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3531,12 +3521,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3541,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3556,7 +3551,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3571,7 +3566,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3581,7 +3576,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3596,7 +3591,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3606,90 +3601,10 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>8MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
-        <is>
-          <t>pppoe</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>estradajelaii</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>adminserver</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>35MBPS</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Babuyan Rent</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ronnie</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>adminserver</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>50MBPS</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>pppoe</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>choychoy</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>adminserver</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>20MBPS</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
         <is>
           <t>pppoe</t>
         </is>
@@ -3706,7 +3621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3752,7 +3667,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5d3h57m9s</t>
+          <t>5d20h34m52s</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3687,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5d3h57m9s</t>
+          <t>5d20h34m52s</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3707,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5d3h57m9s</t>
+          <t>5d20h34m52s</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3727,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5d3h57m8s</t>
+          <t>5d20h34m51s</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3747,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5d3h57m8s</t>
+          <t>5d20h34m51s</t>
         </is>
       </c>
     </row>
@@ -3842,17 +3757,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5d3h57m7s</t>
+          <t>5d20h34m49s</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3777,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5d3h57m6s</t>
+          <t>5d20h34m48s</t>
         </is>
       </c>
     </row>
@@ -3882,17 +3797,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5d3h57m5s</t>
+          <t>5d20h34m48s</t>
         </is>
       </c>
     </row>
@@ -3902,17 +3817,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5d3h57m5s</t>
+          <t>5d20h34m48s</t>
         </is>
       </c>
     </row>
@@ -3922,17 +3837,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5d3h57m5s</t>
+          <t>5d20h34m45s</t>
         </is>
       </c>
     </row>
@@ -3942,17 +3857,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5d3h57m4s</t>
+          <t>5d20h34m45s</t>
         </is>
       </c>
     </row>
@@ -3962,17 +3877,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5d3h57m2s</t>
+          <t>5d20h34m44s</t>
         </is>
       </c>
     </row>
@@ -3982,17 +3897,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5d3h57m2s</t>
+          <t>5d20h34m44s</t>
         </is>
       </c>
     </row>
@@ -4002,17 +3917,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5d3h57m1s</t>
+          <t>5d20h34m42s</t>
         </is>
       </c>
     </row>
@@ -4022,17 +3937,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5d3h57m1s</t>
+          <t>5d20h34m41s</t>
         </is>
       </c>
     </row>
@@ -4042,17 +3957,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5d3h57m</t>
+          <t>5d20h34m41s</t>
         </is>
       </c>
     </row>
@@ -4062,17 +3977,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5d3h56m59s</t>
+          <t>5d20h34m39s</t>
         </is>
       </c>
     </row>
@@ -4082,17 +3997,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5d3h56m59s</t>
+          <t>5d20h34m38s</t>
         </is>
       </c>
     </row>
@@ -4102,17 +4017,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5d3h56m59s</t>
+          <t>5d20h34m36s</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4037,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5d3h56m58s</t>
+          <t>5d20h34m32s</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4057,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5d3h56m58s</t>
+          <t>5d20h34m31s</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4077,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5d3h56m56s</t>
+          <t>5d20h34m30s</t>
         </is>
       </c>
     </row>
@@ -4182,17 +4097,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5d3h56m55s</t>
+          <t>5d20h34m27s</t>
         </is>
       </c>
     </row>
@@ -4202,17 +4117,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5d3h56m53s</t>
+          <t>5d20h34m19s</t>
         </is>
       </c>
     </row>
@@ -4222,17 +4137,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5d3h56m49s</t>
+          <t>5d20h34m19s</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4157,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5d3h56m48s</t>
+          <t>5d20h34m18s</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4177,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5d3h56m47s</t>
+          <t>5d20h34m18s</t>
         </is>
       </c>
     </row>
@@ -4282,17 +4197,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5d3h56m46s</t>
+          <t>5d20h34m17s</t>
         </is>
       </c>
     </row>
@@ -4302,17 +4217,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5d3h56m44s</t>
+          <t>5d20h34m17s</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4237,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5d3h56m36s</t>
+          <t>5d20h34m17s</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4257,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5d3h56m36s</t>
+          <t>5d20h34m17s</t>
         </is>
       </c>
     </row>
@@ -4362,17 +4277,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5d3h56m35s</t>
+          <t>5d20h34m17s</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4297,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5d3h56m35s</t>
+          <t>5d20h34m17s</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4317,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5d3h56m34s</t>
+          <t>5d20h34m16s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4337,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5d3h56m34s</t>
+          <t>5d20h34m9s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4357,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5d3h56m34s</t>
+          <t>5d20h34m6s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4377,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5d3h56m34s</t>
+          <t>5d20h33m55s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4397,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d3h56m34s</t>
+          <t>5d20h33m46s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4417,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d3h56m34s</t>
+          <t>5d20h33m38s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4437,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5d3h56m33s</t>
+          <t>5d20h33m31s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4457,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5d3h56m26s</t>
+          <t>5d20h33m26s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4477,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5d3h56m23s</t>
+          <t>5d20h33m21s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4497,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.143</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5d3h56m12s</t>
+          <t>5d20h33m16s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4517,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d3h56m3s</t>
+          <t>5d20h32m45s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4537,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d3h55m55s</t>
+          <t>5d20h29m52s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4557,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d3h55m48s</t>
+          <t>5d20h8m30s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4577,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d3h55m43s</t>
+          <t>5d19h30m46s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4597,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d3h55m38s</t>
+          <t>5d14h42m39s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4617,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d3h55m33s</t>
+          <t>5d11h53m52s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4637,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5d3h55m2s</t>
+          <t>4d21h34m6s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4657,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5d3h52m9s</t>
+          <t>4d7h10m42s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4677,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5d3h30m47s</t>
+          <t>3d22h33m3s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4697,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5d2h53m3s</t>
+          <t>3d14h22m51s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4717,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4d22h4m56s</t>
+          <t>3d13h59m16s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4737,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4d19h16m9s</t>
+          <t>3d11h9m18s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4757,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4d5h35m50s</t>
+          <t>3d4h54m4s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4777,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4d4h56m23s</t>
+          <t>3d2h29m41s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4797,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d14h32m59s</t>
+          <t>3d1h24m55s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4817,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d5h55m20s</t>
+          <t>3d28m57s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4837,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d21h45m8s</t>
+          <t>2d20h50m1s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4857,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d21h21m33s</t>
+          <t>2d16h51m36s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4877,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d18h31m35s</t>
+          <t>2d15h1m43s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4897,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d12h16m21s</t>
+          <t>2d13h48m56s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +4917,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d9h51m58s</t>
+          <t>2d3h32m18s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +4937,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d8h47m12s</t>
+          <t>2d46m17s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +4957,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d7h51m14s</t>
+          <t>1d23h47m17s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +4977,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d4h12m18s</t>
+          <t>1d23h26m42s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +4997,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d13m53s</t>
+          <t>1d23h17m20s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5017,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d22h24m</t>
+          <t>1d20h36m34s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5037,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1d21h11m13s</t>
+          <t>1d20h31m11s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5057,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d12h23m57s</t>
+          <t>1d19h32m27s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5077,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d10h58m42s</t>
+          <t>1d18h56m14s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5097,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d10h54m35s</t>
+          <t>1d15h19m42s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5117,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d8h11m35s</t>
+          <t>1d13h23m35s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5137,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d8h8m34s</t>
+          <t>1d10h56m13s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5157,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d7h9m34s</t>
+          <t>1d9h46m7s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5177,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d6h48m59s</t>
+          <t>1d8h13m44s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5197,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d6h39m37s</t>
+          <t>1d7h44m14s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5217,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d3h58m51s</t>
+          <t>1d5h15m30s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5237,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d3h53m28s</t>
+          <t>1d3h5m58s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5257,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d2h54m44s</t>
+          <t>1d5m43s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5277,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d2h18m31s</t>
+          <t>23h13m22s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5297,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22h47m50s</t>
+          <t>23h8m22s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5317,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22h41m59s</t>
+          <t>22h53m22s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5337,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20h45m52s</t>
+          <t>22h51m2s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5357,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20h17m19s</t>
+          <t>22h49m29s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5377,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19h56m52s</t>
+          <t>22h49m6s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5397,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>18h18m30s</t>
+          <t>17h31m32s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5417,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>17h8m24s</t>
+          <t>17h17m58s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5437,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16h17m30s</t>
+          <t>16h43m22s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5457,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>15h36m1s</t>
+          <t>16h26m20s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5477,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15h13m42s</t>
+          <t>15h37m40s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5497,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>15h6m31s</t>
+          <t>14h12m24s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5517,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12h52m49s</t>
+          <t>12h54m47s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5537,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12h37m47s</t>
+          <t>12h26m44s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5557,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>12h1m8s</t>
+          <t>10h34m43s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5577,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>11h59m8s</t>
+          <t>9h25m57s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>11h24m9s</t>
+          <t>8h41m24s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5617,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11h6m6s</t>
+          <t>7h8m29s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5637,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10h33m43s</t>
+          <t>5h19m5s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5657,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10h28m15s</t>
+          <t>5h16m30s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5677,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9h38m33s</t>
+          <t>4h52m32s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5697,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9h33m35s</t>
+          <t>4h36m7s</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5717,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>7h28m</t>
+          <t>4h4m15s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5737,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>6h35m39s</t>
+          <t>3h59m5s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5757,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6h30m39s</t>
+          <t>3h31m32s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5777,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6h15m39s</t>
+          <t>3h24m25s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5797,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6h13m19s</t>
+          <t>2h41m29s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5817,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>6h11m46s</t>
+          <t>2h18m6s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5837,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6h11m23s</t>
+          <t>33m18s</t>
         </is>
       </c>
     </row>
@@ -5942,97 +5857,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3h21m33s</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>almojuela</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>192.168.80.222</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>1h22m8s</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ZTEGPON12</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>192.168.80.149</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>53m49s</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>kulot</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>192.168.80.170</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>40m15s</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>robilyn</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>192.168.80.139</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>5m39s</t>
+          <t>17m21s</t>
         </is>
       </c>
     </row>
@@ -6047,7 +5882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6128,12 +5963,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>almojuela</t>
         </is>
       </c>
     </row>
@@ -6143,7 +5973,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6152,6 +5987,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
+        <is>
+          <t>denise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ilaorent4</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1697,6 +1697,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>una sa kanan na cluster ni dada FIBER na</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1711,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1722,11 +1727,6 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>una sa kanan na cluster ni dada FIBER na</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1902,6 +1902,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Gina (Balangquit)</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1916,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1927,11 +1932,6 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Gina (Balangquit)</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2082,6 +2082,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Marie(Oliv)</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2096,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2107,11 +2112,6 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Marie(Oliv)</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>marina</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>blk12lot12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2212,6 +2212,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>babuyan</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2226,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2231,17 +2236,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>babuyan</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2361,12 +2361,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2381,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2386,17 +2391,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2422,6 +2422,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2436,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2441,17 +2446,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>cctv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>ronald</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2602,6 +2602,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2616,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2631,7 +2636,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
+          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2646,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2661,7 +2666,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
+          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2676,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2691,7 +2696,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
+          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2706,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2721,7 +2726,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
+          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2736,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2751,7 +2756,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
+          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2766,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2781,7 +2786,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
+          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2796,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2811,7 +2816,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
+          <t>Kapit bahay</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2826,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2837,11 +2842,6 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kapit bahay</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2867,6 +2867,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>kapit bahay ni christian</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2881,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2896,7 +2901,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>kapit bahay ni christian</t>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2911,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2926,7 +2931,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2941,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2956,7 +2961,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
+          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2971,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2986,7 +2991,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
+          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2996,12 +3001,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3016,7 +3021,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3031,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3046,7 +3051,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>edmon2 eto yon</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3061,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3072,11 +3077,6 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>edmon2 eto yon</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3102,6 +3102,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3116,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3131,7 +3136,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
+          <t>anak ni ate che (Meanne)</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3146,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3161,7 +3166,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>anak ni ate che (Meanne)</t>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3176,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3191,7 +3196,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fiber na</t>
+          <t>ReginaPichay F.MANALO OCT 10</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3206,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3221,7 +3226,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ReginaPichay F.MANALO OCT 10</t>
+          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3236,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3241,17 +3246,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>150MBPS</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>150MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>denise</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3496,12 +3496,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3516,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3521,17 +3526,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3607,6 +3607,41 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Marin</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ella</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>adminserver</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>30MBPS</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Babuyan</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3667,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5d20h34m52s</t>
+          <t>1w7h36m29s</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5d20h34m52s</t>
+          <t>1w7h36m29s</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5d20h34m52s</t>
+          <t>1w7h36m29s</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5d20h34m51s</t>
+          <t>1w7h36m28s</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5d20h34m51s</t>
+          <t>1w7h36m28s</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5d20h34m49s</t>
+          <t>1w7h36m26s</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3822,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5d20h34m48s</t>
+          <t>1w7h36m25s</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3842,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5d20h34m48s</t>
+          <t>1w7h36m25s</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5d20h34m48s</t>
+          <t>1w7h36m25s</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3882,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5d20h34m45s</t>
+          <t>1w7h36m22s</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3902,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5d20h34m45s</t>
+          <t>1w7h36m22s</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3922,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5d20h34m44s</t>
+          <t>1w7h36m21s</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3942,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5d20h34m44s</t>
+          <t>1w7h36m21s</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3962,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5d20h34m42s</t>
+          <t>1w7h36m19s</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3982,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5d20h34m41s</t>
+          <t>1w7h36m18s</t>
         </is>
       </c>
     </row>
@@ -3967,7 +4002,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5d20h34m41s</t>
+          <t>1w7h36m18s</t>
         </is>
       </c>
     </row>
@@ -3987,7 +4022,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5d20h34m39s</t>
+          <t>1w7h36m16s</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4042,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5d20h34m38s</t>
+          <t>1w7h36m15s</t>
         </is>
       </c>
     </row>
@@ -4017,17 +4052,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5d20h34m36s</t>
+          <t>1w7h36m9s</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4072,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5d20h34m32s</t>
+          <t>1w7h36m8s</t>
         </is>
       </c>
     </row>
@@ -4057,17 +4092,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5d20h34m31s</t>
+          <t>1w7h36m4s</t>
         </is>
       </c>
     </row>
@@ -4077,17 +4112,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5d20h34m30s</t>
+          <t>1w7h35m56s</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4132,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5d20h34m27s</t>
+          <t>1w7h35m55s</t>
         </is>
       </c>
     </row>
@@ -4117,17 +4152,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5d20h34m19s</t>
+          <t>1w7h35m55s</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5d20h34m19s</t>
+          <t>1w7h35m54s</t>
         </is>
       </c>
     </row>
@@ -4157,17 +4192,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5d20h34m18s</t>
+          <t>1w7h35m54s</t>
         </is>
       </c>
     </row>
@@ -4177,17 +4212,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5d20h34m18s</t>
+          <t>1w7h35m54s</t>
         </is>
       </c>
     </row>
@@ -4197,17 +4232,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5d20h34m17s</t>
+          <t>1w7h35m54s</t>
         </is>
       </c>
     </row>
@@ -4217,17 +4252,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5d20h34m17s</t>
+          <t>1w7h35m54s</t>
         </is>
       </c>
     </row>
@@ -4237,17 +4272,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5d20h34m17s</t>
+          <t>1w7h35m53s</t>
         </is>
       </c>
     </row>
@@ -4257,17 +4292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5d20h34m17s</t>
+          <t>1w7h35m46s</t>
         </is>
       </c>
     </row>
@@ -4277,17 +4312,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5d20h34m17s</t>
+          <t>1w7h35m43s</t>
         </is>
       </c>
     </row>
@@ -4297,17 +4332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5d20h34m17s</t>
+          <t>1w7h35m32s</t>
         </is>
       </c>
     </row>
@@ -4317,17 +4352,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5d20h34m16s</t>
+          <t>1w7h35m23s</t>
         </is>
       </c>
     </row>
@@ -4337,17 +4372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5d20h34m9s</t>
+          <t>1w7h35m15s</t>
         </is>
       </c>
     </row>
@@ -4357,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5d20h34m6s</t>
+          <t>1w7h35m8s</t>
         </is>
       </c>
     </row>
@@ -4377,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5d20h33m55s</t>
+          <t>1w7h35m3s</t>
         </is>
       </c>
     </row>
@@ -4397,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d20h33m46s</t>
+          <t>1w7h34m58s</t>
         </is>
       </c>
     </row>
@@ -4417,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d20h33m38s</t>
+          <t>1w7h31m29s</t>
         </is>
       </c>
     </row>
@@ -4437,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5d20h33m31s</t>
+          <t>1w7h10m7s</t>
         </is>
       </c>
     </row>
@@ -4457,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5d20h33m26s</t>
+          <t>1w6h32m23s</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5d20h33m21s</t>
+          <t>6d22h55m29s</t>
         </is>
       </c>
     </row>
@@ -4497,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.143</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5d20h33m16s</t>
+          <t>6d8h35m43s</t>
         </is>
       </c>
     </row>
@@ -4517,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d20h32m45s</t>
+          <t>5d9h34m40s</t>
         </is>
       </c>
     </row>
@@ -4537,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d20h29m52s</t>
+          <t>5d1h24m28s</t>
         </is>
       </c>
     </row>
@@ -4557,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d20h8m30s</t>
+          <t>5d1h53s</t>
         </is>
       </c>
     </row>
@@ -4577,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d19h30m46s</t>
+          <t>4d22h10m55s</t>
         </is>
       </c>
     </row>
@@ -4597,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d14h42m39s</t>
+          <t>4d15h55m41s</t>
         </is>
       </c>
     </row>
@@ -4617,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d11h53m52s</t>
+          <t>4d13h31m18s</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4d21h34m6s</t>
+          <t>4d12h26m32s</t>
         </is>
       </c>
     </row>
@@ -4657,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d7h10m42s</t>
+          <t>4d11h30m34s</t>
         </is>
       </c>
     </row>
@@ -4677,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3d22h33m3s</t>
+          <t>4d3h53m13s</t>
         </is>
       </c>
     </row>
@@ -4697,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d14h22m51s</t>
+          <t>3d14h33m55s</t>
         </is>
       </c>
     </row>
@@ -4717,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d13h59m16s</t>
+          <t>3d10h48m54s</t>
         </is>
       </c>
     </row>
@@ -4737,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d11h9m18s</t>
+          <t>3d10h18m57s</t>
         </is>
       </c>
     </row>
@@ -4757,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d4h54m4s</t>
+          <t>3d7h38m11s</t>
         </is>
       </c>
     </row>
@@ -4777,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d2h29m41s</t>
+          <t>3d6h34m4s</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d1h24m55s</t>
+          <t>3d5h57m51s</t>
         </is>
       </c>
     </row>
@@ -4817,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d28m57s</t>
+          <t>3d2h21m19s</t>
         </is>
       </c>
     </row>
@@ -4837,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d20h50m1s</t>
+          <t>2d21h57m50s</t>
         </is>
       </c>
     </row>
@@ -4857,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d16h51m36s</t>
+          <t>2d20h47m44s</t>
         </is>
       </c>
     </row>
@@ -4877,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d15h1m43s</t>
+          <t>2d19h15m21s</t>
         </is>
       </c>
     </row>
@@ -4897,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d13h48m56s</t>
+          <t>2d18h45m51s</t>
         </is>
       </c>
     </row>
@@ -4917,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d3h32m18s</t>
+          <t>2d14h7m35s</t>
         </is>
       </c>
     </row>
@@ -4937,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d46m17s</t>
+          <t>2d11h7m20s</t>
         </is>
       </c>
     </row>
@@ -4957,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1d23h47m17s</t>
+          <t>2d10h9m59s</t>
         </is>
       </c>
     </row>
@@ -4977,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1d23h26m42s</t>
+          <t>2d9h52m39s</t>
         </is>
       </c>
     </row>
@@ -4997,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1d23h17m20s</t>
+          <t>2d9h51m6s</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d20h36m34s</t>
+          <t>2d4h19m35s</t>
         </is>
       </c>
     </row>
@@ -5037,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1d20h31m11s</t>
+          <t>2d3h44m59s</t>
         </is>
       </c>
     </row>
@@ -5057,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d19h32m27s</t>
+          <t>2d3h27m57s</t>
         </is>
       </c>
     </row>
@@ -5077,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d18h56m14s</t>
+          <t>2d2h39m17s</t>
         </is>
       </c>
     </row>
@@ -5097,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d15h19m42s</t>
+          <t>1d23h28m21s</t>
         </is>
       </c>
     </row>
@@ -5117,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d13h23m35s</t>
+          <t>1d21h36m20s</t>
         </is>
       </c>
     </row>
@@ -5137,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d10h56m13s</t>
+          <t>1d19h43m1s</t>
         </is>
       </c>
     </row>
@@ -5157,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d9h46m7s</t>
+          <t>1d18h10m6s</t>
         </is>
       </c>
     </row>
@@ -5177,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d8h13m44s</t>
+          <t>1d16h20m42s</t>
         </is>
       </c>
     </row>
@@ -5197,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d7h44m14s</t>
+          <t>1d15h54m9s</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d5h15m30s</t>
+          <t>1d15h37m44s</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d3h5m58s</t>
+          <t>1d15h5m52s</t>
         </is>
       </c>
     </row>
@@ -5257,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d5m43s</t>
+          <t>1d15h42s</t>
         </is>
       </c>
     </row>
@@ -5277,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>23h13m22s</t>
+          <t>1d14h26m2s</t>
         </is>
       </c>
     </row>
@@ -5297,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>23h8m22s</t>
+          <t>1d13h43m6s</t>
         </is>
       </c>
     </row>
@@ -5317,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22h53m22s</t>
+          <t>1d11h34m55s</t>
         </is>
       </c>
     </row>
@@ -5337,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22h51m2s</t>
+          <t>1d9h17m51s</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22h49m29s</t>
+          <t>1d9h14m54s</t>
         </is>
       </c>
     </row>
@@ -5377,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22h49m6s</t>
+          <t>1d8h33m56s</t>
         </is>
       </c>
     </row>
@@ -5397,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>17h31m32s</t>
+          <t>1d8h28m1s</t>
         </is>
       </c>
     </row>
@@ -5417,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>17h17m58s</t>
+          <t>1d6h39m50s</t>
         </is>
       </c>
     </row>
@@ -5437,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16h43m22s</t>
+          <t>1d5h35m45s</t>
         </is>
       </c>
     </row>
@@ -5457,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>16h26m20s</t>
+          <t>1d4h33m15s</t>
         </is>
       </c>
     </row>
@@ -5477,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15h37m40s</t>
+          <t>1d4h22m38s</t>
         </is>
       </c>
     </row>
@@ -5497,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14h12m24s</t>
+          <t>1d3h49m2s</t>
         </is>
       </c>
     </row>
@@ -5517,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12h54m47s</t>
+          <t>1d2h52m5s</t>
         </is>
       </c>
     </row>
@@ -5537,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12h26m44s</t>
+          <t>1d1h44m56s</t>
         </is>
       </c>
     </row>
@@ -5557,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10h34m43s</t>
+          <t>23h7m18s</t>
         </is>
       </c>
     </row>
@@ -5577,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>9h25m57s</t>
+          <t>21h56m21s</t>
         </is>
       </c>
     </row>
@@ -5597,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>8h41m24s</t>
+          <t>21h23m35s</t>
         </is>
       </c>
     </row>
@@ -5617,17 +5652,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7h8m29s</t>
+          <t>20h46m8s</t>
         </is>
       </c>
     </row>
@@ -5637,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5h19m5s</t>
+          <t>20h7m46s</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5h16m30s</t>
+          <t>16h26m8s</t>
         </is>
       </c>
     </row>
@@ -5677,17 +5712,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4h52m32s</t>
+          <t>16h35s</t>
         </is>
       </c>
     </row>
@@ -5697,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4h36m7s</t>
+          <t>15h38m46s</t>
         </is>
       </c>
     </row>
@@ -5717,17 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4h4m15s</t>
+          <t>15h10m30s</t>
         </is>
       </c>
     </row>
@@ -5737,17 +5772,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3h59m5s</t>
+          <t>14h59m50s</t>
         </is>
       </c>
     </row>
@@ -5757,17 +5792,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3h31m32s</t>
+          <t>14h13m28s</t>
         </is>
       </c>
     </row>
@@ -5777,17 +5812,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3h24m25s</t>
+          <t>11h49m32s</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5832,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2h41m29s</t>
+          <t>10h42m4s</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5862,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h18m6s</t>
+          <t>10h40m50s</t>
         </is>
       </c>
     </row>
@@ -5837,17 +5872,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>33m18s</t>
+          <t>4h1m38s</t>
         </is>
       </c>
     </row>
@@ -5857,17 +5892,37 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>17m21s</t>
+          <t>2h21m11s</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>gerome</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>192.168.80.215</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1h46m42s</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5968,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ilaorent4</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5978,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5988,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>abarientos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -5963,7 +6023,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -5973,12 +6038,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w7h36m29s</t>
+          <t>1w23h51m40s</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w7h36m29s</t>
+          <t>1w23h51m40s</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w7h36m29s</t>
+          <t>1w23h51m40s</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w7h36m28s</t>
+          <t>1w23h51m39s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w7h36m28s</t>
+          <t>1w23h51m39s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w7h36m26s</t>
+          <t>1w23h51m37s</t>
         </is>
       </c>
     </row>
@@ -3812,17 +3812,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w7h36m25s</t>
+          <t>1w23h51m36s</t>
         </is>
       </c>
     </row>
@@ -3832,17 +3832,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w7h36m25s</t>
+          <t>1w23h51m36s</t>
         </is>
       </c>
     </row>
@@ -3852,17 +3852,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w7h36m25s</t>
+          <t>1w23h51m33s</t>
         </is>
       </c>
     </row>
@@ -3872,17 +3872,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w7h36m22s</t>
+          <t>1w23h51m33s</t>
         </is>
       </c>
     </row>
@@ -3892,17 +3892,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w7h36m22s</t>
+          <t>1w23h51m32s</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w7h36m21s</t>
+          <t>1w23h51m32s</t>
         </is>
       </c>
     </row>
@@ -3932,17 +3932,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w7h36m21s</t>
+          <t>1w23h51m30s</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3952,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w7h36m19s</t>
+          <t>1w23h51m29s</t>
         </is>
       </c>
     </row>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w7h36m18s</t>
+          <t>1w23h51m29s</t>
         </is>
       </c>
     </row>
@@ -3992,17 +3992,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w7h36m18s</t>
+          <t>1w23h51m27s</t>
         </is>
       </c>
     </row>
@@ -4012,17 +4012,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w7h36m16s</t>
+          <t>1w23h51m26s</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w7h36m15s</t>
+          <t>1w23h51m20s</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4052,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w7h36m9s</t>
+          <t>1w23h51m19s</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w7h36m8s</t>
+          <t>1w23h51m15s</t>
         </is>
       </c>
     </row>
@@ -4092,17 +4092,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w7h36m4s</t>
+          <t>1w23h51m7s</t>
         </is>
       </c>
     </row>
@@ -4112,17 +4112,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w7h35m56s</t>
+          <t>1w23h51m6s</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w7h35m55s</t>
+          <t>1w23h51m6s</t>
         </is>
       </c>
     </row>
@@ -4152,17 +4152,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w7h35m55s</t>
+          <t>1w23h51m5s</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w7h35m54s</t>
+          <t>1w23h51m5s</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w7h35m54s</t>
+          <t>1w23h51m5s</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w7h35m54s</t>
+          <t>1w23h51m5s</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w7h35m54s</t>
+          <t>1w23h51m5s</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w7h35m54s</t>
+          <t>1w23h51m4s</t>
         </is>
       </c>
     </row>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w7h35m53s</t>
+          <t>1w23h50m57s</t>
         </is>
       </c>
     </row>
@@ -4292,17 +4292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w7h35m46s</t>
+          <t>1w23h50m54s</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w7h35m43s</t>
+          <t>1w23h50m43s</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w7h35m32s</t>
+          <t>1w23h50m34s</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1w7h35m23s</t>
+          <t>1w23h50m26s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1w7h35m15s</t>
+          <t>1w23h50m19s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1w7h35m8s</t>
+          <t>1w23h50m14s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1w7h35m3s</t>
+          <t>1w23h50m9s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1w7h34m58s</t>
+          <t>1w23h46m40s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1w7h31m29s</t>
+          <t>1w23h25m18s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1w7h10m7s</t>
+          <t>1w22h47m34s</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1w6h32m23s</t>
+          <t>1w15h10m40s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6d22h55m29s</t>
+          <t>1w50m54s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6d8h35m43s</t>
+          <t>6d1h49m51s</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d9h34m40s</t>
+          <t>5d17h39m39s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d1h24m28s</t>
+          <t>5d17h16m4s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d1h53s</t>
+          <t>5d14h26m6s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4d22h10m55s</t>
+          <t>5d8h10m52s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4d15h55m41s</t>
+          <t>5d5h46m29s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4d13h31m18s</t>
+          <t>5d4h41m43s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4d12h26m32s</t>
+          <t>5d3h45m45s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d11h30m34s</t>
+          <t>4d20h8m24s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4d3h53m13s</t>
+          <t>4d3h4m5s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d14h33m55s</t>
+          <t>4d2h34m8s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d10h48m54s</t>
+          <t>3d22h13m2s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d10h18m57s</t>
+          <t>3d18h36m30s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d7h38m11s</t>
+          <t>3d14h13m1s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d6h34m4s</t>
+          <t>3d11h30m32s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d5h57m51s</t>
+          <t>3d11h1m2s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d2h21m19s</t>
+          <t>3d6h22m46s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d21h57m50s</t>
+          <t>3d3h22m31s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d20h47m44s</t>
+          <t>3d2h25m10s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d19h15m21s</t>
+          <t>3d2h7m50s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d18h45m51s</t>
+          <t>3d2h6m17s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d14h7m35s</t>
+          <t>2d20h34m46s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d11h7m20s</t>
+          <t>2d18h54m28s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d10h9m59s</t>
+          <t>2d15h43m32s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d9h52m39s</t>
+          <t>2d13h51m31s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d9h51m6s</t>
+          <t>2d11h58m12s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d4h19m35s</t>
+          <t>2d10h25m17s</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d3h44m59s</t>
+          <t>2d8h35m53s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d3h27m57s</t>
+          <t>2d7h21m3s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d2h39m17s</t>
+          <t>2d7h15m53s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d23h28m21s</t>
+          <t>2d6h41m13s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d21h36m20s</t>
+          <t>2d5h58m17s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d19h43m1s</t>
+          <t>2d1h33m2s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d18h10m6s</t>
+          <t>2d1h30m5s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d16h20m42s</t>
+          <t>2d49m7s</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d15h54m9s</t>
+          <t>2d43m12s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d15h37m44s</t>
+          <t>1d22h55m1s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d15h5m52s</t>
+          <t>1d21h50m56s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d15h42s</t>
+          <t>1d20h48m26s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d14h26m2s</t>
+          <t>1d20h4m13s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d13h43m6s</t>
+          <t>1d19h7m16s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d11h34m55s</t>
+          <t>1d18h7s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d9h17m51s</t>
+          <t>1d15h22m29s</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d9h14m54s</t>
+          <t>1d13h38m46s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d8h33m56s</t>
+          <t>1d13h1m19s</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d8h28m1s</t>
+          <t>1d7h15m1s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1d6h39m50s</t>
+          <t>1d6h28m39s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1d5h35m45s</t>
+          <t>1d4h4m43s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1d4h33m15s</t>
+          <t>1d2h57m15s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1d4h22m38s</t>
+          <t>20h16m49s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1d3h49m2s</t>
+          <t>18h36m22s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1d2h52m5s</t>
+          <t>18h1m53s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1d1h44m56s</t>
+          <t>15h53m19s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>23h7m18s</t>
+          <t>15h28m22s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21h56m21s</t>
+          <t>14h50m29s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>21h23m35s</t>
+          <t>14h25m3s</t>
         </is>
       </c>
     </row>
@@ -5652,17 +5652,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20h46m8s</t>
+          <t>10h1m39s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20h7m46s</t>
+          <t>8h32m25s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>16h26m8s</t>
+          <t>8h19m25s</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>16h35s</t>
+          <t>8h12m51s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>15h38m46s</t>
+          <t>8h5m49s</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>15h10m30s</t>
+          <t>8h5m33s</t>
         </is>
       </c>
     </row>
@@ -5772,17 +5772,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>14h59m50s</t>
+          <t>6h54m35s</t>
         </is>
       </c>
     </row>
@@ -5792,17 +5792,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>14h13m28s</t>
+          <t>5h17m27s</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11h49m32s</t>
+          <t>3h49m50s</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10h42m4s</t>
+          <t>3h35m18s</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10h40m50s</t>
+          <t>2h49m44s</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4h1m38s</t>
+          <t>2h36m15s</t>
         </is>
       </c>
     </row>
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2h21m11s</t>
+          <t>1h22m58s</t>
         </is>
       </c>
     </row>
@@ -5912,17 +5912,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1h46m42s</t>
+          <t>13m23s</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3656,7 +3656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w23h51m40s</t>
+          <t>1w1d7h41m11s</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w23h51m40s</t>
+          <t>1w1d7h41m11s</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w23h51m40s</t>
+          <t>1w1d7h41m11s</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w23h51m39s</t>
+          <t>1w1d7h41m10s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w23h51m39s</t>
+          <t>1w1d7h41m10s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w23h51m37s</t>
+          <t>1w1d7h41m8s</t>
         </is>
       </c>
     </row>
@@ -3812,17 +3812,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w23h51m36s</t>
+          <t>1w1d7h41m7s</t>
         </is>
       </c>
     </row>
@@ -3832,17 +3832,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w23h51m36s</t>
+          <t>1w1d7h41m4s</t>
         </is>
       </c>
     </row>
@@ -3852,17 +3852,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w23h51m33s</t>
+          <t>1w1d7h41m4s</t>
         </is>
       </c>
     </row>
@@ -3872,17 +3872,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w23h51m33s</t>
+          <t>1w1d7h41m3s</t>
         </is>
       </c>
     </row>
@@ -3892,17 +3892,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w23h51m32s</t>
+          <t>1w1d7h41m3s</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w23h51m32s</t>
+          <t>1w1d7h41m1s</t>
         </is>
       </c>
     </row>
@@ -3932,17 +3932,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w23h51m30s</t>
+          <t>1w1d7h41m</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3952,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w23h51m29s</t>
+          <t>1w1d7h41m</t>
         </is>
       </c>
     </row>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w23h51m29s</t>
+          <t>1w1d7h40m58s</t>
         </is>
       </c>
     </row>
@@ -3992,17 +3992,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w23h51m27s</t>
+          <t>1w1d7h40m57s</t>
         </is>
       </c>
     </row>
@@ -4012,17 +4012,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w23h51m26s</t>
+          <t>1w1d7h40m51s</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w23h51m20s</t>
+          <t>1w1d7h40m50s</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4052,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w23h51m19s</t>
+          <t>1w1d7h40m46s</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w23h51m15s</t>
+          <t>1w1d7h40m38s</t>
         </is>
       </c>
     </row>
@@ -4092,17 +4092,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w23h51m7s</t>
+          <t>1w1d7h40m37s</t>
         </is>
       </c>
     </row>
@@ -4112,17 +4112,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w23h51m6s</t>
+          <t>1w1d7h40m37s</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w23h51m6s</t>
+          <t>1w1d7h40m36s</t>
         </is>
       </c>
     </row>
@@ -4152,17 +4152,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w23h51m5s</t>
+          <t>1w1d7h40m36s</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w23h51m5s</t>
+          <t>1w1d7h40m36s</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w23h51m5s</t>
+          <t>1w1d7h40m36s</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w23h51m5s</t>
+          <t>1w1d7h40m36s</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w23h51m5s</t>
+          <t>1w1d7h40m35s</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w23h51m4s</t>
+          <t>1w1d7h40m28s</t>
         </is>
       </c>
     </row>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w23h50m57s</t>
+          <t>1w1d7h40m25s</t>
         </is>
       </c>
     </row>
@@ -4292,17 +4292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w23h50m54s</t>
+          <t>1w1d7h40m5s</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w23h50m43s</t>
+          <t>1w1d7h39m50s</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w23h50m34s</t>
+          <t>1w1d7h39m40s</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1w23h50m26s</t>
+          <t>1w1d7h36m11s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1w23h50m19s</t>
+          <t>1w1d6h37m5s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1w23h50m14s</t>
+          <t>1w23h11s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1w23h50m9s</t>
+          <t>1w8h40m25s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1w23h46m40s</t>
+          <t>6d9h39m22s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1w23h25m18s</t>
+          <t>6d1h29m10s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1w22h47m34s</t>
+          <t>6d1h5m35s</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1w15h10m40s</t>
+          <t>5d22h15m37s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1w50m54s</t>
+          <t>5d16h23s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6d1h49m51s</t>
+          <t>5d13h36m</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d17h39m39s</t>
+          <t>5d12h31m14s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d17h16m4s</t>
+          <t>5d11h35m16s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d14h26m6s</t>
+          <t>5d3h57m55s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d8h10m52s</t>
+          <t>4d10h53m36s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d5h46m29s</t>
+          <t>4d10h23m39s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d4h41m43s</t>
+          <t>4d6h2m33s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5d3h45m45s</t>
+          <t>3d22h2m32s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d20h8m24s</t>
+          <t>3d19h20m3s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4d3h4m5s</t>
+          <t>3d18h50m33s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4d2h34m8s</t>
+          <t>3d14h12m17s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d22h13m2s</t>
+          <t>3d11h12m2s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d18h36m30s</t>
+          <t>3d10h14m41s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d14h13m1s</t>
+          <t>3d9h57m21s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d11h30m32s</t>
+          <t>3d9h55m48s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d11h1m2s</t>
+          <t>3d4h24m17s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d6h22m46s</t>
+          <t>3d2h43m59s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d3h22m31s</t>
+          <t>2d23h33m3s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d2h25m10s</t>
+          <t>2d21h41m2s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d2h7m50s</t>
+          <t>2d19h47m43s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d2h6m17s</t>
+          <t>2d16h25m24s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d20h34m46s</t>
+          <t>2d15h10m34s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d18h54m28s</t>
+          <t>2d15h5m24s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d15h43m32s</t>
+          <t>2d14h30m44s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d13h51m31s</t>
+          <t>2d13h47m48s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d11h58m12s</t>
+          <t>2d9h22m33s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d10h25m17s</t>
+          <t>2d9h19m36s</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d8h35m53s</t>
+          <t>2d8h38m38s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d7h21m3s</t>
+          <t>2d5h40m27s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d7h15m53s</t>
+          <t>2d4h37m57s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d6h41m13s</t>
+          <t>2d3h53m44s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d5h58m17s</t>
+          <t>2d2h56m47s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d1h33m2s</t>
+          <t>2d1h49m38s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d1h30m5s</t>
+          <t>1d20h50m50s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d49m7s</t>
+          <t>1d15h4m32s</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2d43m12s</t>
+          <t>1d14h18m10s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d22h55m1s</t>
+          <t>1d11h54m14s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d21h50m56s</t>
+          <t>1d10h46m46s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d20h48m26s</t>
+          <t>1d4h6m20s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d20h4m13s</t>
+          <t>1d1h51m24s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d19h7m16s</t>
+          <t>23h42m50s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d18h7s</t>
+          <t>23h17m53s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d15h22m29s</t>
+          <t>22h40m</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d13h38m46s</t>
+          <t>22h14m34s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d13h1m19s</t>
+          <t>16h8m56s</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d7h15m1s</t>
+          <t>16h2m22s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1d6h28m39s</t>
+          <t>15h55m20s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1d4h4m43s</t>
+          <t>15h55m4s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1d2h57m15s</t>
+          <t>14h44m6s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20h16m49s</t>
+          <t>13h6m58s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>18h36m22s</t>
+          <t>11h24m49s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>18h1m53s</t>
+          <t>10h25m46s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>15h53m19s</t>
+          <t>9h12m29s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>15h28m22s</t>
+          <t>7h37m19s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>14h50m29s</t>
+          <t>7h12m17s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>14h25m3s</t>
+          <t>6h11m31s</t>
         </is>
       </c>
     </row>
@@ -5652,17 +5652,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10h1m39s</t>
+          <t>5h46m43s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8h32m25s</t>
+          <t>5h27m20s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8h19m25s</t>
+          <t>2h34m25s</t>
         </is>
       </c>
     </row>
@@ -5712,17 +5712,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8h12m51s</t>
+          <t>2h16m22s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>8h5m49s</t>
+          <t>30m8s</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>8h5m33s</t>
+          <t>22m54s</t>
         </is>
       </c>
     </row>
@@ -5772,157 +5772,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>6h54m35s</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>gemma</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>192.168.80.246</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>5h17m27s</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>alexis</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>192.168.80.141</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>3h49m50s</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>edmon</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>192.168.80.202</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>3h35m18s</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>roy</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>192.168.80.242</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2h49m44s</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>bobby</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>192.168.80.180</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2h36m15s</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>randy</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>192.168.80.200</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>1h22m58s</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>pabling</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>192.168.80.179</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>13m23s</t>
+          <t>17m5s</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5968,7 +5828,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>mendoza</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5843,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>mesuga</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5858,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIBER na</t>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -6003,7 +5873,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>alexis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>una sa kanan na cluster ni dada FIBER na</t>
         </is>
       </c>
     </row>
@@ -6013,7 +5888,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -6023,12 +5898,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -6038,12 +5908,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -6053,7 +5923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6062,6 +5932,101 @@
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>ronald</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ZTEGPON10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ZTEGPON11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ZTEGPON12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rombaoa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Harap Digman Fiber na</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>denise</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3656,7 +3656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w1d7h41m11s</t>
+          <t>1w1d23h56m</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w1d7h41m11s</t>
+          <t>1w1d23h56m</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w1d7h41m11s</t>
+          <t>1w1d23h56m</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w1d7h41m10s</t>
+          <t>1w1d23h55m59s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w1d7h41m10s</t>
+          <t>1w1d23h55m59s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w1d7h41m8s</t>
+          <t>1w1d23h55m57s</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w1d7h41m7s</t>
+          <t>1w1d23h55m56s</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w1d7h41m4s</t>
+          <t>1w1d23h55m53s</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w1d7h41m4s</t>
+          <t>1w1d23h55m53s</t>
         </is>
       </c>
     </row>
@@ -3872,17 +3872,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w1d7h41m3s</t>
+          <t>1w1d23h55m52s</t>
         </is>
       </c>
     </row>
@@ -3892,17 +3892,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w1d7h41m3s</t>
+          <t>1w1d23h55m50s</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w1d7h41m1s</t>
+          <t>1w1d23h55m49s</t>
         </is>
       </c>
     </row>
@@ -3932,17 +3932,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w1d7h41m</t>
+          <t>1w1d23h55m49s</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3952,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w1d7h41m</t>
+          <t>1w1d23h55m46s</t>
         </is>
       </c>
     </row>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w1d7h40m58s</t>
+          <t>1w1d23h55m40s</t>
         </is>
       </c>
     </row>
@@ -3992,17 +3992,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w1d7h40m57s</t>
+          <t>1w1d23h55m39s</t>
         </is>
       </c>
     </row>
@@ -4012,17 +4012,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w1d7h40m51s</t>
+          <t>1w1d23h55m35s</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w1d7h40m50s</t>
+          <t>1w1d23h55m27s</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4052,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w1d7h40m46s</t>
+          <t>1w1d23h55m26s</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w1d7h40m38s</t>
+          <t>1w1d23h55m26s</t>
         </is>
       </c>
     </row>
@@ -4092,17 +4092,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w1d7h40m37s</t>
+          <t>1w1d23h55m25s</t>
         </is>
       </c>
     </row>
@@ -4112,17 +4112,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w1d7h40m37s</t>
+          <t>1w1d23h55m25s</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w1d7h40m36s</t>
+          <t>1w1d23h55m25s</t>
         </is>
       </c>
     </row>
@@ -4152,17 +4152,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w1d7h40m36s</t>
+          <t>1w1d23h55m25s</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w1d7h40m36s</t>
+          <t>1w1d23h55m25s</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w1d7h40m36s</t>
+          <t>1w1d23h55m24s</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w1d7h40m36s</t>
+          <t>1w1d23h55m17s</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w1d7h40m35s</t>
+          <t>1w1d23h54m39s</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w1d7h40m28s</t>
+          <t>1w1d23h54m29s</t>
         </is>
       </c>
     </row>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w1d7h40m25s</t>
+          <t>1w1d22h51m54s</t>
         </is>
       </c>
     </row>
@@ -4292,17 +4292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w1d7h40m5s</t>
+          <t>1w1d15h15m</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w1d7h39m50s</t>
+          <t>1w1d55m14s</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w1d7h39m40s</t>
+          <t>6d17h43m59s</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1w1d7h36m11s</t>
+          <t>6d14h30m26s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1w1d6h37m5s</t>
+          <t>6d8h15m12s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1w23h11s</t>
+          <t>6d5h50m49s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1w8h40m25s</t>
+          <t>6d3h50m5s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6d9h39m22s</t>
+          <t>5d20h12m44s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6d1h29m10s</t>
+          <t>5d2h38m28s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6d1h5m35s</t>
+          <t>4d14h17m21s</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5d22h15m37s</t>
+          <t>4d11h34m52s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5d16h23s</t>
+          <t>4d11h5m22s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5d13h36m</t>
+          <t>4d6h27m6s</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d12h31m14s</t>
+          <t>4d3h26m51s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d11h35m16s</t>
+          <t>4d2h12m10s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d3h57m55s</t>
+          <t>3d18h58m48s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4d10h53m36s</t>
+          <t>3d15h47m52s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4d10h23m39s</t>
+          <t>3d13h55m51s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4d6h2m33s</t>
+          <t>3d12h2m32s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3d22h2m32s</t>
+          <t>3d8h40m13s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3d19h20m3s</t>
+          <t>3d7h25m23s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3d18h50m33s</t>
+          <t>3d7h20m13s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d14h12m17s</t>
+          <t>3d6h45m33s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d11h12m2s</t>
+          <t>3d6h2m37s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d10h14m41s</t>
+          <t>3d1h34m25s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d9h57m21s</t>
+          <t>2d21h55m16s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d9h55m48s</t>
+          <t>2d20h52m46s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d4h24m17s</t>
+          <t>2d20h8m33s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d2h43m59s</t>
+          <t>2d19h11m36s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d23h33m3s</t>
+          <t>2d13h5m39s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d21h41m2s</t>
+          <t>2d6h32m59s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d19h47m43s</t>
+          <t>2d4h9m3s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d16h25m24s</t>
+          <t>1d20h21m9s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d15h10m34s</t>
+          <t>1d15h32m42s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d15h5m24s</t>
+          <t>1d14h54m49s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d14h30m44s</t>
+          <t>1d14h29m23s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d13h47m48s</t>
+          <t>1d5h21m47s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d9h22m33s</t>
+          <t>1d2h40m35s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d9h19m36s</t>
+          <t>1d1h27m18s</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d8h38m38s</t>
+          <t>23h52m8s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d5h40m27s</t>
+          <t>22h26m20s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d4h37m57s</t>
+          <t>18h49m14s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d3h53m44s</t>
+          <t>18h31m11s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d2h56m47s</t>
+          <t>16h44m57s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d1h49m38s</t>
+          <t>16h37m43s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d20h50m50s</t>
+          <t>16h31m54s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d15h4m32s</t>
+          <t>14h37m51s</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d14h18m10s</t>
+          <t>13h54m59s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d11h54m14s</t>
+          <t>13h54m44s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d10h46m46s</t>
+          <t>13h51m27s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d4h6m20s</t>
+          <t>12h22m20s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d1h51m24s</t>
+          <t>10h2m56s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>23h42m50s</t>
+          <t>9h27m47s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>23h17m53s</t>
+          <t>8h18m37s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22h40m</t>
+          <t>8h15m18s</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22h14m34s</t>
+          <t>7h55m26s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16h8m56s</t>
+          <t>7h20m</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>16h2m22s</t>
+          <t>6h35m38s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>15h55m20s</t>
+          <t>5h34m45s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>15h55m4s</t>
+          <t>4h37m1s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>14h44m6s</t>
+          <t>4h52s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>13h6m58s</t>
+          <t>3h21m59s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11h24m49s</t>
+          <t>3h12m34s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10h25m46s</t>
+          <t>3h6m49s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>9h12m29s</t>
+          <t>3h4m53s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7h37m19s</t>
+          <t>1h59m23s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7h12m17s</t>
+          <t>1h38m40s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6h11m31s</t>
+          <t>1h7m29s</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5h46m43s</t>
+          <t>1h6m59s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5h27m20s</t>
+          <t>1h1m11s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2h34m25s</t>
+          <t>55m15s</t>
         </is>
       </c>
     </row>
@@ -5712,17 +5712,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2h16m22s</t>
+          <t>35m54s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>30m8s</t>
+          <t>35m54s</t>
         </is>
       </c>
     </row>
@@ -5752,37 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>22m54s</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>anne2</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>192.168.80.228</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>17m5s</t>
+          <t>4m2s</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5828,12 +5808,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mendoza</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fiber na</t>
+          <t>kulot</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5818,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5858,7 +5833,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5873,12 +5848,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>una sa kanan na cluster ni dada FIBER na</t>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5863,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>alexis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>una sa kanan na cluster ni dada FIBER na</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5878,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5888,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>abarientos</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FIBER na</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5898,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>abarientos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5913,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5923,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -5958,12 +5933,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5948,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5963,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -6003,12 +5978,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Harap Digman Fiber na</t>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -6018,7 +5993,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>rombaoa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -6027,6 +6007,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
+        <is>
+          <t>denise</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3642,6 +3642,36 @@
       <c r="F122" t="inlineStr">
         <is>
           <t>Babuyan</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rocabo</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>adminserver</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>35MBPS</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>parlor</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3702,7 +3732,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w1d23h56m</t>
+          <t>1w2d23h17m19s</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3752,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w1d23h56m</t>
+          <t>1w2d23h17m19s</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3772,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w1d23h56m</t>
+          <t>1w2d23h17m19s</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3792,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w1d23h55m59s</t>
+          <t>1w2d23h17m18s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3812,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w1d23h55m59s</t>
+          <t>1w2d23h17m18s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3832,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w1d23h55m57s</t>
+          <t>1w2d23h17m16s</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3852,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w1d23h55m56s</t>
+          <t>1w2d23h17m15s</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3872,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w1d23h55m53s</t>
+          <t>1w2d23h17m12s</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3892,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w1d23h55m53s</t>
+          <t>1w2d23h17m12s</t>
         </is>
       </c>
     </row>
@@ -3872,17 +3902,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w1d23h55m52s</t>
+          <t>1w2d23h17m9s</t>
         </is>
       </c>
     </row>
@@ -3892,17 +3922,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w1d23h55m50s</t>
+          <t>1w2d23h17m8s</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3942,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w1d23h55m49s</t>
+          <t>1w2d23h17m8s</t>
         </is>
       </c>
     </row>
@@ -3932,17 +3962,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w1d23h55m49s</t>
+          <t>1w2d23h17m5s</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3982,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w1d23h55m46s</t>
+          <t>1w2d23h16m59s</t>
         </is>
       </c>
     </row>
@@ -3972,17 +4002,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w1d23h55m40s</t>
+          <t>1w2d23h16m58s</t>
         </is>
       </c>
     </row>
@@ -3992,17 +4022,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w1d23h55m39s</t>
+          <t>1w2d23h16m46s</t>
         </is>
       </c>
     </row>
@@ -4012,17 +4042,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w1d23h55m35s</t>
+          <t>1w2d23h16m45s</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4062,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w1d23h55m27s</t>
+          <t>1w2d23h16m45s</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4082,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w1d23h55m26s</t>
+          <t>1w2d23h16m44s</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4102,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w1d23h55m26s</t>
+          <t>1w2d23h16m44s</t>
         </is>
       </c>
     </row>
@@ -4092,17 +4122,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w1d23h55m25s</t>
+          <t>1w2d23h16m44s</t>
         </is>
       </c>
     </row>
@@ -4112,17 +4142,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w1d23h55m25s</t>
+          <t>1w2d23h16m44s</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4162,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w1d23h55m25s</t>
+          <t>1w2d23h16m44s</t>
         </is>
       </c>
     </row>
@@ -4152,17 +4182,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w1d23h55m25s</t>
+          <t>1w2d23h16m43s</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4202,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w1d23h55m25s</t>
+          <t>1w2d23h16m36s</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4222,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w1d23h55m24s</t>
+          <t>1w2d23h15m58s</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4242,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w1d23h55m17s</t>
+          <t>1w2d23h15m48s</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4262,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.221</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w1d23h54m39s</t>
+          <t>1w2d22h13m13s</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4282,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w1d23h54m29s</t>
+          <t>1w2d14h36m19s</t>
         </is>
       </c>
     </row>
@@ -4272,17 +4302,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w1d22h51m54s</t>
+          <t>1w2d16m33s</t>
         </is>
       </c>
     </row>
@@ -4292,17 +4322,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w1d15h15m</t>
+          <t>1w17h5m18s</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4342,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w1d55m14s</t>
+          <t>1w7h36m31s</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4362,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6d17h43m59s</t>
+          <t>1w3h11m24s</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4382,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d14h30m26s</t>
+          <t>6d19h34m3s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4402,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d8h15m12s</t>
+          <t>6d1h59m47s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4422,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.212</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6d5h50m49s</t>
+          <t>5d13h38m40s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4442,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6d3h50m5s</t>
+          <t>5d10h56m11s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4462,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d20h12m44s</t>
+          <t>5d5h48m25s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4482,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d2h38m28s</t>
+          <t>5d1h33m29s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4502,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d14h17m21s</t>
+          <t>4d18h20m7s</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4522,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d11h34m52s</t>
+          <t>4d11h23m51s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4542,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d11h5m22s</t>
+          <t>4d8h1m32s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4562,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d6h27m6s</t>
+          <t>4d6h41m32s</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4582,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4d3h26m51s</t>
+          <t>4d6h6m52s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4602,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4d2h12m10s</t>
+          <t>4d5h23m56s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4622,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3d18h58m48s</t>
+          <t>4d55m44s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4642,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3d15h47m52s</t>
+          <t>3d21h16m35s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4662,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3d13h55m51s</t>
+          <t>3d19h29m52s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4682,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3d12h2m32s</t>
+          <t>3d12h26m58s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4702,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3d8h40m13s</t>
+          <t>3d5h54m18s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4722,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3d7h25m23s</t>
+          <t>3d3h30m22s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4742,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3d7h20m13s</t>
+          <t>2d19h42m28s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4762,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d6h45m33s</t>
+          <t>2d14h54m1s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4782,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d6h2m37s</t>
+          <t>2d14h16m8s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4802,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d1h34m25s</t>
+          <t>2d13h50m42s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4822,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2d21h55m16s</t>
+          <t>2d4h43m6s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4842,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2d20h52m46s</t>
+          <t>2d2h1m54s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4862,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2d20h8m33s</t>
+          <t>2d48m37s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4882,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2d19h11m36s</t>
+          <t>1d21h47m39s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4902,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d13h5m39s</t>
+          <t>1d18h10m33s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4922,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d6h32m59s</t>
+          <t>1d17h52m30s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4942,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d4h9m3s</t>
+          <t>1d15h59m2s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4962,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1d20h21m9s</t>
+          <t>1d15h53m13s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4982,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1d15h32m42s</t>
+          <t>1d13h59m10s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +5002,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1d14h54m49s</t>
+          <t>1d13h12m46s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +5022,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1d14h29m23s</t>
+          <t>1d8h49m6s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5042,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1d5h21m47s</t>
+          <t>1d7h39m56s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5062,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1d2h40m35s</t>
+          <t>1d7h16m45s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5082,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d1h27m18s</t>
+          <t>1d4h56m4s</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5102,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>23h52m8s</t>
+          <t>1d3h58m20s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5122,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>22h26m20s</t>
+          <t>1d3h22m11s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5142,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>18h49m14s</t>
+          <t>1d16m34s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5162,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>18h31m11s</t>
+          <t>21h19m2s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5182,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16h44m57s</t>
+          <t>20h54m29s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5202,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>16h37m43s</t>
+          <t>20h3m30s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5222,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16h31m54s</t>
+          <t>19h44m40s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5242,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14h37m51s</t>
+          <t>19h44m40s</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5262,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13h54m59s</t>
+          <t>19h42m21s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5282,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13h54m44s</t>
+          <t>18h21m53s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5302,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13h51m27s</t>
+          <t>18h21m38s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5322,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12h22m20s</t>
+          <t>18h21m36s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5342,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10h2m56s</t>
+          <t>18h21m33s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5362,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9h27m47s</t>
+          <t>18h21m32s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5382,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8h18m37s</t>
+          <t>18h21m26s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5402,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8h15m18s</t>
+          <t>17h29m13s</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5422,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7h55m26s</t>
+          <t>17h25m53s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5442,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7h20m</t>
+          <t>15h56m30s</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5462,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>6h35m38s</t>
+          <t>14h15m28s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5482,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>5h34m45s</t>
+          <t>13h57m47s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5502,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4h37m1s</t>
+          <t>13h29m34s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5522,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4h52s</t>
+          <t>12h18m57s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5542,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3h21m59s</t>
+          <t>11h52m21s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5562,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3h12m34s</t>
+          <t>11h39m16s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5582,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3h6m49s</t>
+          <t>10h42m42s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5602,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3h4m53s</t>
+          <t>7h40m42s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5622,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1h59m23s</t>
+          <t>7h32m57s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5642,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1h38m40s</t>
+          <t>7h31m4s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5662,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1h7m29s</t>
+          <t>6h58m12s</t>
         </is>
       </c>
     </row>
@@ -5652,17 +5682,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1h6m59s</t>
+          <t>6h39m59s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5702,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1h1m11s</t>
+          <t>5h54m8s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5722,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>55m15s</t>
+          <t>5h9m12s</t>
         </is>
       </c>
     </row>
@@ -5712,17 +5742,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>35m54s</t>
+          <t>5h3m6s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5762,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>35m54s</t>
+          <t>4h36m43s</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5782,197 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>lanie</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>192.168.80.220</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3h10m22s</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>edmon</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>192.168.80.202</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2h51m47s</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>balmaceda</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>192.168.80.230</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2h30m7s</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>police</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>192.168.80.157</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2h14m39s</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>kurt</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>192.168.80.196</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>4m2s</t>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1h51m31s</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>pabling</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>192.168.80.179</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1h49m31s</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>gerome</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>192.168.80.215</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1h10m23s</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>kulot</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>192.168.80.170</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>41m27s</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>alexis</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>192.168.80.141</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>30m14s</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>pablico</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>192.168.80.210</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>11m45s</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5808,7 +6018,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -5818,12 +6028,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mendoza</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Fiber na</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -5833,12 +6038,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>abarientos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fiber na</t>
+          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -5848,12 +6053,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>digman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Fiber na</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -5863,12 +6063,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>alexis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>una sa kanan na cluster ni dada FIBER na</t>
+          <t>sarah</t>
         </is>
       </c>
     </row>
@@ -5878,7 +6073,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -5888,7 +6083,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -5898,12 +6098,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>abarientos</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FIBER na</t>
+          <t>denise</t>
         </is>
       </c>
     </row>
@@ -5912,111 +6107,6 @@
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>cctv</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ronald</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ZTEGPON10</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ZTEGPON11</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ZTEGPON12</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>rombaoa</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Harap Digman Fiber na</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>denise</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>abarientos</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2361,17 +2361,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>FIBER na</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2376,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2397,6 +2392,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2416,17 +2416,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Anne</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2431,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2446,7 +2441,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2461,7 +2456,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>cctv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2471,7 +2466,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2486,7 +2481,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2496,7 +2491,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>50MBPS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2511,7 +2506,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2521,7 +2516,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>50MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2536,7 +2531,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>ronald</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2561,12 +2556,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2577,6 +2572,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>UNO_01-F-MANALO-RONALD-LOTA-FREE</t>
+          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UNO_02-F-MANALO-CHIN-CHIN-500MONTHLY</t>
+          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>UNO_03-F-MANALO-MYKIE-500MONTHLY</t>
+          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UNO_04-F-MANALO-TERESITA-500MONTHLY</t>
+          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
         </is>
       </c>
     </row>
@@ -2706,12 +2706,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UNO_05-F-BANLE-AREA-500Monthly-MARICEL</t>
+          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>UNO_06-F-BANLE-AREA-500Monthly-LAVEN</t>
+          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UNO_07-F-BANLE-AREA-500Monthly-MATAMOROSA</t>
+          <t>Kapit bahay</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2812,11 +2812,6 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kapit bahay</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2821,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2842,6 +2837,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>kapit bahay ni christian</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>adminserver</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>kapit bahay ni christian</t>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UNO_09-BLK9-CLAIRE_ANNE-500monthly-SEPT15</t>
+          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>UNO_10-Likod_Billiards_Dennis_500monthly-SEPT15</t>
+          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UNO_11-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>adminserver</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>edmon2 eto yon</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3047,11 +3047,6 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>edmon2 eto yon</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3056,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3077,6 +3072,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>kapit bahay jr dating ulingan (blk11 lot 29)</t>
+          <t>anak ni ate che (Meanne)</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>anak ni ate che (Meanne)</t>
+          <t>Fiber na</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Fiber na</t>
+          <t>ReginaPichay F.MANALO OCT 10</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ReginaPichay F.MANALO OCT 10</t>
+          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3216,17 +3216,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>150MBPS</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Harap Digman Fiber na</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3231,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3246,7 +3241,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>150MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3261,7 +3256,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3286,7 +3281,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3296,7 +3291,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>20MBPS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3311,7 +3306,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3321,7 +3316,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>20MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3336,7 +3331,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>denise</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3361,7 +3356,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>denise</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3386,7 +3381,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3411,7 +3406,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>susan</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3436,7 +3431,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3446,7 +3441,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>15MBPS</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3461,7 +3456,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3471,12 +3466,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>15MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3496,17 +3496,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Babuyan Rent</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3511,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3541,7 +3536,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3551,7 +3546,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>35MBPS</t>
+          <t>30MBPS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3566,7 +3561,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3582,6 +3577,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Marin</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Babuyan</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>30MBPS</t>
+          <t>35MBPS</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3640,36 +3640,6 @@
         </is>
       </c>
       <c r="F122" t="inlineStr">
-        <is>
-          <t>Babuyan</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>rocabo</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>adminserver</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>35MBPS</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>pppoe</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
         <is>
           <t>parlor</t>
         </is>
@@ -3732,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w2d23h17m19s</t>
+          <t>1w3d8h7m52s</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w2d23h17m19s</t>
+          <t>1w3d8h7m52s</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w2d23h17m19s</t>
+          <t>1w3d8h7m52s</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w2d23h17m18s</t>
+          <t>1w3d8h7m51s</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w2d23h17m18s</t>
+          <t>1w3d8h7m51s</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w2d23h17m16s</t>
+          <t>1w3d8h7m49s</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3822,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w2d23h17m15s</t>
+          <t>1w3d8h7m48s</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3842,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w2d23h17m12s</t>
+          <t>1w3d8h7m45s</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w2d23h17m12s</t>
+          <t>1w3d8h7m45s</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3882,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w2d23h17m9s</t>
+          <t>1w3d8h7m42s</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3902,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w2d23h17m8s</t>
+          <t>1w3d8h7m41s</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3922,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w2d23h17m8s</t>
+          <t>1w3d8h7m41s</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3942,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w2d23h17m5s</t>
+          <t>1w3d8h7m38s</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3962,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w2d23h16m59s</t>
+          <t>1w3d8h7m32s</t>
         </is>
       </c>
     </row>
@@ -4012,7 +3982,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w2d23h16m58s</t>
+          <t>1w3d8h7m31s</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4002,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w2d23h16m46s</t>
+          <t>1w3d8h7m19s</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4022,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w2d23h16m45s</t>
+          <t>1w3d8h7m18s</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4042,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w2d23h16m45s</t>
+          <t>1w3d8h7m18s</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4062,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w2d23h16m44s</t>
+          <t>1w3d8h7m17s</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4082,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w2d23h16m44s</t>
+          <t>1w3d8h7m17s</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4102,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w2d23h16m44s</t>
+          <t>1w3d8h7m17s</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4122,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w2d23h16m44s</t>
+          <t>1w3d8h7m17s</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4142,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w2d23h16m44s</t>
+          <t>1w3d8h7m17s</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4162,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w2d23h16m43s</t>
+          <t>1w3d8h7m16s</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4182,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w2d23h16m36s</t>
+          <t>1w3d8h7m9s</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4202,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w2d23h15m58s</t>
+          <t>1w3d8h6m31s</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4222,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w2d23h15m48s</t>
+          <t>1w3d8h6m21s</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4242,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w2d22h13m13s</t>
+          <t>1w3d7h3m46s</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4262,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w2d14h36m19s</t>
+          <t>1w2d23h26m52s</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4282,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w2d16m33s</t>
+          <t>1w2d9h7m6s</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4302,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w17h5m18s</t>
+          <t>1w1d1h55m51s</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4322,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w7h36m31s</t>
+          <t>1w16h27m4s</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4342,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w3h11m24s</t>
+          <t>1w12h1m57s</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4362,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d19h34m3s</t>
+          <t>1w4h24m36s</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4382,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d1h59m47s</t>
+          <t>6d10h50m20s</t>
         </is>
       </c>
     </row>
@@ -4422,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.212</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5d13h38m40s</t>
+          <t>5d19h46m44s</t>
         </is>
       </c>
     </row>
@@ -4442,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5d10h56m11s</t>
+          <t>5d14h38m58s</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d5h48m25s</t>
+          <t>5d10h24m2s</t>
         </is>
       </c>
     </row>
@@ -4482,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d1h33m29s</t>
+          <t>5d3h10m40s</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d18h20m7s</t>
+          <t>4d20h14m24s</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d11h23m51s</t>
+          <t>4d16h52m5s</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d8h1m32s</t>
+          <t>4d15h32m5s</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d6h41m32s</t>
+          <t>4d14h57m25s</t>
         </is>
       </c>
     </row>
@@ -4582,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4d6h6m52s</t>
+          <t>4d9h46m17s</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4d5h23m56s</t>
+          <t>4d6h7m8s</t>
         </is>
       </c>
     </row>
@@ -4622,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4d55m44s</t>
+          <t>4d4h20m25s</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3d21h16m35s</t>
+          <t>3d21h17m31s</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3d19h29m52s</t>
+          <t>3d14h44m51s</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3d12h26m58s</t>
+          <t>3d12h20m55s</t>
         </is>
       </c>
     </row>
@@ -4702,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3d5h54m18s</t>
+          <t>2d23h44m34s</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3d3h30m22s</t>
+          <t>2d22h41m15s</t>
         </is>
       </c>
     </row>
@@ -4742,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2d19h42m28s</t>
+          <t>2d13h33m39s</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2d14h54m1s</t>
+          <t>2d10h52m27s</t>
         </is>
       </c>
     </row>
@@ -4782,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2d14h16m8s</t>
+          <t>2d9h39m10s</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2d13h50m42s</t>
+          <t>2d6h38m12s</t>
         </is>
       </c>
     </row>
@@ -4822,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2d4h43m6s</t>
+          <t>2d3h1m6s</t>
         </is>
       </c>
     </row>
@@ -4842,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2d2h1m54s</t>
+          <t>2d2h43m3s</t>
         </is>
       </c>
     </row>
@@ -4862,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2d48m37s</t>
+          <t>2d49m35s</t>
         </is>
       </c>
     </row>
@@ -4882,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1d21h47m39s</t>
+          <t>2d43m46s</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1d18h10m33s</t>
+          <t>1d22h49m43s</t>
         </is>
       </c>
     </row>
@@ -4922,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1d17h52m30s</t>
+          <t>1d22h3m19s</t>
         </is>
       </c>
     </row>
@@ -4942,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1d15h59m2s</t>
+          <t>1d16h30m29s</t>
         </is>
       </c>
     </row>
@@ -4962,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1d15h53m13s</t>
+          <t>1d16h7m18s</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1d13h59m10s</t>
+          <t>1d13h46m37s</t>
         </is>
       </c>
     </row>
@@ -5002,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1d13h12m46s</t>
+          <t>1d12h48m53s</t>
         </is>
       </c>
     </row>
@@ -5022,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1d8h49m6s</t>
+          <t>1d12h12m44s</t>
         </is>
       </c>
     </row>
@@ -5042,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1d7h39m56s</t>
+          <t>1d9h7m7s</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1d7h16m45s</t>
+          <t>1d6h9m35s</t>
         </is>
       </c>
     </row>
@@ -5082,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d4h56m4s</t>
+          <t>1d5h45m2s</t>
         </is>
       </c>
     </row>
@@ -5102,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1d3h58m20s</t>
+          <t>1d4h54m3s</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d3h22m11s</t>
+          <t>1d4h35m13s</t>
         </is>
       </c>
     </row>
@@ -5142,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d16m34s</t>
+          <t>1d4h35m13s</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>21h19m2s</t>
+          <t>1d4h32m54s</t>
         </is>
       </c>
     </row>
@@ -5182,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>20h54m29s</t>
+          <t>1d3h12m11s</t>
         </is>
       </c>
     </row>
@@ -5202,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>20h3m30s</t>
+          <t>1d3h12m9s</t>
         </is>
       </c>
     </row>
@@ -5222,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>19h44m40s</t>
+          <t>1d3h12m6s</t>
         </is>
       </c>
     </row>
@@ -5242,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>19h44m40s</t>
+          <t>1d3h12m5s</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>19h42m21s</t>
+          <t>1d3h11m59s</t>
         </is>
       </c>
     </row>
@@ -5282,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>18h21m53s</t>
+          <t>1d2h19m46s</t>
         </is>
       </c>
     </row>
@@ -5302,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18h21m38s</t>
+          <t>1d2h16m26s</t>
         </is>
       </c>
     </row>
@@ -5322,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>18h21m36s</t>
+          <t>1d47m3s</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>18h21m33s</t>
+          <t>22h48m20s</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>18h21m32s</t>
+          <t>22h20m7s</t>
         </is>
       </c>
     </row>
@@ -5382,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18h21m26s</t>
+          <t>21h9m30s</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>17h29m13s</t>
+          <t>20h42m54s</t>
         </is>
       </c>
     </row>
@@ -5422,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>17h25m53s</t>
+          <t>20h29m49s</t>
         </is>
       </c>
     </row>
@@ -5442,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>15h56m30s</t>
+          <t>19h33m15s</t>
         </is>
       </c>
     </row>
@@ -5462,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14h15m28s</t>
+          <t>16h31m15s</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13h57m47s</t>
+          <t>16h23m30s</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13h29m34s</t>
+          <t>16h21m37s</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>12h18m57s</t>
+          <t>15h48m45s</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>11h52m21s</t>
+          <t>15h30m32s</t>
         </is>
       </c>
     </row>
@@ -5562,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11h39m16s</t>
+          <t>14h44m41s</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10h42m42s</t>
+          <t>13h59m45s</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7h40m42s</t>
+          <t>13h53m39s</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7h32m57s</t>
+          <t>13h27m16s</t>
         </is>
       </c>
     </row>
@@ -5642,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7h31m4s</t>
+          <t>12h55s</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6h58m12s</t>
+          <t>11h42m20s</t>
         </is>
       </c>
     </row>
@@ -5682,17 +5652,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6h39m59s</t>
+          <t>11h20m40s</t>
         </is>
       </c>
     </row>
@@ -5702,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5h54m8s</t>
+          <t>11h5m12s</t>
         </is>
       </c>
     </row>
@@ -5722,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5h9m12s</t>
+          <t>10h42m4s</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5712,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5h3m6s</t>
+          <t>10h40m4s</t>
         </is>
       </c>
     </row>
@@ -5762,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4h36m43s</t>
+          <t>10h56s</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3h10m22s</t>
+          <t>9h32m</t>
         </is>
       </c>
     </row>
@@ -5802,17 +5772,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2h51m47s</t>
+          <t>9h20m47s</t>
         </is>
       </c>
     </row>
@@ -5822,17 +5792,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2h30m7s</t>
+          <t>8h21m20s</t>
         </is>
       </c>
     </row>
@@ -5842,17 +5812,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2h14m39s</t>
+          <t>8h15m12s</t>
         </is>
       </c>
     </row>
@@ -5862,17 +5832,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1h51m31s</t>
+          <t>5h15m18s</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5852,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1h49m31s</t>
+          <t>5h3m11s</t>
         </is>
       </c>
     </row>
@@ -5902,17 +5872,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1h10m23s</t>
+          <t>4h44m48s</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5892,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>41m27s</t>
+          <t>3h47m3s</t>
         </is>
       </c>
     </row>
@@ -5942,17 +5912,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>30m14s</t>
+          <t>2h15m5s</t>
         </is>
       </c>
     </row>
@@ -5962,17 +5932,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>11m45s</t>
+          <t>1h51m55s</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6038,12 +6008,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>abarientos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FIBER na</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6018,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6028,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6043,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
         </is>
       </c>
     </row>
@@ -6083,12 +6058,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>denise</t>
         </is>
       </c>
     </row>
@@ -6097,16 +6067,6 @@
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>denise</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3656,7 +3656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w3d8h7m52s</t>
+          <t>1w5d45m7s</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w3d8h7m52s</t>
+          <t>1w5d45m7s</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w3d8h7m52s</t>
+          <t>1w5d45m7s</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w3d8h7m51s</t>
+          <t>1w5d45m6s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w3d8h7m51s</t>
+          <t>1w5d45m6s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w3d8h7m49s</t>
+          <t>1w5d45m4s</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w3d8h7m48s</t>
+          <t>1w5d45m3s</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w3d8h7m45s</t>
+          <t>1w5d45m</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w3d8h7m45s</t>
+          <t>1w5d45m</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w3d8h7m42s</t>
+          <t>1w5d44m57s</t>
         </is>
       </c>
     </row>
@@ -3892,17 +3892,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w3d8h7m41s</t>
+          <t>1w5d44m56s</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w3d8h7m41s</t>
+          <t>1w5d44m53s</t>
         </is>
       </c>
     </row>
@@ -3932,17 +3932,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w3d8h7m38s</t>
+          <t>1w5d44m47s</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3952,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w3d8h7m32s</t>
+          <t>1w5d44m46s</t>
         </is>
       </c>
     </row>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w3d8h7m31s</t>
+          <t>1w5d44m34s</t>
         </is>
       </c>
     </row>
@@ -3992,17 +3992,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w3d8h7m19s</t>
+          <t>1w5d44m33s</t>
         </is>
       </c>
     </row>
@@ -4012,17 +4012,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w3d8h7m18s</t>
+          <t>1w5d44m32s</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w3d8h7m18s</t>
+          <t>1w5d44m32s</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4052,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w3d8h7m17s</t>
+          <t>1w5d44m32s</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w3d8h7m17s</t>
+          <t>1w5d44m32s</t>
         </is>
       </c>
     </row>
@@ -4092,17 +4092,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w3d8h7m17s</t>
+          <t>1w5d44m32s</t>
         </is>
       </c>
     </row>
@@ -4112,17 +4112,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w3d8h7m17s</t>
+          <t>1w5d44m31s</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w3d8h7m17s</t>
+          <t>1w5d44m24s</t>
         </is>
       </c>
     </row>
@@ -4152,17 +4152,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w3d8h7m16s</t>
+          <t>1w5d43m46s</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w3d8h7m9s</t>
+          <t>1w5d43m36s</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w3d8h6m31s</t>
+          <t>1w4d16h4m7s</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w3d8h6m21s</t>
+          <t>1w4d1h44m21s</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>susan</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.221</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w3d7h3m46s</t>
+          <t>1w2d4h39m12s</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w2d23h26m52s</t>
+          <t>1w1d21h1m51s</t>
         </is>
       </c>
     </row>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w2d9h7m6s</t>
+          <t>1w1d3h27m35s</t>
         </is>
       </c>
     </row>
@@ -4292,17 +4292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w1d1h55m51s</t>
+          <t>1w12h23m59s</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w16h27m4s</t>
+          <t>1w7h16m13s</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w12h1m57s</t>
+          <t>1w3h1m17s</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1w4h24m36s</t>
+          <t>6d19h47m55s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d10h50m20s</t>
+          <t>6d12h51m39s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5d19h46m44s</t>
+          <t>6d8h9m20s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5d14h38m58s</t>
+          <t>6d7h34m40s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d10h24m2s</t>
+          <t>5d20h57m40s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d3h10m40s</t>
+          <t>5d7h22m6s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d20h14m24s</t>
+          <t>5d4h58m10s</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d16h52m5s</t>
+          <t>4d15h18m30s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d15h32m5s</t>
+          <t>4d2h16m25s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d14h57m25s</t>
+          <t>3d23h15m27s</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4d9h46m17s</t>
+          <t>3d19h38m21s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4d6h7m8s</t>
+          <t>3d19h20m18s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4d4h20m25s</t>
+          <t>3d17h21m1s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3d21h17m31s</t>
+          <t>3d15h26m58s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3d14h44m51s</t>
+          <t>3d14h40m34s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3d12h20m55s</t>
+          <t>3d6h23m52s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2d23h44m34s</t>
+          <t>3d5h26m8s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2d22h41m15s</t>
+          <t>3d4h49m59s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2d13h33m39s</t>
+          <t>2d22h46m50s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2d10h52m27s</t>
+          <t>2d21h12m28s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2d9h39m10s</t>
+          <t>2d21h12m28s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2d6h38m12s</t>
+          <t>2d21h10m9s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2d3h1m6s</t>
+          <t>2d19h49m26s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2d2h43m3s</t>
+          <t>2d19h49m24s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2d49m35s</t>
+          <t>2d19h49m21s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2d43m46s</t>
+          <t>2d19h49m20s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1d22h49m43s</t>
+          <t>2d19h49m14s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1d22h3m19s</t>
+          <t>2d18h57m1s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1d16h30m29s</t>
+          <t>2d17h24m18s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1d16h7m18s</t>
+          <t>2d15h25m35s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1d13h46m37s</t>
+          <t>2d13h20m9s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1d12h48m53s</t>
+          <t>2d13h7m4s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1d12h12m44s</t>
+          <t>2d9h8m30s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1d9h7m7s</t>
+          <t>2d8h7m47s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1d6h9m35s</t>
+          <t>2d7h21m56s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1d5h45m2s</t>
+          <t>2d6h37m</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1d4h54m3s</t>
+          <t>2d6h30m54s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1d4h35m13s</t>
+          <t>2d6h4m31s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1d4h35m13s</t>
+          <t>2d3h57m55s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1d4h32m54s</t>
+          <t>2d3h42m27s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d3h12m11s</t>
+          <t>2d3h17m19s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d3h12m9s</t>
+          <t>2d1h58m2s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d3h12m6s</t>
+          <t>2d58m35s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d3h12m5s</t>
+          <t>2d52m27s</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d3h11m59s</t>
+          <t>1d21h52m33s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d2h19m46s</t>
+          <t>1d15h47m25s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d2h16m26s</t>
+          <t>1d15h5m54s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d47m3s</t>
+          <t>1d14h43m31s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>22h48m20s</t>
+          <t>1d12h27m26s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22h20m7s</t>
+          <t>1d8h48m24s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>21h9m30s</t>
+          <t>1d8h42m30s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20h42m54s</t>
+          <t>1d8h5m50s</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20h29m49s</t>
+          <t>1d2h23m13s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19h33m15s</t>
+          <t>1d1h36m48s</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>16h31m15s</t>
+          <t>1d1h20m45s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16h23m30s</t>
+          <t>23h40m56s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16h21m37s</t>
+          <t>22h44m49s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>15h48m45s</t>
+          <t>22h46s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15h30m32s</t>
+          <t>21h6m16s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14h44m41s</t>
+          <t>21h5m2s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13h59m45s</t>
+          <t>20h2m34s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13h53m39s</t>
+          <t>19h19m4s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13h27m16s</t>
+          <t>16h51m46s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12h55s</t>
+          <t>14h23m39s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>11h42m20s</t>
+          <t>9h34m36s</t>
         </is>
       </c>
     </row>
@@ -5652,17 +5652,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11h20m40s</t>
+          <t>9h2m57s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11h5m12s</t>
+          <t>8h58m14s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10h42m4s</t>
+          <t>8h57m15s</t>
         </is>
       </c>
     </row>
@@ -5712,17 +5712,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10h40m4s</t>
+          <t>8h55m46s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10h56s</t>
+          <t>6h39m</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9h32m</t>
+          <t>6h16m19s</t>
         </is>
       </c>
     </row>
@@ -5772,17 +5772,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9h20m47s</t>
+          <t>4h11m1s</t>
         </is>
       </c>
     </row>
@@ -5792,17 +5792,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>8h21m20s</t>
+          <t>4h47s</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>8h15m12s</t>
+          <t>3h34m26s</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.138</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>5h15m18s</t>
+          <t>3h13m25s</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5h3m11s</t>
+          <t>2h8m10s</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4h44m48s</t>
+          <t>2h7m40s</t>
         </is>
       </c>
     </row>
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3h47m3s</t>
+          <t>1h30m50s</t>
         </is>
       </c>
     </row>
@@ -5912,37 +5912,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2h15m5s</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>pinsannicookie</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>192.168.80.253</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>1h51m55s</t>
+          <t>23m16s</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6043,12 +6023,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UNO_12-Likod_Billiards_client_500monthly-SEPT15</t>
+          <t>anak ni ate che (Meanne)</t>
         </is>
       </c>
     </row>
@@ -6067,6 +6047,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
+        <is>
+          <t>susan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>choychoy</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w5d45m7s</t>
+          <t>1w6d1h26m8s</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w5d45m7s</t>
+          <t>1w6d1h26m8s</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w5d45m7s</t>
+          <t>1w6d1h26m8s</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w5d45m6s</t>
+          <t>1w6d1h26m7s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w5d45m6s</t>
+          <t>1w6d1h26m7s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w5d45m4s</t>
+          <t>1w6d1h26m5s</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w5d45m3s</t>
+          <t>1w6d1h26m4s</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w5d45m</t>
+          <t>1w6d1h26m1s</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w5d45m</t>
+          <t>1w6d1h26m1s</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w5d44m57s</t>
+          <t>1w6d1h25m58s</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w5d44m56s</t>
+          <t>1w6d1h25m57s</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w5d44m53s</t>
+          <t>1w6d1h25m54s</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w5d44m47s</t>
+          <t>1w6d1h25m48s</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w5d44m46s</t>
+          <t>1w6d1h25m47s</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w5d44m34s</t>
+          <t>1w6d1h25m35s</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w5d44m33s</t>
+          <t>1w6d1h25m34s</t>
         </is>
       </c>
     </row>
@@ -4012,17 +4012,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w5d44m32s</t>
+          <t>1w6d1h25m33s</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w5d44m32s</t>
+          <t>1w6d1h25m33s</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4052,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w5d44m32s</t>
+          <t>1w6d1h25m33s</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w5d44m32s</t>
+          <t>1w6d1h25m32s</t>
         </is>
       </c>
     </row>
@@ -4092,17 +4092,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w5d44m32s</t>
+          <t>1w6d1h25m25s</t>
         </is>
       </c>
     </row>
@@ -4112,17 +4112,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w5d44m31s</t>
+          <t>1w6d1h24m47s</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w5d44m24s</t>
+          <t>1w6d1h24m37s</t>
         </is>
       </c>
     </row>
@@ -4152,17 +4152,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w5d43m46s</t>
+          <t>1w5d2h25m22s</t>
         </is>
       </c>
     </row>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w5d43m36s</t>
+          <t>1w3d5h20m13s</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w4d16h4m7s</t>
+          <t>1w2d4h8m36s</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w4d1h44m21s</t>
+          <t>1w1d13h5m</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w2d4h39m12s</t>
+          <t>1w1d3h42m18s</t>
         </is>
       </c>
     </row>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w1d21h1m51s</t>
+          <t>1w20h28m56s</t>
         </is>
       </c>
     </row>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w1d3h27m35s</t>
+          <t>1w13h32m40s</t>
         </is>
       </c>
     </row>
@@ -4292,17 +4292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w12h23m59s</t>
+          <t>1w8h15m41s</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4312,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w7h16m13s</t>
+          <t>6d21h38m41s</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w3h1m17s</t>
+          <t>6d8h3m7s</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d19h47m55s</t>
+          <t>6d5h39m11s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d12h51m39s</t>
+          <t>5d2h57m26s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4392,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6d8h9m20s</t>
+          <t>4d23h56m28s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6d7h34m40s</t>
+          <t>4d20h19m22s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d20h57m40s</t>
+          <t>4d20h1m19s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d7h22m6s</t>
+          <t>4d18h2m2s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4472,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5d4h58m10s</t>
+          <t>4d16h7m59s</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d15h18m30s</t>
+          <t>4d15h21m35s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d2h16m25s</t>
+          <t>4d7h4m53s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4532,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3d23h15m27s</t>
+          <t>4d6h7m9s</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3d19h38m21s</t>
+          <t>3d23h27m51s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4572,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3d19h20m18s</t>
+          <t>3d21h53m29s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3d17h21m1s</t>
+          <t>3d21h53m29s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4612,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3d15h26m58s</t>
+          <t>3d21h51m10s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4632,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3d14h40m34s</t>
+          <t>3d20h30m27s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3d6h23m52s</t>
+          <t>3d20h30m25s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4672,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3d5h26m8s</t>
+          <t>3d20h30m22s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4692,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3d4h49m59s</t>
+          <t>3d20h30m15s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2d22h46m50s</t>
+          <t>3d19h38m2s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4732,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2d21h12m28s</t>
+          <t>3d18h5m19s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4752,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2d21h12m28s</t>
+          <t>3d13h48m5s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4772,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2d21h10m9s</t>
+          <t>3d9h49m31s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2d19h49m26s</t>
+          <t>3d8h2m57s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4812,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2d19h49m24s</t>
+          <t>3d7h18m1s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4832,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2d19h49m21s</t>
+          <t>3d7h11m55s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2d19h49m20s</t>
+          <t>3d6h45m32s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4872,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2d19h49m14s</t>
+          <t>3d4h38m56s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2d18h57m1s</t>
+          <t>3d4h23m28s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4912,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2d17h24m18s</t>
+          <t>3d3h58m20s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4932,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2d15h25m35s</t>
+          <t>3d1h39m36s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d13h20m9s</t>
+          <t>3d1h33m28s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4972,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d13h7m4s</t>
+          <t>2d16h28m26s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +4992,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d9h8m30s</t>
+          <t>2d15h46m55s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5012,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d8h7m47s</t>
+          <t>2d13h8m27s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d7h21m56s</t>
+          <t>2d9h29m25s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5052,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d6h37m</t>
+          <t>2d8h46m51s</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5072,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d6h30m54s</t>
+          <t>2d3h4m14s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5092,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d6h4m31s</t>
+          <t>2d2h17m49s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5112,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d3h57m55s</t>
+          <t>2d2h1m46s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5132,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d3h42m27s</t>
+          <t>2d21m57s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5152,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d3h17m19s</t>
+          <t>1d23h25m50s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5172,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d1h58m2s</t>
+          <t>1d22h41m47s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5192,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d58m35s</t>
+          <t>1d21h47m17s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d52m27s</t>
+          <t>1d21h46m3s</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.138</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d21h52m33s</t>
+          <t>1d20h43m35s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d15h47m25s</t>
+          <t>1d20h5s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5272,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d15h5m54s</t>
+          <t>1d17h32m47s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d14h43m31s</t>
+          <t>1d9h39m15s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5312,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d12h27m26s</t>
+          <t>1d6h57m20s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5332,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d8h48m24s</t>
+          <t>1d4h41m48s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d8h42m30s</t>
+          <t>1d3h54m26s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5372,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d8h5m50s</t>
+          <t>1d1h4m17s</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d2h23m13s</t>
+          <t>21h52m32s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5412,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d1h36m48s</t>
+          <t>21h46m55s</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d1h20m45s</t>
+          <t>21h6m24s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>23h40m56s</t>
+          <t>20h55m47s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5472,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22h44m49s</t>
+          <t>20h44m37s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22h46s</t>
+          <t>20h27m5s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21h6m16s</t>
+          <t>20h1m36s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5532,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21h5m2s</t>
+          <t>17h54m6s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5552,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20h2m34s</t>
+          <t>17h26m6s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5572,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>19h19m4s</t>
+          <t>17h12m29s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5592,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16h51m46s</t>
+          <t>16h26m22s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5612,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>14h23m39s</t>
+          <t>10h21m39s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5632,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>9h34m36s</t>
+          <t>10h6m17s</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9h2m57s</t>
+          <t>9h37m8s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8h58m14s</t>
+          <t>9h34m56s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5692,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8h57m15s</t>
+          <t>9h23m50s</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8h55m46s</t>
+          <t>9h19m14s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>6h39m</t>
+          <t>8h35m9s</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5752,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6h16m19s</t>
+          <t>8h8m1s</t>
         </is>
       </c>
     </row>
@@ -5772,17 +5772,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4h11m1s</t>
+          <t>7h29m25s</t>
         </is>
       </c>
     </row>
@@ -5792,17 +5792,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4h47s</t>
+          <t>4h42m52s</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3h34m26s</t>
+          <t>4h38m39s</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3h13m25s</t>
+          <t>3h47m27s</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h8m10s</t>
+          <t>3h33m38s</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h7m40s</t>
+          <t>2h59m26s</t>
         </is>
       </c>
     </row>
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1h30m50s</t>
+          <t>1h20m33s</t>
         </is>
       </c>
     </row>
@@ -5912,17 +5912,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>23m16s</t>
+          <t>4m7s</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>tabimendo</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6008,12 +6008,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6018,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>ZTEGPON8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>anak ni ate che (Meanne)</t>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3529,6 +3529,11 @@
           <t>pppoe</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Fiber na (jobi name sa tagging box)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3656,7 +3661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3702,7 +3707,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w6d1h26m8s</t>
+          <t>1w6d8h1m33s</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3727,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w6d1h26m8s</t>
+          <t>1w6d8h1m33s</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3747,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w6d1h26m8s</t>
+          <t>1w6d8h1m33s</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w6d1h26m7s</t>
+          <t>1w6d8h1m32s</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3787,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w6d1h26m7s</t>
+          <t>1w6d8h1m32s</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3807,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w6d1h26m5s</t>
+          <t>1w6d8h1m30s</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3827,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w6d1h26m4s</t>
+          <t>1w6d8h1m29s</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3847,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w6d1h26m1s</t>
+          <t>1w6d8h1m26s</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3867,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w6d1h26m1s</t>
+          <t>1w6d8h1m26s</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w6d1h25m58s</t>
+          <t>1w6d8h1m23s</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3907,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w6d1h25m57s</t>
+          <t>1w6d8h1m22s</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3927,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w6d1h25m54s</t>
+          <t>1w6d8h1m19s</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3947,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w6d1h25m48s</t>
+          <t>1w6d8h1m13s</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3967,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w6d1h25m47s</t>
+          <t>1w6d8h1m12s</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3987,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w6d1h25m35s</t>
+          <t>1w6d8h1m</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4007,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w6d1h25m34s</t>
+          <t>1w6d8h59s</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4027,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w6d1h25m33s</t>
+          <t>1w6d8h58s</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4047,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w6d1h25m33s</t>
+          <t>1w6d8h58s</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4067,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w6d1h25m33s</t>
+          <t>1w6d8h58s</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4087,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w6d1h25m32s</t>
+          <t>1w6d8h57s</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4107,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w6d1h25m25s</t>
+          <t>1w6d8h50s</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4127,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w6d1h24m47s</t>
+          <t>1w6d8h12s</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4147,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w6d1h24m37s</t>
+          <t>1w6d8h2s</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4167,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w5d2h25m22s</t>
+          <t>1w5d9h47s</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4187,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w3d5h20m13s</t>
+          <t>1w3d11h55m38s</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4207,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w2d4h8m36s</t>
+          <t>1w2d10h44m1s</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4227,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w1d13h5m</t>
+          <t>1w1d19h40m25s</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4247,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w1d3h42m18s</t>
+          <t>1w1d10h17m43s</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4267,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w20h28m56s</t>
+          <t>1w1d3h4m21s</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4287,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w13h32m40s</t>
+          <t>1w20h8m5s</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4307,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w8h15m41s</t>
+          <t>1w14h51m6s</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4327,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6d21h38m41s</t>
+          <t>1w4h14m6s</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4347,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6d8h3m7s</t>
+          <t>6d14h38m32s</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4367,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d5h39m11s</t>
+          <t>6d12h14m36s</t>
         </is>
       </c>
     </row>
@@ -4372,17 +4377,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5d2h57m26s</t>
+          <t>5d6h31m53s</t>
         </is>
       </c>
     </row>
@@ -4392,17 +4397,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4d23h56m28s</t>
+          <t>5d2h54m47s</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4417,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4d20h19m22s</t>
+          <t>5d2h36m44s</t>
         </is>
       </c>
     </row>
@@ -4432,17 +4437,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4d20h1m19s</t>
+          <t>5d37m27s</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4457,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4d18h2m2s</t>
+          <t>4d22h43m24s</t>
         </is>
       </c>
     </row>
@@ -4472,17 +4477,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d16h7m59s</t>
+          <t>4d21h57m</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4497,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d15h21m35s</t>
+          <t>4d13h40m18s</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4517,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d7h4m53s</t>
+          <t>4d12h42m34s</t>
         </is>
       </c>
     </row>
@@ -4532,17 +4537,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d6h7m9s</t>
+          <t>4d6h3m16s</t>
         </is>
       </c>
     </row>
@@ -4552,17 +4557,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3d23h27m51s</t>
+          <t>4d4h28m54s</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4577,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3d21h53m29s</t>
+          <t>4d4h28m54s</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4597,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3d21h53m29s</t>
+          <t>4d4h26m35s</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4617,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3d21h51m10s</t>
+          <t>4d3h5m52s</t>
         </is>
       </c>
     </row>
@@ -4632,17 +4637,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3d20h30m27s</t>
+          <t>4d3h5m50s</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4657,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3d20h30m25s</t>
+          <t>4d3h5m47s</t>
         </is>
       </c>
     </row>
@@ -4672,17 +4677,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3d20h30m22s</t>
+          <t>4d3h5m40s</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4697,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3d20h30m15s</t>
+          <t>4d2h13m27s</t>
         </is>
       </c>
     </row>
@@ -4712,17 +4717,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3d19h38m2s</t>
+          <t>4d40m44s</t>
         </is>
       </c>
     </row>
@@ -4732,17 +4737,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d18h5m19s</t>
+          <t>3d20h23m30s</t>
         </is>
       </c>
     </row>
@@ -4752,17 +4757,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d13h48m5s</t>
+          <t>3d16h24m56s</t>
         </is>
       </c>
     </row>
@@ -4772,17 +4777,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d9h49m31s</t>
+          <t>3d14h38m22s</t>
         </is>
       </c>
     </row>
@@ -4792,17 +4797,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d8h2m57s</t>
+          <t>3d13h53m26s</t>
         </is>
       </c>
     </row>
@@ -4812,17 +4817,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d7h18m1s</t>
+          <t>3d13h47m20s</t>
         </is>
       </c>
     </row>
@@ -4832,17 +4837,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d7h11m55s</t>
+          <t>3d13h20m57s</t>
         </is>
       </c>
     </row>
@@ -4852,17 +4857,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d6h45m32s</t>
+          <t>3d11h14m21s</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4877,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d4h38m56s</t>
+          <t>3d10h58m53s</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4897,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d4h23m28s</t>
+          <t>3d10h33m45s</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4917,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d3h58m20s</t>
+          <t>3d8h15m1s</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4937,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d1h39m36s</t>
+          <t>3d8h8m53s</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4957,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3d1h33m28s</t>
+          <t>2d23h3m51s</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4977,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d16h28m26s</t>
+          <t>2d22h22m20s</t>
         </is>
       </c>
     </row>
@@ -4992,17 +4997,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d15h46m55s</t>
+          <t>2d19h43m52s</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5017,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d13h8m27s</t>
+          <t>2d16h4m50s</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5037,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d9h29m25s</t>
+          <t>2d15h22m16s</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5057,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d8h46m51s</t>
+          <t>2d9h39m39s</t>
         </is>
       </c>
     </row>
@@ -5072,17 +5077,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d3h4m14s</t>
+          <t>2d8h53m14s</t>
         </is>
       </c>
     </row>
@@ -5092,17 +5097,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d2h17m49s</t>
+          <t>2d8h37m11s</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5117,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d2h1m46s</t>
+          <t>2d6h57m22s</t>
         </is>
       </c>
     </row>
@@ -5132,17 +5137,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d21m57s</t>
+          <t>2d6h1m15s</t>
         </is>
       </c>
     </row>
@@ -5152,17 +5157,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1d23h25m50s</t>
+          <t>2d5h17m12s</t>
         </is>
       </c>
     </row>
@@ -5172,17 +5177,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1d22h41m47s</t>
+          <t>2d4h22m42s</t>
         </is>
       </c>
     </row>
@@ -5192,17 +5197,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1d21h47m17s</t>
+          <t>2d4h21m28s</t>
         </is>
       </c>
     </row>
@@ -5212,17 +5217,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1d21h46m3s</t>
+          <t>2d3h19m</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5237,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1d20h43m35s</t>
+          <t>2d2h35m30s</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5257,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1d20h5s</t>
+          <t>2d8m12s</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5277,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d17h32m47s</t>
+          <t>1d16h14m40s</t>
         </is>
       </c>
     </row>
@@ -5292,17 +5297,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d9h39m15s</t>
+          <t>1d13h32m45s</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5317,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d6h57m20s</t>
+          <t>1d7h39m42s</t>
         </is>
       </c>
     </row>
@@ -5332,17 +5337,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d4h41m48s</t>
+          <t>1d4h27m57s</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5357,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d3h54m26s</t>
+          <t>1d4h22m20s</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5377,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d1h4m17s</t>
+          <t>1d3h41m49s</t>
         </is>
       </c>
     </row>
@@ -5392,17 +5397,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.138</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21h52m32s</t>
+          <t>1d3h31m12s</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5417,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21h46m55s</t>
+          <t>1d3h20m2s</t>
         </is>
       </c>
     </row>
@@ -5432,17 +5437,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21h6m24s</t>
+          <t>1d3h2m30s</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5457,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20h55m47s</t>
+          <t>1d2h37m1s</t>
         </is>
       </c>
     </row>
@@ -5472,17 +5477,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>20h44m37s</t>
+          <t>1d29m31s</t>
         </is>
       </c>
     </row>
@@ -5492,17 +5497,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20h27m5s</t>
+          <t>1d1m31s</t>
         </is>
       </c>
     </row>
@@ -5512,17 +5517,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20h1m36s</t>
+          <t>23h47m54s</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5537,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>17h54m6s</t>
+          <t>23h1m47s</t>
         </is>
       </c>
     </row>
@@ -5552,17 +5557,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>17h26m6s</t>
+          <t>16h57m4s</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5577,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>17h12m29s</t>
+          <t>16h41m42s</t>
         </is>
       </c>
     </row>
@@ -5592,17 +5597,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16h26m22s</t>
+          <t>16h12m33s</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5617,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10h21m39s</t>
+          <t>15h54m39s</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5637,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10h6m17s</t>
+          <t>15h10m34s</t>
         </is>
       </c>
     </row>
@@ -5652,17 +5657,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9h37m8s</t>
+          <t>14h43m26s</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5677,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>9h34m56s</t>
+          <t>14h4m50s</t>
         </is>
       </c>
     </row>
@@ -5692,17 +5697,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9h23m50s</t>
+          <t>11h18m17s</t>
         </is>
       </c>
     </row>
@@ -5712,17 +5717,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9h19m14s</t>
+          <t>11h14m4s</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5737,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>8h35m9s</t>
+          <t>10h22m52s</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5757,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>8h8m1s</t>
+          <t>7h55m58s</t>
         </is>
       </c>
     </row>
@@ -5772,17 +5777,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7h29m25s</t>
+          <t>5h47m45s</t>
         </is>
       </c>
     </row>
@@ -5792,17 +5797,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4h42m52s</t>
+          <t>5h46m52s</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5817,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4h38m39s</t>
+          <t>5h3m48s</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5837,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3h47m27s</t>
+          <t>3h25m24s</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5857,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3h33m38s</t>
+          <t>2h50m40s</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5877,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.137</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h59m26s</t>
+          <t>2h44m42s</t>
         </is>
       </c>
     </row>
@@ -5892,17 +5897,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1h20m33s</t>
+          <t>2h14m54s</t>
         </is>
       </c>
     </row>
@@ -5912,17 +5917,37 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4m7s</t>
+          <t>1h4m39s</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rona</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>192.168.80.232</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>48m54s</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6047,16 +6072,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>choychoy</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1w6d8h1m33s</t>
+          <t>2w23h31m19s</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1w6d8h1m33s</t>
+          <t>2w23h31m19s</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1w6d8h1m33s</t>
+          <t>2w23h31m19s</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1w6d8h1m32s</t>
+          <t>2w23h31m18s</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1w6d8h1m32s</t>
+          <t>2w23h31m18s</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1w6d8h1m30s</t>
+          <t>2w23h31m16s</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1w6d8h1m29s</t>
+          <t>2w23h31m15s</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1w6d8h1m26s</t>
+          <t>2w23h31m12s</t>
         </is>
       </c>
     </row>
@@ -3857,17 +3857,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1w6d8h1m26s</t>
+          <t>2w23h31m9s</t>
         </is>
       </c>
     </row>
@@ -3877,17 +3877,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1w6d8h1m23s</t>
+          <t>2w23h31m8s</t>
         </is>
       </c>
     </row>
@@ -3897,17 +3897,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1w6d8h1m22s</t>
+          <t>2w23h30m59s</t>
         </is>
       </c>
     </row>
@@ -3917,17 +3917,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1w6d8h1m19s</t>
+          <t>2w23h30m58s</t>
         </is>
       </c>
     </row>
@@ -3937,17 +3937,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1w6d8h1m13s</t>
+          <t>2w23h30m46s</t>
         </is>
       </c>
     </row>
@@ -3957,17 +3957,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1w6d8h1m12s</t>
+          <t>2w23h30m45s</t>
         </is>
       </c>
     </row>
@@ -3977,17 +3977,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1w6d8h1m</t>
+          <t>2w23h30m44s</t>
         </is>
       </c>
     </row>
@@ -3997,17 +3997,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1w6d8h59s</t>
+          <t>2w23h30m44s</t>
         </is>
       </c>
     </row>
@@ -4017,17 +4017,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1w6d8h58s</t>
+          <t>2w23h30m44s</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1w6d8h58s</t>
+          <t>2w23h30m43s</t>
         </is>
       </c>
     </row>
@@ -4057,17 +4057,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1w6d8h58s</t>
+          <t>2w23h30m36s</t>
         </is>
       </c>
     </row>
@@ -4077,17 +4077,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1w6d8h57s</t>
+          <t>2w23h29m58s</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4097,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1w6d8h50s</t>
+          <t>2w23h29m48s</t>
         </is>
       </c>
     </row>
@@ -4117,17 +4117,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1w6d8h12s</t>
+          <t>2w30m33s</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w6d8h2s</t>
+          <t>1w4d2h13m47s</t>
         </is>
       </c>
     </row>
@@ -4157,17 +4157,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w5d9h47s</t>
+          <t>1w3d11h10m11s</t>
         </is>
       </c>
     </row>
@@ -4177,17 +4177,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w3d11h55m38s</t>
+          <t>1w3d1h47m29s</t>
         </is>
       </c>
     </row>
@@ -4197,17 +4197,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w2d10h44m1s</t>
+          <t>1w2d18h34m7s</t>
         </is>
       </c>
     </row>
@@ -4217,17 +4217,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w1d19h40m25s</t>
+          <t>1w2d11h37m51s</t>
         </is>
       </c>
     </row>
@@ -4237,17 +4237,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w1d10h17m43s</t>
+          <t>1w1d19h43m52s</t>
         </is>
       </c>
     </row>
@@ -4257,17 +4257,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w1d3h4m21s</t>
+          <t>1w1d6h8m18s</t>
         </is>
       </c>
     </row>
@@ -4277,17 +4277,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w20h8m5s</t>
+          <t>1w1d3h44m22s</t>
         </is>
       </c>
     </row>
@@ -4297,17 +4297,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w14h51m6s</t>
+          <t>6d22h1m39s</t>
         </is>
       </c>
     </row>
@@ -4317,17 +4317,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w4h14m6s</t>
+          <t>6d18h24m33s</t>
         </is>
       </c>
     </row>
@@ -4337,17 +4337,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6d14h38m32s</t>
+          <t>6d18h6m30s</t>
         </is>
       </c>
     </row>
@@ -4357,17 +4357,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d12h14m36s</t>
+          <t>6d16h7m13s</t>
         </is>
       </c>
     </row>
@@ -4377,17 +4377,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5d6h31m53s</t>
+          <t>6d14h13m10s</t>
         </is>
       </c>
     </row>
@@ -4397,17 +4397,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5d2h54m47s</t>
+          <t>6d5h10m4s</t>
         </is>
       </c>
     </row>
@@ -4417,17 +4417,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5d2h36m44s</t>
+          <t>6d4h12m20s</t>
         </is>
       </c>
     </row>
@@ -4437,17 +4437,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d37m27s</t>
+          <t>5d19h58m40s</t>
         </is>
       </c>
     </row>
@@ -4457,17 +4457,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4d22h43m24s</t>
+          <t>5d19h58m40s</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4477,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4d21h57m</t>
+          <t>5d19h56m21s</t>
         </is>
       </c>
     </row>
@@ -4497,17 +4497,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4d13h40m18s</t>
+          <t>5d18h35m38s</t>
         </is>
       </c>
     </row>
@@ -4517,17 +4517,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4d12h42m34s</t>
+          <t>5d18h35m36s</t>
         </is>
       </c>
     </row>
@@ -4537,17 +4537,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4d6h3m16s</t>
+          <t>5d18h35m33s</t>
         </is>
       </c>
     </row>
@@ -4557,17 +4557,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4d4h28m54s</t>
+          <t>5d18h35m26s</t>
         </is>
       </c>
     </row>
@@ -4577,17 +4577,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4d4h28m54s</t>
+          <t>5d17h43m13s</t>
         </is>
       </c>
     </row>
@@ -4597,17 +4597,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4d4h26m35s</t>
+          <t>5d11h53m16s</t>
         </is>
       </c>
     </row>
@@ -4617,17 +4617,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4d3h5m52s</t>
+          <t>5d7h54m42s</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4637,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4d3h5m50s</t>
+          <t>5d6h8m8s</t>
         </is>
       </c>
     </row>
@@ -4657,17 +4657,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4d3h5m47s</t>
+          <t>5d5h23m12s</t>
         </is>
       </c>
     </row>
@@ -4677,17 +4677,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4d3h5m40s</t>
+          <t>5d5h17m6s</t>
         </is>
       </c>
     </row>
@@ -4697,17 +4697,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4d2h13m27s</t>
+          <t>5d4h50m43s</t>
         </is>
       </c>
     </row>
@@ -4717,17 +4717,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4d40m44s</t>
+          <t>5d2h44m7s</t>
         </is>
       </c>
     </row>
@@ -4737,17 +4737,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.157</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3d20h23m30s</t>
+          <t>5d2h28m39s</t>
         </is>
       </c>
     </row>
@@ -4757,17 +4757,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3d16h24m56s</t>
+          <t>5d2h3m31s</t>
         </is>
       </c>
     </row>
@@ -4777,17 +4777,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3d14h38m22s</t>
+          <t>4d23h44m47s</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3d13h53m26s</t>
+          <t>4d23h38m39s</t>
         </is>
       </c>
     </row>
@@ -4817,17 +4817,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3d13h47m20s</t>
+          <t>4d14h33m37s</t>
         </is>
       </c>
     </row>
@@ -4837,17 +4837,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3d13h20m57s</t>
+          <t>4d13h52m6s</t>
         </is>
       </c>
     </row>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3d11h14m21s</t>
+          <t>4d11h13m38s</t>
         </is>
       </c>
     </row>
@@ -4877,17 +4877,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.157</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3d10h58m53s</t>
+          <t>4d7h34m36s</t>
         </is>
       </c>
     </row>
@@ -4897,17 +4897,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3d10h33m45s</t>
+          <t>4d1h9m25s</t>
         </is>
       </c>
     </row>
@@ -4917,17 +4917,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d8h15m1s</t>
+          <t>3d22h27m8s</t>
         </is>
       </c>
     </row>
@@ -4937,17 +4937,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d8h8m53s</t>
+          <t>3d19h52m28s</t>
         </is>
       </c>
     </row>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2d23h3m51s</t>
+          <t>3d19h51m14s</t>
         </is>
       </c>
     </row>
@@ -4977,17 +4977,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2d22h22m20s</t>
+          <t>3d18h48m46s</t>
         </is>
       </c>
     </row>
@@ -4997,17 +4997,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2d19h43m52s</t>
+          <t>3d18h5m16s</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5017,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2d16h4m50s</t>
+          <t>3d15h37m58s</t>
         </is>
       </c>
     </row>
@@ -5037,17 +5037,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2d15h22m16s</t>
+          <t>3d5h2m31s</t>
         </is>
       </c>
     </row>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d9h39m39s</t>
+          <t>2d19h57m43s</t>
         </is>
       </c>
     </row>
@@ -5077,17 +5077,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d8h53m14s</t>
+          <t>2d19h58s</t>
         </is>
       </c>
     </row>
@@ -5097,17 +5097,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d8h37m11s</t>
+          <t>2d18h49m48s</t>
         </is>
       </c>
     </row>
@@ -5117,17 +5117,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d6h57m22s</t>
+          <t>2d18h32m16s</t>
         </is>
       </c>
     </row>
@@ -5137,17 +5137,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d6h1m15s</t>
+          <t>2d15h31m17s</t>
         </is>
       </c>
     </row>
@@ -5157,17 +5157,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d5h17m12s</t>
+          <t>2d15h17m40s</t>
         </is>
       </c>
     </row>
@@ -5177,17 +5177,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d4h22m42s</t>
+          <t>2d14h31m33s</t>
         </is>
       </c>
     </row>
@@ -5197,17 +5197,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d4h21m28s</t>
+          <t>2d8h26m50s</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5217,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d3h19m</t>
+          <t>2d8h11m28s</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5237,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2d2h35m30s</t>
+          <t>2d6h13m12s</t>
         </is>
       </c>
     </row>
@@ -5257,17 +5257,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2d8m12s</t>
+          <t>2d5h34m36s</t>
         </is>
       </c>
     </row>
@@ -5277,17 +5277,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1d16h14m40s</t>
+          <t>2d1h52m38s</t>
         </is>
       </c>
     </row>
@@ -5297,17 +5297,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d13h32m45s</t>
+          <t>1d21h17m31s</t>
         </is>
       </c>
     </row>
@@ -5317,17 +5317,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d7h39m42s</t>
+          <t>1d18h55m10s</t>
         </is>
       </c>
     </row>
@@ -5337,17 +5337,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.138</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d4h27m57s</t>
+          <t>1d18h20m26s</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5357,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.137</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d4h22m20s</t>
+          <t>1d18h14m28s</t>
         </is>
       </c>
     </row>
@@ -5377,17 +5377,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d3h41m49s</t>
+          <t>1d15h19m3s</t>
         </is>
       </c>
     </row>
@@ -5397,17 +5397,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d3h31m12s</t>
+          <t>1d14h56m54s</t>
         </is>
       </c>
     </row>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d3h20m2s</t>
+          <t>1d14h28m</t>
         </is>
       </c>
     </row>
@@ -5437,17 +5437,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d3h2m30s</t>
+          <t>1d8h1m10s</t>
         </is>
       </c>
     </row>
@@ -5457,17 +5457,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1d2h37m1s</t>
+          <t>1d7h9m48s</t>
         </is>
       </c>
     </row>
@@ -5477,17 +5477,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1d29m31s</t>
+          <t>1d3h7m37s</t>
         </is>
       </c>
     </row>
@@ -5497,17 +5497,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1d1m31s</t>
+          <t>1d2h24m21s</t>
         </is>
       </c>
     </row>
@@ -5517,17 +5517,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>23h47m54s</t>
+          <t>21h58m55s</t>
         </is>
       </c>
     </row>
@@ -5537,17 +5537,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>23h1m47s</t>
+          <t>21h36m58s</t>
         </is>
       </c>
     </row>
@@ -5557,17 +5557,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>16h57m4s</t>
+          <t>21h31m49s</t>
         </is>
       </c>
     </row>
@@ -5577,17 +5577,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>16h41m42s</t>
+          <t>18h19m26s</t>
         </is>
       </c>
     </row>
@@ -5597,17 +5597,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16h12m33s</t>
+          <t>17h13m37s</t>
         </is>
       </c>
     </row>
@@ -5617,17 +5617,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>15h54m39s</t>
+          <t>16h20m27s</t>
         </is>
       </c>
     </row>
@@ -5637,17 +5637,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>15h10m34s</t>
+          <t>16h7m8s</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>14h43m26s</t>
+          <t>13h38m53s</t>
         </is>
       </c>
     </row>
@@ -5677,17 +5677,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>14h4m50s</t>
+          <t>12h14m36s</t>
         </is>
       </c>
     </row>
@@ -5697,17 +5697,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>11h18m17s</t>
+          <t>8h13m56s</t>
         </is>
       </c>
     </row>
@@ -5717,17 +5717,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>11h14m4s</t>
+          <t>7h55m35s</t>
         </is>
       </c>
     </row>
@@ -5737,17 +5737,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10h22m52s</t>
+          <t>7h54m31s</t>
         </is>
       </c>
     </row>
@@ -5757,17 +5757,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>7h55m58s</t>
+          <t>7h52m38s</t>
         </is>
       </c>
     </row>
@@ -5777,17 +5777,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5h47m45s</t>
+          <t>7h16m21s</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5h46m52s</t>
+          <t>6h40m13s</t>
         </is>
       </c>
     </row>
@@ -5817,17 +5817,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>5h3m48s</t>
+          <t>3h30m6s</t>
         </is>
       </c>
     </row>
@@ -5837,17 +5837,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3h25m24s</t>
+          <t>3h19m3s</t>
         </is>
       </c>
     </row>
@@ -5857,17 +5857,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2h50m40s</t>
+          <t>3h8m20s</t>
         </is>
       </c>
     </row>
@@ -5877,17 +5877,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.137</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h44m42s</t>
+          <t>2h51m51s</t>
         </is>
       </c>
     </row>
@@ -5897,17 +5897,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2h14m54s</t>
+          <t>42m46s</t>
         </is>
       </c>
     </row>
@@ -5917,17 +5917,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>alcantara</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.176</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1h4m39s</t>
+          <t>34m13s</t>
         </is>
       </c>
     </row>
@@ -5937,17 +5937,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>alcantara</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.176</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>48m54s</t>
+          <t>11m47s</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>ateche</t>
         </is>
       </c>
     </row>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -3661,7 +3661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2w23h31m19s</t>
+          <t>2w1d6h38m15s</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2w23h31m19s</t>
+          <t>2w1d6h38m15s</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2w23h31m19s</t>
+          <t>2w1d6h38m15s</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2w23h31m18s</t>
+          <t>2w1d6h38m14s</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2w23h31m18s</t>
+          <t>2w1d6h38m14s</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2w23h31m16s</t>
+          <t>2w1d6h38m12s</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2w23h31m15s</t>
+          <t>2w1d6h38m11s</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2w23h31m12s</t>
+          <t>2w1d6h38m8s</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2w23h31m9s</t>
+          <t>2w1d6h38m5s</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2w23h31m8s</t>
+          <t>2w1d6h38m4s</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2w23h30m59s</t>
+          <t>2w1d6h37m55s</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2w23h30m58s</t>
+          <t>2w1d6h37m54s</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2w23h30m46s</t>
+          <t>2w1d6h37m42s</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2w23h30m45s</t>
+          <t>2w1d6h37m41s</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2w23h30m44s</t>
+          <t>2w1d6h37m40s</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2w23h30m44s</t>
+          <t>2w1d6h37m40s</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2w23h30m44s</t>
+          <t>2w1d6h37m40s</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2w23h30m43s</t>
+          <t>2w1d6h37m39s</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2w23h30m36s</t>
+          <t>2w1d6h37m32s</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2w23h29m58s</t>
+          <t>2w1d6h36m54s</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2w23h29m48s</t>
+          <t>2w1d6h36m44s</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2w30m33s</t>
+          <t>2w7h37m29s</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w4d2h13m47s</t>
+          <t>1w4d9h20m43s</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w3d11h10m11s</t>
+          <t>1w3d18h17m7s</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w3d1h47m29s</t>
+          <t>1w3d8h54m25s</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w2d18h34m7s</t>
+          <t>1w3d1h41m3s</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w2d11h37m51s</t>
+          <t>1w2d18h44m47s</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w1d19h43m52s</t>
+          <t>1w2d2h50m48s</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w1d6h8m18s</t>
+          <t>1w1d13h15m14s</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w1d3h44m22s</t>
+          <t>1w1d10h51m18s</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6d22h1m39s</t>
+          <t>1w5h8m35s</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6d18h24m33s</t>
+          <t>1w1h31m29s</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6d18h6m30s</t>
+          <t>1w1h13m26s</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d16h7m13s</t>
+          <t>6d23h14m9s</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d14h13m10s</t>
+          <t>6d21h20m6s</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6d5h10m4s</t>
+          <t>6d12h17m</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6d4h12m20s</t>
+          <t>6d11h19m16s</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5d19h58m40s</t>
+          <t>6d3h5m36s</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5d19h58m40s</t>
+          <t>6d3h5m36s</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5d19h56m21s</t>
+          <t>6d3h3m17s</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5d18h35m38s</t>
+          <t>6d1h42m34s</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5d18h35m36s</t>
+          <t>6d1h42m32s</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5d18h35m33s</t>
+          <t>6d1h42m29s</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5d18h35m26s</t>
+          <t>6d1h42m22s</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5d17h43m13s</t>
+          <t>6d50m9s</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d11h53m16s</t>
+          <t>5d19h12s</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d7h54m42s</t>
+          <t>5d15h1m38s</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d6h8m8s</t>
+          <t>5d13h15m4s</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d5h23m12s</t>
+          <t>5d12h30m8s</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5d5h17m6s</t>
+          <t>5d12h24m2s</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5d4h50m43s</t>
+          <t>5d11h57m39s</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5d2h44m7s</t>
+          <t>5d9h51m3s</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5d2h28m39s</t>
+          <t>5d9h35m35s</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5d2h3m31s</t>
+          <t>5d9h10m27s</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4d23h44m47s</t>
+          <t>5d6h51m43s</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4d23h38m39s</t>
+          <t>5d6h45m35s</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4d14h33m37s</t>
+          <t>4d21h40m33s</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4d13h52m6s</t>
+          <t>4d20h59m2s</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4d11h13m38s</t>
+          <t>4d18h20m34s</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4d7h34m36s</t>
+          <t>4d14h41m32s</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4d1h9m25s</t>
+          <t>4d8h16m21s</t>
         </is>
       </c>
     </row>
@@ -4917,17 +4917,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3d22h27m8s</t>
+          <t>4d2h59m24s</t>
         </is>
       </c>
     </row>
@@ -4937,17 +4937,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3d19h52m28s</t>
+          <t>4d2h58m10s</t>
         </is>
       </c>
     </row>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3d19h51m14s</t>
+          <t>4d1h55m42s</t>
         </is>
       </c>
     </row>
@@ -4977,17 +4977,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3d18h48m46s</t>
+          <t>3d22h44m54s</t>
         </is>
       </c>
     </row>
@@ -4997,17 +4997,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>kurt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.196</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3d18h5m16s</t>
+          <t>3d12h9m27s</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5017,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3d15h37m58s</t>
+          <t>3d3h4m39s</t>
         </is>
       </c>
     </row>
@@ -5037,17 +5037,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>kurt</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.196</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3d5h2m31s</t>
+          <t>3d2h7m54s</t>
         </is>
       </c>
     </row>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.138</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2d19h57m43s</t>
+          <t>3d1h56m44s</t>
         </is>
       </c>
     </row>
@@ -5077,17 +5077,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2d19h58s</t>
+          <t>3d1h39m12s</t>
         </is>
       </c>
     </row>
@@ -5097,17 +5097,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d18h49m48s</t>
+          <t>2d22h38m13s</t>
         </is>
       </c>
     </row>
@@ -5117,17 +5117,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>jojo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.152</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d18h32m16s</t>
+          <t>2d22h24m36s</t>
         </is>
       </c>
     </row>
@@ -5137,17 +5137,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d15h31m17s</t>
+          <t>2d21h38m29s</t>
         </is>
       </c>
     </row>
@@ -5157,17 +5157,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jojo</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.152</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d15h17m40s</t>
+          <t>2d15h33m46s</t>
         </is>
       </c>
     </row>
@@ -5177,17 +5177,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d14h31m33s</t>
+          <t>2d15h18m24s</t>
         </is>
       </c>
     </row>
@@ -5197,17 +5197,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d8h26m50s</t>
+          <t>2d13h20m8s</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5217,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d8h11m28s</t>
+          <t>2d12h41m32s</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5237,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2d6h13m12s</t>
+          <t>2d8h59m34s</t>
         </is>
       </c>
     </row>
@@ -5257,17 +5257,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2d5h34m36s</t>
+          <t>2d4h24m27s</t>
         </is>
       </c>
     </row>
@@ -5277,17 +5277,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2d1h52m38s</t>
+          <t>2d2h2m6s</t>
         </is>
       </c>
     </row>
@@ -5297,17 +5297,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.137</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1d21h17m31s</t>
+          <t>2d1h21m24s</t>
         </is>
       </c>
     </row>
@@ -5317,17 +5317,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d18h55m10s</t>
+          <t>1d22h25m59s</t>
         </is>
       </c>
     </row>
@@ -5337,17 +5337,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d18h20m26s</t>
+          <t>1d22h3m50s</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5357,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.137</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d18h14m28s</t>
+          <t>1d21h34m56s</t>
         </is>
       </c>
     </row>
@@ -5377,17 +5377,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d15h19m3s</t>
+          <t>1d15h8m6s</t>
         </is>
       </c>
     </row>
@@ -5397,17 +5397,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d14h56m54s</t>
+          <t>1d14h16m44s</t>
         </is>
       </c>
     </row>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d14h28m</t>
+          <t>1d10h14m33s</t>
         </is>
       </c>
     </row>
@@ -5437,17 +5437,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d8h1m10s</t>
+          <t>1d9h31m17s</t>
         </is>
       </c>
     </row>
@@ -5457,17 +5457,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1d7h9m48s</t>
+          <t>1d4h43m54s</t>
         </is>
       </c>
     </row>
@@ -5477,17 +5477,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1d3h7m37s</t>
+          <t>1d4h38m45s</t>
         </is>
       </c>
     </row>
@@ -5497,17 +5497,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1d2h24m21s</t>
+          <t>1d1h26m22s</t>
         </is>
       </c>
     </row>
@@ -5517,17 +5517,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21h58m55s</t>
+          <t>1d20m33s</t>
         </is>
       </c>
     </row>
@@ -5537,17 +5537,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21h36m58s</t>
+          <t>23h27m23s</t>
         </is>
       </c>
     </row>
@@ -5557,17 +5557,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>21h31m49s</t>
+          <t>23h14m4s</t>
         </is>
       </c>
     </row>
@@ -5577,17 +5577,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>18h19m26s</t>
+          <t>20h45m49s</t>
         </is>
       </c>
     </row>
@@ -5597,17 +5597,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17h13m37s</t>
+          <t>19h21m32s</t>
         </is>
       </c>
     </row>
@@ -5617,17 +5617,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>16h20m27s</t>
+          <t>15h20m52s</t>
         </is>
       </c>
     </row>
@@ -5637,17 +5637,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16h7m8s</t>
+          <t>15h2m31s</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>13h38m53s</t>
+          <t>15h1m27s</t>
         </is>
       </c>
     </row>
@@ -5677,17 +5677,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>12h14m36s</t>
+          <t>14h59m34s</t>
         </is>
       </c>
     </row>
@@ -5697,17 +5697,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8h13m56s</t>
+          <t>14h23m17s</t>
         </is>
       </c>
     </row>
@@ -5717,17 +5717,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7h55m35s</t>
+          <t>13h47m9s</t>
         </is>
       </c>
     </row>
@@ -5737,17 +5737,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7h54m31s</t>
+          <t>10h25m59s</t>
         </is>
       </c>
     </row>
@@ -5757,17 +5757,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>7h52m38s</t>
+          <t>10h15m16s</t>
         </is>
       </c>
     </row>
@@ -5777,17 +5777,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7h16m21s</t>
+          <t>9h58m47s</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6h40m13s</t>
+          <t>7h49m42s</t>
         </is>
       </c>
     </row>
@@ -5817,17 +5817,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3h30m6s</t>
+          <t>7h41m9s</t>
         </is>
       </c>
     </row>
@@ -5837,17 +5837,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3h19m3s</t>
+          <t>6h56m19s</t>
         </is>
       </c>
     </row>
@@ -5857,17 +5857,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3h8m20s</t>
+          <t>5h39m43s</t>
         </is>
       </c>
     </row>
@@ -5877,17 +5877,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2h51m51s</t>
+          <t>4h38m53s</t>
         </is>
       </c>
     </row>
@@ -5897,17 +5897,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>42m46s</t>
+          <t>3h48m43s</t>
         </is>
       </c>
     </row>
@@ -5917,17 +5917,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>34m13s</t>
+          <t>3h5m10s</t>
         </is>
       </c>
     </row>
@@ -5937,17 +5937,37 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>gemma</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>192.168.80.246</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3h4m35s</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>alcantara</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>192.168.80.176</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>11m47s</t>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2m40s</t>
         </is>
       </c>
     </row>
@@ -5962,7 +5982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,7 +6013,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>marina</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6023,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>marina</t>
+          <t>blk12lot12</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6033,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>blk12lot12</t>
+          <t>cctv</t>
         </is>
       </c>
     </row>
@@ -6023,7 +6043,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cctv</t>
+          <t>ronald</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6053,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ronald</t>
+          <t>ZTEGPON8</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
         </is>
       </c>
     </row>
@@ -6043,12 +6068,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZTEGPON8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UNO_08-BLK9-MAINBOX_ROUTER</t>
+          <t>denise</t>
         </is>
       </c>
     </row>
@@ -6057,16 +6077,6 @@
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>denise</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
         <is>
           <t>susan</t>
         </is>

--- a/CITS_Client_Report.xlsx
+++ b/CITS_Client_Report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3647,6 +3647,36 @@
       <c r="F122" t="inlineStr">
         <is>
           <t>parlor</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IOT-2-V1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>IOT-2-V1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>50MBPS</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>pppoe</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Fiber harap nila dada 12/13/25</t>
         </is>
       </c>
     </row>
@@ -3697,17 +3727,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sadeth</t>
+          <t>atejing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>192.168.80.251</t>
+          <t>192.168.80.250</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2w1d6h38m15s</t>
+          <t>2w5d21h53m29s</t>
         </is>
       </c>
     </row>
@@ -3717,17 +3747,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>atejing</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>192.168.80.250</t>
+          <t>192.168.80.249</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2w1d6h38m15s</t>
+          <t>2w5d21h53m29s</t>
         </is>
       </c>
     </row>
@@ -3737,17 +3767,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>torres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>192.168.80.249</t>
+          <t>192.168.80.245</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2w1d6h38m15s</t>
+          <t>2w5d21h53m28s</t>
         </is>
       </c>
     </row>
@@ -3757,17 +3787,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frencillo</t>
+          <t>DUNLOP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>192.168.80.248</t>
+          <t>192.168.80.231</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2w1d6h38m14s</t>
+          <t>2w5d21h53m26s</t>
         </is>
       </c>
     </row>
@@ -3777,17 +3807,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>torres</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>192.168.80.245</t>
+          <t>192.168.80.225</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2w1d6h38m14s</t>
+          <t>2w5d21h53m25s</t>
         </is>
       </c>
     </row>
@@ -3797,17 +3827,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DUNLOP</t>
+          <t>ronnie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.80.231</t>
+          <t>192.168.80.217</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2w1d6h38m12s</t>
+          <t>2w5d21h53m22s</t>
         </is>
       </c>
     </row>
@@ -3817,17 +3847,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>192.168.80.225</t>
+          <t>192.168.80.204</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2w1d6h38m11s</t>
+          <t>2w5d21h53m19s</t>
         </is>
       </c>
     </row>
@@ -3837,17 +3867,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ronnie</t>
+          <t>jamesstore</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>192.168.80.217</t>
+          <t>192.168.80.183</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2w1d6h38m8s</t>
+          <t>2w5d21h53m8s</t>
         </is>
       </c>
     </row>
@@ -3857,17 +3887,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>karamon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>192.168.80.204</t>
+          <t>192.168.80.177</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2w1d6h38m5s</t>
+          <t>2w5d21h52m56s</t>
         </is>
       </c>
     </row>
@@ -3877,17 +3907,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gemma2ndfloor</t>
+          <t>mendo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>192.168.80.193</t>
+          <t>192.168.80.168</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2w1d6h38m4s</t>
+          <t>2w5d21h52m54s</t>
         </is>
       </c>
     </row>
@@ -3897,17 +3927,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZTEGPON5</t>
+          <t>romi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>192.168.80.184</t>
+          <t>192.168.80.165</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2w1d6h37m55s</t>
+          <t>2w5d21h52m54s</t>
         </is>
       </c>
     </row>
@@ -3917,17 +3947,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jamesstore</t>
+          <t>estradajelaii</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.80.183</t>
+          <t>192.168.80.164</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2w1d6h37m54s</t>
+          <t>2w5d21h52m54s</t>
         </is>
       </c>
     </row>
@@ -3937,17 +3967,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>karamon</t>
+          <t>ZTEGPON7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192.168.80.177</t>
+          <t>192.168.80.161</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2w1d6h37m42s</t>
+          <t>2w5d21h52m53s</t>
         </is>
       </c>
     </row>
@@ -3957,17 +3987,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>blk11lot92</t>
+          <t>ZTEGPON2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.80.173</t>
+          <t>192.168.80.144</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2w1d6h37m41s</t>
+          <t>2w5d21h51m58s</t>
         </is>
       </c>
     </row>
@@ -3977,17 +4007,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mendo</t>
+          <t>ateulam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>192.168.80.168</t>
+          <t>192.168.80.155</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2w1d6h37m40s</t>
+          <t>2w2d35m57s</t>
         </is>
       </c>
     </row>
@@ -3997,17 +4027,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>romi</t>
+          <t>ZTEGPON1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>192.168.80.165</t>
+          <t>192.168.80.145</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2w1d6h37m40s</t>
+          <t>2w1d9m39s</t>
         </is>
       </c>
     </row>
@@ -4017,17 +4047,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>estradajelaii</t>
+          <t>tendaaaaa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>192.168.80.164</t>
+          <t>192.168.80.205</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2w1d6h37m40s</t>
+          <t>2w16h56m17s</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4067,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ZTEGPON7</t>
+          <t>GPON1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>192.168.80.161</t>
+          <t>192.168.80.235</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2w1d6h37m39s</t>
+          <t>1w6d18h6m2s</t>
         </is>
       </c>
     </row>
@@ -4057,17 +4087,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lester</t>
+          <t>edmon3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192.168.80.158</t>
+          <t>192.168.80.243</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2w1d6h37m32s</t>
+          <t>1w6d4h30m28s</t>
         </is>
       </c>
     </row>
@@ -4077,17 +4107,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZTEGPON6</t>
+          <t>hosenia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>192.168.80.147</t>
+          <t>192.168.80.169</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2w1d6h36m54s</t>
+          <t>1w6d2h6m32s</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4127,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZTEGPON2</t>
+          <t>costales</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>192.168.80.144</t>
+          <t>192.168.80.178</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2w1d6h36m44s</t>
+          <t>1w4d20h23m49s</t>
         </is>
       </c>
     </row>
@@ -4117,17 +4147,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lando2</t>
+          <t>anne2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>192.168.80.239</t>
+          <t>192.168.80.228</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2w7h37m29s</t>
+          <t>1w4d14h29m23s</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4167,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ateulam</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>192.168.80.155</t>
+          <t>192.168.80.242</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1w4d9h20m43s</t>
+          <t>1w4d12h35m20s</t>
         </is>
       </c>
     </row>
@@ -4157,17 +4187,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>misey</t>
+          <t>aquilar</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>192.168.80.252</t>
+          <t>192.168.80.241</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1w3d18h17m7s</t>
+          <t>1w4d3h32m14s</t>
         </is>
       </c>
     </row>
@@ -4177,17 +4207,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZTEGPON1</t>
+          <t>aubrey</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>192.168.80.145</t>
+          <t>192.168.80.153</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1w3d8h54m25s</t>
+          <t>1w4d2h34m30s</t>
         </is>
       </c>
     </row>
@@ -4197,17 +4227,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tendaaaaa</t>
+          <t>ZTEGPON9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>192.168.80.205</t>
+          <t>192.168.80.148</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1w3d1h41m3s</t>
+          <t>1w3d18h20m50s</t>
         </is>
       </c>
     </row>
@@ -4217,17 +4247,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tata</t>
+          <t>paaralan1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>192.168.80.203</t>
+          <t>192.168.80.142</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1w2d18h44m47s</t>
+          <t>1w3d18h20m50s</t>
         </is>
       </c>
     </row>
@@ -4237,17 +4267,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GPON1</t>
+          <t>ZTEGPON4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>192.168.80.235</t>
+          <t>192.168.80.181</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1w2d2h50m48s</t>
+          <t>1w3d18h18m31s</t>
         </is>
       </c>
     </row>
@@ -4257,17 +4287,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>edmon3</t>
+          <t>mesuga</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>192.168.80.243</t>
+          <t>192.168.80.233</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1w1d13h15m14s</t>
+          <t>1w3d16h57m46s</t>
         </is>
       </c>
     </row>
@@ -4277,17 +4307,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hosenia</t>
+          <t>rocabo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>192.168.80.169</t>
+          <t>192.168.80.224</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1w1d10h51m18s</t>
+          <t>1w3d16h5m23s</t>
         </is>
       </c>
     </row>
@@ -4297,17 +4327,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>costales</t>
+          <t>ric</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>192.168.80.178</t>
+          <t>192.168.80.240</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1w5h8m35s</t>
+          <t>1w3d10h15m26s</t>
         </is>
       </c>
     </row>
@@ -4317,17 +4347,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>petilo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>192.168.80.182</t>
+          <t>192.168.80.194</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1w1h31m29s</t>
+          <t>1w3d4h30m18s</t>
         </is>
       </c>
     </row>
@@ -4337,17 +4367,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bumaya</t>
+          <t>mendoza</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>192.168.80.226</t>
+          <t>192.168.80.150</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1w1h13m26s</t>
+          <t>1w2d22h6m57s</t>
         </is>
       </c>
     </row>
@@ -4357,17 +4387,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>anne2</t>
+          <t>ella</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>192.168.80.228</t>
+          <t>192.168.80.214</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6d23h14m9s</t>
+          <t>1w2d12h14m16s</t>
         </is>
       </c>
     </row>
@@ -4377,17 +4407,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>192.168.80.242</t>
+          <t>192.168.80.197</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6d21h20m6s</t>
+          <t>1w2d5h56m46s</t>
         </is>
       </c>
     </row>
@@ -4397,17 +4427,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>aquilar</t>
+          <t>atenobi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>192.168.80.241</t>
+          <t>192.168.80.211</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6d12h17m</t>
+          <t>1w17h11m58s</t>
         </is>
       </c>
     </row>
@@ -4417,17 +4447,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>aubrey</t>
+          <t>cleng</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>192.168.80.153</t>
+          <t>192.168.80.171</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6d11h19m16s</t>
+          <t>1w16h54m26s</t>
         </is>
       </c>
     </row>
@@ -4437,17 +4467,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZTEGPON9</t>
+          <t>cynthia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>192.168.80.148</t>
+          <t>192.168.80.207</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6d3h5m36s</t>
+          <t>1w6h33m38s</t>
         </is>
       </c>
     </row>
@@ -4457,17 +4487,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>paaralan1</t>
+          <t>randy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>192.168.80.142</t>
+          <t>192.168.80.200</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6d3h5m36s</t>
+          <t>6d19h39m41s</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4507,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZTEGPON4</t>
+          <t>choychoy</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>192.168.80.181</t>
+          <t>192.168.80.137</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6d3h3m17s</t>
+          <t>6d16h36m38s</t>
         </is>
       </c>
     </row>
@@ -4497,17 +4527,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZTEGPON10</t>
+          <t>bern</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>192.168.80.154</t>
+          <t>192.168.80.223</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6d1h42m34s</t>
+          <t>6d12h50m10s</t>
         </is>
       </c>
     </row>
@@ -4517,17 +4547,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mesuga</t>
+          <t>lizacagatin</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>192.168.80.233</t>
+          <t>192.168.80.163</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6d1h42m32s</t>
+          <t>6d1h29m47s</t>
         </is>
       </c>
     </row>
@@ -4537,17 +4567,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>digman</t>
+          <t>deth</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>192.168.80.151</t>
+          <t>192.168.80.216</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6d1h42m29s</t>
+          <t>5d19h53m59s</t>
         </is>
       </c>
     </row>
@@ -4557,17 +4587,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>rombaoa</t>
+          <t>culma</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>192.168.80.146</t>
+          <t>192.168.80.244</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6d1h42m22s</t>
+          <t>5d16h41m36s</t>
         </is>
       </c>
     </row>
@@ -4577,17 +4607,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>rocabo</t>
+          <t>forman</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>192.168.80.224</t>
+          <t>192.168.80.238</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6d50m9s</t>
+          <t>5d15h35m47s</t>
         </is>
       </c>
     </row>
@@ -4597,17 +4627,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ric</t>
+          <t>jana123</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>192.168.80.240</t>
+          <t>192.168.80.160</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5d19h12s</t>
+          <t>5d10h36m46s</t>
         </is>
       </c>
     </row>
@@ -4617,17 +4647,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>blk11lot97</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>192.168.80.188</t>
+          <t>192.168.80.189</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5d15h1m38s</t>
+          <t>5d1h41m13s</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4667,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>petilo</t>
+          <t>joy1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>192.168.80.194</t>
+          <t>192.168.80.187</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5d13h15m4s</t>
+          <t>4d23h4m56s</t>
         </is>
       </c>
     </row>
@@ -4657,17 +4687,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>maymay</t>
+          <t>ZTEGPON5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>192.168.80.206</t>
+          <t>192.168.80.184</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5d12h30m8s</t>
+          <t>4d12h52m7s</t>
         </is>
       </c>
     </row>
@@ -4677,17 +4707,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>brandohouse</t>
+          <t>pinsannicookie</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>192.168.80.209</t>
+          <t>192.168.80.253</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5d12h24m2s</t>
+          <t>4d9h44m13s</t>
         </is>
       </c>
     </row>
@@ -4697,17 +4727,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>robilyn</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.80.139</t>
+          <t>192.168.80.159</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5d11h57m39s</t>
+          <t>3d23h31m17s</t>
         </is>
       </c>
     </row>
@@ -4717,17 +4747,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>balmaceda</t>
+          <t>efondo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>192.168.80.230</t>
+          <t>192.168.80.247</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5d9h51m3s</t>
+          <t>3d23h26m56s</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4777,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5d9h35m35s</t>
+          <t>3d22h46m28s</t>
         </is>
       </c>
     </row>
@@ -4757,17 +4787,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pabling</t>
+          <t>jan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.80.179</t>
+          <t>192.168.80.138</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5d9h10m27s</t>
+          <t>3d22h33m54s</t>
         </is>
       </c>
     </row>
@@ -4777,17 +4807,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mendoza</t>
+          <t>robilyn</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>192.168.80.150</t>
+          <t>192.168.80.139</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5d6h51m43s</t>
+          <t>3d21h19m25s</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4827,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>lando2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>192.168.80.234</t>
+          <t>192.168.80.239</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5d6h45m35s</t>
+          <t>3d15h1m47s</t>
         </is>
       </c>
     </row>
@@ -4817,17 +4847,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cristian</t>
+          <t>ramil</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>192.168.80.190</t>
+          <t>192.168.80.167</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4d21h40m33s</t>
+          <t>3d12h51m54s</t>
         </is>
       </c>
     </row>
@@ -4837,17 +4867,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ella</t>
+          <t>pinsanmarwell</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>192.168.80.214</t>
+          <t>192.168.80.140</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4d20h59m2s</t>
+          <t>3d5h5m58s</t>
         </is>
       </c>
     </row>
@@ -4857,17 +4887,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>garry</t>
+          <t>gemma2ndfloor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>192.168.80.174</t>
+          <t>192.168.80.193</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4d18h20m34s</t>
+          <t>3d3h22m16s</t>
         </is>
       </c>
     </row>
@@ -4877,17 +4907,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>bobby</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>192.168.80.197</t>
+          <t>192.168.80.180</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4d14h41m32s</t>
+          <t>3d1h17m49s</t>
         </is>
       </c>
     </row>
@@ -4897,17 +4927,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>almera</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>192.168.80.159</t>
+          <t>192.168.80.201</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4d8h16m21s</t>
+          <t>3d24m48s</t>
         </is>
       </c>
     </row>
@@ -4917,17 +4947,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pinsanmarwell</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>192.168.80.140</t>
+          <t>192.168.80.254</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4d2h59m24s</t>
+          <t>2d21h36m36s</t>
         </is>
       </c>
     </row>
@@ -4937,17 +4967,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>efondo</t>
+          <t>ZTEGPON3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192.168.80.247</t>
+          <t>192.168.80.162</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4d2h58m10s</t>
+          <t>2d17h57m17s</t>
         </is>
       </c>
     </row>
@@ -4957,17 +4987,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pablico</t>
+          <t>liston</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>192.168.80.210</t>
+          <t>192.168.80.156</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4d1h55m42s</t>
+          <t>2d14h27m7s</t>
         </is>
       </c>
     </row>
@@ -4977,17 +5007,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bobby</t>
+          <t>brandohouse</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>192.168.80.180</t>
+          <t>192.168.80.209</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3d22h44m54s</t>
+          <t>2d13h20m33s</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5037,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3d12h9m27s</t>
+          <t>2d12h51m43s</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5047,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>misey</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192.168.80.138</t>
+          <t>192.168.80.252</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3d3h4m39s</t>
+          <t>1d23h42m15s</t>
         </is>
       </c>
     </row>
@@ -5037,17 +5067,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ZTEGPON11</t>
+          <t>blk11lot34</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.80.185</t>
+          <t>192.168.80.213</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3d2h7m54s</t>
+          <t>1d22h26m35s</t>
         </is>
       </c>
     </row>
@@ -5057,17 +5087,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>atenobi</t>
+          <t>sarah</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.80.211</t>
+          <t>192.168.80.234</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3d1h56m44s</t>
+          <t>1d20h1m5s</t>
         </is>
       </c>
     </row>
@@ -5077,17 +5107,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cleng</t>
+          <t>ZTEGPON12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192.168.80.171</t>
+          <t>192.168.80.149</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3d1h39m12s</t>
+          <t>1d19h44m11s</t>
         </is>
       </c>
     </row>
@@ -5097,17 +5127,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gerome</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>192.168.80.215</t>
+          <t>192.168.80.246</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2d22h38m13s</t>
+          <t>1d18h17m48s</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5157,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2d22h24m36s</t>
+          <t>1d15h30m20s</t>
         </is>
       </c>
     </row>
@@ -5137,17 +5167,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>alexis</t>
+          <t>lanie</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>192.168.80.141</t>
+          <t>192.168.80.220</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2d21h38m29s</t>
+          <t>1d14h57m</t>
         </is>
       </c>
     </row>
@@ -5157,17 +5187,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>gerome</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>192.168.80.191</t>
+          <t>192.168.80.215</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2d15h33m46s</t>
+          <t>1d13h13m27s</t>
         </is>
       </c>
     </row>
@@ -5177,17 +5207,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cynthia</t>
+          <t>rona</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.80.207</t>
+          <t>192.168.80.232</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2d15h18m24s</t>
+          <t>1d10h51m24s</t>
         </is>
       </c>
     </row>
@@ -5197,17 +5227,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>melisa</t>
+          <t>blk11lot97</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>192.168.80.208</t>
+          <t>192.168.80.188</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2d13h20m8s</t>
+          <t>1d7h45m16s</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5247,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>blk10lot9</t>
+          <t>jeffrey</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>192.168.80.219</t>
+          <t>192.168.80.192</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2d12h41m32s</t>
+          <t>1d5h34m35s</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5267,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ramil</t>
+          <t>tabimendo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192.168.80.167</t>
+          <t>192.168.80.166</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2d8h59m34s</t>
+          <t>1d4h4m47s</t>
         </is>
       </c>
     </row>
@@ -5257,17 +5287,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>randy</t>
+          <t>balmaceda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192.168.80.200</t>
+          <t>192.168.80.230</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2d4h24m27s</t>
+          <t>1d1h14m40s</t>
         </is>
       </c>
     </row>
@@ -5277,17 +5307,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>lanie</t>
+          <t>ateche</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>192.168.80.220</t>
+          <t>192.168.80.175</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2d2h2m6s</t>
+          <t>1d37m11s</t>
         </is>
       </c>
     </row>
@@ -5297,17 +5327,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>choychoy</t>
+          <t>bumaya</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>192.168.80.137</t>
+          <t>192.168.80.226</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2d1h21m24s</t>
+          <t>23h42m43s</t>
         </is>
       </c>
     </row>
@@ -5317,17 +5347,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tabimendo</t>
+          <t>digman</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>192.168.80.166</t>
+          <t>192.168.80.151</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1d22h25m59s</t>
+          <t>20h34m</t>
         </is>
       </c>
     </row>
@@ -5337,17 +5367,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>almojuela</t>
+          <t>frencillo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.80.222</t>
+          <t>192.168.80.248</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1d22h3m50s</t>
+          <t>20h8m1s</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5387,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bern</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.80.223</t>
+          <t>192.168.80.186</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1d21h34m56s</t>
+          <t>19h57m6s</t>
         </is>
       </c>
     </row>
@@ -5377,17 +5407,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>blk11lot34</t>
+          <t>sadeth</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>192.168.80.213</t>
+          <t>192.168.80.251</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1d15h8m6s</t>
+          <t>19h50m25s</t>
         </is>
       </c>
     </row>
@@ -5397,17 +5427,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>melvi</t>
+          <t>kenneth</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192.168.80.218</t>
+          <t>192.168.80.182</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1d14h16m44s</t>
+          <t>19h23m2s</t>
         </is>
       </c>
     </row>
@@ -5417,17 +5447,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>lizacagatin</t>
+          <t>cristian</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192.168.80.163</t>
+          <t>192.168.80.190</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1d10h14m33s</t>
+          <t>17h42m49s</t>
         </is>
       </c>
     </row>
@@ -5437,17 +5467,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>arwina</t>
+          <t>ZTEGPON6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192.168.80.172</t>
+          <t>192.168.80.147</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1d9h31m17s</t>
+          <t>16h28m17s</t>
         </is>
       </c>
     </row>
@@ -5457,17 +5487,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>liston</t>
+          <t>pablico</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.80.156</t>
+          <t>192.168.80.210</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1d4h43m54s</t>
+          <t>16h23m6s</t>
         </is>
       </c>
     </row>
@@ -5477,17 +5507,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>deth</t>
+          <t>almojuela</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>192.168.80.216</t>
+          <t>192.168.80.222</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1d4h38m45s</t>
+          <t>16h22m54s</t>
         </is>
       </c>
     </row>
@@ -5497,17 +5527,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>culma</t>
+          <t>marwel</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>192.168.80.244</t>
+          <t>192.168.80.236</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1d1h26m22s</t>
+          <t>14h52m29s</t>
         </is>
       </c>
     </row>
@@ -5517,17 +5547,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>forman</t>
+          <t>alexis</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>192.168.80.238</t>
+          <t>192.168.80.141</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1d20m33s</t>
+          <t>14h1m34s</t>
         </is>
       </c>
     </row>
@@ -5537,17 +5567,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZTEGPON12</t>
+          <t>lester</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>192.168.80.149</t>
+          <t>192.168.80.158</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>23h27m23s</t>
+          <t>13h29m24s</t>
         </is>
       </c>
     </row>
@@ -5557,17 +5587,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rona</t>
+          <t>garry</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192.168.80.232</t>
+          <t>192.168.80.174</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>23h14m4s</t>
+          <t>13h23m11s</t>
         </is>
       </c>
     </row>
@@ -5577,17 +5607,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>marwel</t>
+          <t>kulot</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>192.168.80.236</t>
+          <t>192.168.80.170</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20h45m49s</t>
+          <t>13h23m6s</t>
         </is>
       </c>
     </row>
@@ -5597,17 +5627,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jana123</t>
+          <t>ZTEGPON11</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.80.160</t>
+          <t>192.168.80.185</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>19h21m32s</t>
+          <t>12h3m7s</t>
         </is>
       </c>
     </row>
@@ -5617,17 +5647,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ellazo</t>
+          <t>pabling</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>192.168.80.229</t>
+          <t>192.168.80.179</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>15h20m52s</t>
+          <t>11h51m50s</t>
         </is>
       </c>
     </row>
@@ -5637,17 +5667,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>paaralan</t>
+          <t>blk11lot92</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>192.168.80.195</t>
+          <t>192.168.80.173</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>15h2m31s</t>
+          <t>11h36s</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5687,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>lando1</t>
+          <t>arwina</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>192.168.80.237</t>
+          <t>192.168.80.172</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15h1m27s</t>
+          <t>10h42m47s</t>
         </is>
       </c>
     </row>
@@ -5677,17 +5707,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>rombaoa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192.168.80.199</t>
+          <t>192.168.80.146</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>14h59m34s</t>
+          <t>10h34m15s</t>
         </is>
       </c>
     </row>
@@ -5697,17 +5727,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>ZTEGPON10</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>192.168.80.254</t>
+          <t>192.168.80.154</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>14h23m17s</t>
+          <t>9h17s</t>
         </is>
       </c>
     </row>
@@ -5717,17 +5747,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jeffrey</t>
+          <t>melvi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>192.168.80.192</t>
+          <t>192.168.80.218</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>13h47m9s</t>
+          <t>6h14m32s</t>
         </is>
       </c>
     </row>
@@ -5737,17 +5767,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jr</t>
+          <t>ellazo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>192.168.80.189</t>
+          <t>192.168.80.229</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10h25m59s</t>
+          <t>5h56m59s</t>
         </is>
       </c>
     </row>
@@ -5757,17 +5787,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>edmon</t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.80.202</t>
+          <t>192.168.80.208</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10h15m16s</t>
+          <t>5h41m35s</t>
         </is>
       </c>
     </row>
@@ -5777,17 +5807,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pinsannicookie</t>
+          <t>tata</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.80.253</t>
+          <t>192.168.80.203</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9h58m47s</t>
+          <t>5h34m34s</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5827,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>joy1</t>
+          <t>blk10lot9</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>192.168.80.187</t>
+          <t>192.168.80.219</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>7h49m42s</t>
+          <t>5h32m25s</t>
         </is>
       </c>
     </row>
@@ -5817,17 +5847,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>192.168.80.198</t>
+          <t>192.168.80.191</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7h41m9s</t>
+          <t>5h18s</t>
         </is>
       </c>
     </row>
@@ -5837,17 +5867,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kulot</t>
+          <t>paaralan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>192.168.80.170</t>
+          <t>192.168.80.195</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6h56m19s</t>
+          <t>4h38m49s</t>
         </is>
       </c>
     </row>
@@ -5857,17 +5887,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ateche</t>
+          <t>maymay</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>192.168.80.175</t>
+          <t>192.168.80.206</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5h39m43s</t>
+          <t>3h57m11s</t>
         </is>
       </c>
     </row>
@@ -5877,17 +5907,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ZTEGPON3</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>192.168.80.162</t>
+          <t>192.168.80.199</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4h38m53s</t>
+          <t>3h54m19s</t>
         </is>
       </c>
     </row>
@@ -5897,17 +5927,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>almera</t>
+          <t>lando1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>192.168.80.201</t>
+          <t>192.168.80.237</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3h48m43s</t>
+          <t>3h34m47s</t>
         </is>
       </c>
     </row>
@@ -5917,17 +5947,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>edmon</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>192.168.80.186</t>
+          <t>192.168.80.202</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3h5m10s</t>
+          <t>1h34m47s</t>
         </is>
       </c>
     </row>
@@ -5937,17 +5967,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>192.168.80.246</t>
+          <t>192.168.80.198</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3h4m35s</t>
+          <t>42m19s</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5997,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2m40s</t>
+          <t>18m7s</t>
         </is>
       </c>
     </row>
@@ -5982,7 +6012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6082,6 +6112,21 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IOT-2-V1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fiber harap nila dada 12/13/25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
